--- a/database/industries/lastic/pasa/product/monthly.xlsx
+++ b/database/industries/lastic/pasa/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pasa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79C5F8A-2461-4BB0-B82C-B853DBDBB313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC5C658-0CEC-450E-BD13-F4ADC85C4DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -187,6 +184,9 @@
     <t>ماه 7 منتهی به 1401/07</t>
   </si>
   <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
     <t>تایر</t>
   </si>
   <si>
@@ -196,13 +196,13 @@
     <t>فرآوردها</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>تیوب</t>
   </si>
   <si>
     <t>فرآورده</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>درآمد ارایه خدمات</t>
@@ -1406,154 +1406,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1011773</v>
+        <v>1261343</v>
       </c>
       <c r="F11" s="11">
-        <v>1261343</v>
+        <v>1049770</v>
       </c>
       <c r="G11" s="11">
-        <v>1049770</v>
+        <v>969581</v>
       </c>
       <c r="H11" s="11">
-        <v>969581</v>
+        <v>1104856</v>
       </c>
       <c r="I11" s="11">
-        <v>1104856</v>
+        <v>1052809</v>
       </c>
       <c r="J11" s="11">
-        <v>1052809</v>
+        <v>859101</v>
       </c>
       <c r="K11" s="11">
-        <v>859101</v>
+        <v>385138</v>
       </c>
       <c r="L11" s="11">
-        <v>385138</v>
+        <v>901618</v>
       </c>
       <c r="M11" s="11">
-        <v>901618</v>
+        <v>650167</v>
       </c>
       <c r="N11" s="11">
-        <v>650167</v>
+        <v>1045509</v>
       </c>
       <c r="O11" s="11">
-        <v>1045509</v>
+        <v>879435</v>
       </c>
       <c r="P11" s="11">
-        <v>879435</v>
+        <v>753893</v>
       </c>
       <c r="Q11" s="11">
-        <v>753893</v>
+        <v>962542</v>
       </c>
       <c r="R11" s="11">
-        <v>962542</v>
+        <v>607503</v>
       </c>
       <c r="S11" s="11">
-        <v>607503</v>
+        <v>1207512</v>
       </c>
       <c r="T11" s="11">
-        <v>1207512</v>
+        <v>1184991</v>
       </c>
       <c r="U11" s="11">
-        <v>1184991</v>
+        <v>1170212</v>
       </c>
       <c r="V11" s="11">
-        <v>1170212</v>
+        <v>575527</v>
       </c>
       <c r="W11" s="11">
-        <v>575527</v>
+        <v>33077</v>
       </c>
       <c r="X11" s="11">
-        <v>33077</v>
+        <v>1228618</v>
       </c>
       <c r="Y11" s="11">
-        <v>1228618</v>
+        <v>1010922</v>
       </c>
       <c r="Z11" s="11">
-        <v>1010922</v>
+        <v>1325483</v>
       </c>
       <c r="AA11" s="11">
-        <v>1325483</v>
+        <v>1156344</v>
       </c>
       <c r="AB11" s="11">
-        <v>1156344</v>
+        <v>197112</v>
       </c>
       <c r="AC11" s="11">
-        <v>197112</v>
+        <v>774553</v>
       </c>
       <c r="AD11" s="11">
-        <v>774553</v>
+        <v>1175860</v>
       </c>
       <c r="AE11" s="11">
-        <v>1175860</v>
+        <v>1276508</v>
       </c>
       <c r="AF11" s="11">
-        <v>1276508</v>
+        <v>1260775</v>
       </c>
       <c r="AG11" s="11">
-        <v>1260775</v>
+        <v>1087802</v>
       </c>
       <c r="AH11" s="11">
-        <v>1087802</v>
+        <v>651932</v>
       </c>
       <c r="AI11" s="11">
-        <v>651932</v>
+        <v>537758</v>
       </c>
       <c r="AJ11" s="11">
-        <v>537758</v>
+        <v>1057005</v>
       </c>
       <c r="AK11" s="11">
-        <v>1057005</v>
+        <v>1240544</v>
       </c>
       <c r="AL11" s="11">
-        <v>1240544</v>
+        <v>1357633</v>
       </c>
       <c r="AM11" s="11">
-        <v>1357633</v>
+        <v>866889</v>
       </c>
       <c r="AN11" s="11">
-        <v>866889</v>
+        <v>1414212</v>
       </c>
       <c r="AO11" s="11">
-        <v>1414212</v>
+        <v>1277905</v>
       </c>
       <c r="AP11" s="11">
-        <v>1277905</v>
+        <v>1379084</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1379084</v>
+        <v>1362327</v>
       </c>
       <c r="AR11" s="11">
-        <v>1362327</v>
+        <v>1255588</v>
       </c>
       <c r="AS11" s="11">
-        <v>1255588</v>
+        <v>1326245</v>
       </c>
       <c r="AT11" s="11">
-        <v>1326245</v>
+        <v>813561</v>
       </c>
       <c r="AU11" s="11">
-        <v>813561</v>
+        <v>666056</v>
       </c>
       <c r="AV11" s="11">
-        <v>666056</v>
+        <v>1284935</v>
       </c>
       <c r="AW11" s="11">
-        <v>1284935</v>
+        <v>1414467</v>
       </c>
       <c r="AX11" s="11">
-        <v>1414467</v>
+        <v>1262842</v>
       </c>
       <c r="AY11" s="11">
-        <v>1262842</v>
+        <v>1215231</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1215231</v>
+        <v>1130358</v>
       </c>
       <c r="BA11" s="11">
-        <v>1130358</v>
+        <v>949821</v>
       </c>
       <c r="BB11" s="11">
-        <v>949821</v>
+        <v>1462906</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1565,97 +1565,97 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>82059</v>
+        <v>78258</v>
       </c>
       <c r="F12" s="13">
-        <v>78258</v>
+        <v>93016</v>
       </c>
       <c r="G12" s="13">
-        <v>93016</v>
+        <v>86574</v>
       </c>
       <c r="H12" s="13">
-        <v>86574</v>
+        <v>148189</v>
       </c>
       <c r="I12" s="13">
-        <v>148189</v>
+        <v>53987</v>
       </c>
       <c r="J12" s="13">
-        <v>53987</v>
+        <v>31972</v>
       </c>
       <c r="K12" s="13">
-        <v>31972</v>
+        <v>17287</v>
       </c>
       <c r="L12" s="13">
-        <v>17287</v>
+        <v>43996</v>
       </c>
       <c r="M12" s="13">
-        <v>43996</v>
+        <v>68688</v>
       </c>
       <c r="N12" s="13">
-        <v>68688</v>
+        <v>85152</v>
       </c>
       <c r="O12" s="13">
-        <v>85152</v>
+        <v>76075</v>
       </c>
       <c r="P12" s="13">
-        <v>76075</v>
+        <v>26625</v>
       </c>
       <c r="Q12" s="13">
-        <v>26625</v>
+        <v>23158</v>
       </c>
       <c r="R12" s="13">
-        <v>23158</v>
+        <v>27666</v>
       </c>
       <c r="S12" s="13">
-        <v>27666</v>
+        <v>77369</v>
       </c>
       <c r="T12" s="13">
-        <v>77369</v>
+        <v>150052</v>
       </c>
       <c r="U12" s="13">
-        <v>150052</v>
+        <v>171298</v>
       </c>
       <c r="V12" s="13">
-        <v>171298</v>
+        <v>84171</v>
       </c>
       <c r="W12" s="13">
-        <v>84171</v>
+        <v>3848</v>
       </c>
       <c r="X12" s="13">
-        <v>3848</v>
+        <v>110265</v>
       </c>
       <c r="Y12" s="13">
-        <v>110265</v>
+        <v>80266</v>
       </c>
       <c r="Z12" s="13">
-        <v>80266</v>
+        <v>124515</v>
       </c>
       <c r="AA12" s="13">
-        <v>124515</v>
+        <v>110120</v>
       </c>
       <c r="AB12" s="13">
-        <v>110120</v>
+        <v>103430</v>
       </c>
       <c r="AC12" s="13">
-        <v>103430</v>
+        <v>66209</v>
       </c>
       <c r="AD12" s="13">
-        <v>66209</v>
+        <v>71944</v>
       </c>
       <c r="AE12" s="13">
-        <v>71944</v>
+        <v>112511</v>
       </c>
       <c r="AF12" s="13">
-        <v>112511</v>
+        <v>105943</v>
       </c>
       <c r="AG12" s="13">
-        <v>105943</v>
+        <v>94317</v>
       </c>
       <c r="AH12" s="13">
-        <v>94317</v>
+        <v>70052</v>
       </c>
       <c r="AI12" s="13">
-        <v>70052</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="13">
         <v>0</v>
@@ -1685,352 +1685,352 @@
         <v>0</v>
       </c>
       <c r="AS12" s="13">
-        <v>0</v>
+        <v>1176506</v>
       </c>
       <c r="AT12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>61089</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>142674</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>132872</v>
-      </c>
-      <c r="AY12" s="13">
-        <v>101431</v>
-      </c>
-      <c r="AZ12" s="13">
-        <v>114885</v>
-      </c>
-      <c r="BA12" s="13">
-        <v>23535</v>
-      </c>
-      <c r="BB12" s="13">
-        <v>26527</v>
+        <v>64456</v>
+      </c>
+      <c r="AU12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB12" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>171840</v>
+        <v>205755</v>
       </c>
       <c r="F13" s="11">
-        <v>205755</v>
+        <v>238526</v>
       </c>
       <c r="G13" s="11">
-        <v>238526</v>
+        <v>255519</v>
       </c>
       <c r="H13" s="11">
-        <v>255519</v>
+        <v>343206</v>
       </c>
       <c r="I13" s="11">
-        <v>343206</v>
+        <v>272708</v>
       </c>
       <c r="J13" s="11">
-        <v>272708</v>
+        <v>200829</v>
       </c>
       <c r="K13" s="11">
-        <v>200829</v>
+        <v>110406</v>
       </c>
       <c r="L13" s="11">
-        <v>110406</v>
+        <v>216771</v>
       </c>
       <c r="M13" s="11">
-        <v>216771</v>
+        <v>157816</v>
       </c>
       <c r="N13" s="11">
-        <v>157816</v>
+        <v>254754</v>
       </c>
       <c r="O13" s="11">
-        <v>254754</v>
+        <v>231616</v>
       </c>
       <c r="P13" s="11">
-        <v>231616</v>
+        <v>222176</v>
       </c>
       <c r="Q13" s="11">
-        <v>222176</v>
+        <v>278061</v>
       </c>
       <c r="R13" s="11">
-        <v>278061</v>
+        <v>188038</v>
       </c>
       <c r="S13" s="11">
-        <v>188038</v>
+        <v>264573</v>
       </c>
       <c r="T13" s="11">
-        <v>264573</v>
+        <v>250011</v>
       </c>
       <c r="U13" s="11">
-        <v>250011</v>
+        <v>258946</v>
       </c>
       <c r="V13" s="11">
-        <v>258946</v>
+        <v>114303</v>
       </c>
       <c r="W13" s="11">
-        <v>114303</v>
+        <v>6301</v>
       </c>
       <c r="X13" s="11">
-        <v>6301</v>
+        <v>301657</v>
       </c>
       <c r="Y13" s="11">
-        <v>301657</v>
+        <v>238531</v>
       </c>
       <c r="Z13" s="11">
-        <v>238531</v>
+        <v>332468</v>
       </c>
       <c r="AA13" s="11">
-        <v>332468</v>
+        <v>314218</v>
       </c>
       <c r="AB13" s="11">
-        <v>314218</v>
+        <v>1285139</v>
       </c>
       <c r="AC13" s="11">
-        <v>1285139</v>
+        <v>218610</v>
       </c>
       <c r="AD13" s="11">
-        <v>218610</v>
+        <v>315710</v>
       </c>
       <c r="AE13" s="11">
-        <v>315710</v>
+        <v>310027</v>
       </c>
       <c r="AF13" s="11">
-        <v>310027</v>
+        <v>310581</v>
       </c>
       <c r="AG13" s="11">
-        <v>310581</v>
+        <v>234342</v>
       </c>
       <c r="AH13" s="11">
-        <v>234342</v>
+        <v>131430</v>
       </c>
       <c r="AI13" s="11">
-        <v>131430</v>
+        <v>111657</v>
       </c>
       <c r="AJ13" s="11">
-        <v>111657</v>
+        <v>181932</v>
       </c>
       <c r="AK13" s="11">
-        <v>181932</v>
+        <v>156101</v>
       </c>
       <c r="AL13" s="11">
-        <v>156101</v>
+        <v>170724</v>
       </c>
       <c r="AM13" s="11">
-        <v>170724</v>
+        <v>110235</v>
       </c>
       <c r="AN13" s="11">
-        <v>110235</v>
+        <v>286846</v>
       </c>
       <c r="AO13" s="11">
-        <v>286846</v>
+        <v>240282</v>
       </c>
       <c r="AP13" s="11">
-        <v>240282</v>
+        <v>254640</v>
       </c>
       <c r="AQ13" s="11">
-        <v>254640</v>
+        <v>272919</v>
       </c>
       <c r="AR13" s="11">
-        <v>272919</v>
+        <v>223708</v>
       </c>
       <c r="AS13" s="11">
-        <v>223708</v>
+        <v>226709</v>
       </c>
       <c r="AT13" s="11">
-        <v>226709</v>
+        <v>194299</v>
       </c>
       <c r="AU13" s="11">
-        <v>194299</v>
+        <v>100164</v>
       </c>
       <c r="AV13" s="11">
-        <v>100164</v>
+        <v>183692</v>
       </c>
       <c r="AW13" s="11">
-        <v>183692</v>
+        <v>196344</v>
       </c>
       <c r="AX13" s="11">
-        <v>196344</v>
+        <v>165035</v>
       </c>
       <c r="AY13" s="11">
-        <v>165035</v>
+        <v>162716</v>
       </c>
       <c r="AZ13" s="11">
-        <v>162716</v>
+        <v>206418</v>
       </c>
       <c r="BA13" s="11">
-        <v>206418</v>
+        <v>116371</v>
       </c>
       <c r="BB13" s="11">
-        <v>116371</v>
+        <v>184422</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AG14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AH14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>56441</v>
       </c>
       <c r="AJ14" s="13">
-        <v>56441</v>
+        <v>122686</v>
       </c>
       <c r="AK14" s="13">
-        <v>122686</v>
+        <v>216298</v>
       </c>
       <c r="AL14" s="13">
-        <v>216298</v>
+        <v>192322</v>
       </c>
       <c r="AM14" s="13">
-        <v>192322</v>
+        <v>117622</v>
       </c>
       <c r="AN14" s="13">
-        <v>117622</v>
+        <v>24402</v>
       </c>
       <c r="AO14" s="13">
-        <v>24402</v>
+        <v>76558</v>
       </c>
       <c r="AP14" s="13">
-        <v>76558</v>
+        <v>88699</v>
       </c>
       <c r="AQ14" s="13">
-        <v>88699</v>
+        <v>105933</v>
       </c>
       <c r="AR14" s="13">
-        <v>105933</v>
-      </c>
-      <c r="AS14" s="13">
         <v>85939</v>
       </c>
-      <c r="AT14" s="13">
-        <v>89606</v>
+      <c r="AS14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU14" s="13">
-        <v>64456</v>
+        <v>61089</v>
       </c>
       <c r="AV14" s="13">
-        <v>0</v>
+        <v>142674</v>
       </c>
       <c r="AW14" s="13">
-        <v>0</v>
+        <v>132872</v>
       </c>
       <c r="AX14" s="13">
-        <v>0</v>
+        <v>101431</v>
       </c>
       <c r="AY14" s="13">
-        <v>0</v>
+        <v>114885</v>
       </c>
       <c r="AZ14" s="13">
-        <v>0</v>
+        <v>23535</v>
       </c>
       <c r="BA14" s="13">
-        <v>0</v>
+        <v>26527</v>
       </c>
       <c r="BB14" s="13">
-        <v>0</v>
+        <v>46778</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2097,70 +2097,70 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="Z16" s="17">
+        <v>0</v>
       </c>
       <c r="AA16" s="17">
         <v>0</v>
@@ -2254,154 +2254,154 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19">
-        <v>1265672</v>
+        <v>1545356</v>
       </c>
       <c r="F17" s="19">
-        <v>1545356</v>
+        <v>1381312</v>
       </c>
       <c r="G17" s="19">
-        <v>1381312</v>
+        <v>1311674</v>
       </c>
       <c r="H17" s="19">
-        <v>1311674</v>
+        <v>1596251</v>
       </c>
       <c r="I17" s="19">
-        <v>1596251</v>
+        <v>1379504</v>
       </c>
       <c r="J17" s="19">
-        <v>1379504</v>
+        <v>1091902</v>
       </c>
       <c r="K17" s="19">
-        <v>1091902</v>
+        <v>512831</v>
       </c>
       <c r="L17" s="19">
-        <v>512831</v>
+        <v>1162385</v>
       </c>
       <c r="M17" s="19">
-        <v>1162385</v>
+        <v>876671</v>
       </c>
       <c r="N17" s="19">
-        <v>876671</v>
+        <v>1385415</v>
       </c>
       <c r="O17" s="19">
-        <v>1385415</v>
+        <v>1187126</v>
       </c>
       <c r="P17" s="19">
-        <v>1187126</v>
+        <v>1002694</v>
       </c>
       <c r="Q17" s="19">
-        <v>1002694</v>
+        <v>1263761</v>
       </c>
       <c r="R17" s="19">
-        <v>1263761</v>
+        <v>823207</v>
       </c>
       <c r="S17" s="19">
-        <v>823207</v>
+        <v>1549454</v>
       </c>
       <c r="T17" s="19">
-        <v>1549454</v>
+        <v>1585054</v>
       </c>
       <c r="U17" s="19">
-        <v>1585054</v>
+        <v>1600456</v>
       </c>
       <c r="V17" s="19">
-        <v>1600456</v>
+        <v>774001</v>
       </c>
       <c r="W17" s="19">
-        <v>774001</v>
+        <v>43226</v>
       </c>
       <c r="X17" s="19">
-        <v>43226</v>
+        <v>1640540</v>
       </c>
       <c r="Y17" s="19">
-        <v>1640540</v>
+        <v>1329719</v>
       </c>
       <c r="Z17" s="19">
-        <v>1329719</v>
+        <v>1782466</v>
       </c>
       <c r="AA17" s="19">
-        <v>1782466</v>
+        <v>1580682</v>
       </c>
       <c r="AB17" s="19">
-        <v>1580682</v>
+        <v>1585681</v>
       </c>
       <c r="AC17" s="19">
-        <v>1585681</v>
+        <v>1059372</v>
       </c>
       <c r="AD17" s="19">
-        <v>1059372</v>
+        <v>1563514</v>
       </c>
       <c r="AE17" s="19">
-        <v>1563514</v>
+        <v>1699046</v>
       </c>
       <c r="AF17" s="19">
-        <v>1699046</v>
+        <v>1677299</v>
       </c>
       <c r="AG17" s="19">
-        <v>1677299</v>
+        <v>1416461</v>
       </c>
       <c r="AH17" s="19">
-        <v>1416461</v>
+        <v>853414</v>
       </c>
       <c r="AI17" s="19">
-        <v>853414</v>
+        <v>705856</v>
       </c>
       <c r="AJ17" s="19">
-        <v>705856</v>
+        <v>1361623</v>
       </c>
       <c r="AK17" s="19">
-        <v>1361623</v>
+        <v>1612943</v>
       </c>
       <c r="AL17" s="19">
-        <v>1612943</v>
+        <v>1720679</v>
       </c>
       <c r="AM17" s="19">
-        <v>1720679</v>
+        <v>1094746</v>
       </c>
       <c r="AN17" s="19">
-        <v>1094746</v>
+        <v>1725460</v>
       </c>
       <c r="AO17" s="19">
-        <v>1725460</v>
+        <v>1594745</v>
       </c>
       <c r="AP17" s="19">
-        <v>1594745</v>
+        <v>1722423</v>
       </c>
       <c r="AQ17" s="19">
-        <v>1722423</v>
+        <v>1741179</v>
       </c>
       <c r="AR17" s="19">
-        <v>1741179</v>
+        <v>1565235</v>
       </c>
       <c r="AS17" s="19">
-        <v>1565235</v>
+        <v>2729460</v>
       </c>
       <c r="AT17" s="19">
-        <v>1642560</v>
+        <v>1072316</v>
       </c>
       <c r="AU17" s="19">
-        <v>1072316</v>
+        <v>827309</v>
       </c>
       <c r="AV17" s="19">
-        <v>827309</v>
+        <v>1611301</v>
       </c>
       <c r="AW17" s="19">
-        <v>1611301</v>
+        <v>1743683</v>
       </c>
       <c r="AX17" s="19">
-        <v>1743683</v>
+        <v>1529308</v>
       </c>
       <c r="AY17" s="19">
-        <v>1529308</v>
+        <v>1492832</v>
       </c>
       <c r="AZ17" s="19">
-        <v>1492832</v>
+        <v>1360311</v>
       </c>
       <c r="BA17" s="19">
-        <v>1360311</v>
+        <v>1092719</v>
       </c>
       <c r="BB17" s="19">
-        <v>1092719</v>
+        <v>1694106</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2847,154 +2847,154 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>880577</v>
+        <v>618653</v>
       </c>
       <c r="F24" s="11">
-        <v>618653</v>
+        <v>444663</v>
       </c>
       <c r="G24" s="11">
-        <v>444663</v>
+        <v>518342</v>
       </c>
       <c r="H24" s="11">
-        <v>518342</v>
+        <v>880133</v>
       </c>
       <c r="I24" s="11">
-        <v>880133</v>
+        <v>909921</v>
       </c>
       <c r="J24" s="11">
-        <v>909921</v>
+        <v>913849</v>
       </c>
       <c r="K24" s="11">
-        <v>913849</v>
+        <v>384505</v>
       </c>
       <c r="L24" s="11">
-        <v>384505</v>
+        <v>904752</v>
       </c>
       <c r="M24" s="11">
-        <v>904752</v>
+        <v>842899</v>
       </c>
       <c r="N24" s="11">
-        <v>842899</v>
+        <v>1163094</v>
       </c>
       <c r="O24" s="11">
-        <v>1163094</v>
+        <v>793394</v>
       </c>
       <c r="P24" s="11">
-        <v>793394</v>
+        <v>728426</v>
       </c>
       <c r="Q24" s="11">
-        <v>728426</v>
+        <v>856791</v>
       </c>
       <c r="R24" s="11">
-        <v>856791</v>
+        <v>559596</v>
       </c>
       <c r="S24" s="11">
-        <v>559596</v>
+        <v>1144361</v>
       </c>
       <c r="T24" s="11">
-        <v>1144361</v>
+        <v>924984</v>
       </c>
       <c r="U24" s="11">
-        <v>924984</v>
+        <v>969774</v>
       </c>
       <c r="V24" s="11">
-        <v>969774</v>
+        <v>1153613</v>
       </c>
       <c r="W24" s="11">
-        <v>1153613</v>
+        <v>522710</v>
       </c>
       <c r="X24" s="11">
-        <v>522710</v>
+        <v>1204049</v>
       </c>
       <c r="Y24" s="11">
-        <v>1204049</v>
+        <v>1123955</v>
       </c>
       <c r="Z24" s="11">
-        <v>1123955</v>
+        <v>1160863</v>
       </c>
       <c r="AA24" s="11">
-        <v>1160863</v>
+        <v>1368111</v>
       </c>
       <c r="AB24" s="11">
-        <v>1368111</v>
+        <v>1382556</v>
       </c>
       <c r="AC24" s="11">
-        <v>1382556</v>
+        <v>861260</v>
       </c>
       <c r="AD24" s="11">
-        <v>861260</v>
+        <v>1047843</v>
       </c>
       <c r="AE24" s="11">
-        <v>1047843</v>
+        <v>873150</v>
       </c>
       <c r="AF24" s="11">
-        <v>873150</v>
+        <v>1004847</v>
       </c>
       <c r="AG24" s="11">
-        <v>1004847</v>
+        <v>997421</v>
       </c>
       <c r="AH24" s="11">
-        <v>997421</v>
+        <v>984653</v>
       </c>
       <c r="AI24" s="11">
-        <v>984653</v>
+        <v>928493</v>
       </c>
       <c r="AJ24" s="11">
-        <v>928493</v>
+        <v>1197969</v>
       </c>
       <c r="AK24" s="11">
-        <v>1197969</v>
+        <v>1547146</v>
       </c>
       <c r="AL24" s="11">
-        <v>1547146</v>
+        <v>1463871</v>
       </c>
       <c r="AM24" s="11">
-        <v>1463871</v>
+        <v>1004148</v>
       </c>
       <c r="AN24" s="11">
-        <v>1004148</v>
+        <v>1159706</v>
       </c>
       <c r="AO24" s="11">
-        <v>1159706</v>
+        <v>1015911</v>
       </c>
       <c r="AP24" s="11">
-        <v>1015911</v>
+        <v>918470</v>
       </c>
       <c r="AQ24" s="11">
-        <v>918470</v>
+        <v>863394</v>
       </c>
       <c r="AR24" s="11">
-        <v>863394</v>
+        <v>750252</v>
       </c>
       <c r="AS24" s="11">
-        <v>750252</v>
+        <v>974917</v>
       </c>
       <c r="AT24" s="11">
-        <v>974917</v>
+        <v>998634</v>
       </c>
       <c r="AU24" s="11">
-        <v>998634</v>
+        <v>1062771</v>
       </c>
       <c r="AV24" s="11">
-        <v>1062771</v>
+        <v>1065253</v>
       </c>
       <c r="AW24" s="11">
-        <v>1065253</v>
+        <v>1670869</v>
       </c>
       <c r="AX24" s="11">
-        <v>1670869</v>
+        <v>1328653</v>
       </c>
       <c r="AY24" s="11">
-        <v>1328653</v>
+        <v>1436345</v>
       </c>
       <c r="AZ24" s="11">
-        <v>1436345</v>
+        <v>1393474</v>
       </c>
       <c r="BA24" s="11">
-        <v>1393474</v>
+        <v>1408025</v>
       </c>
       <c r="BB24" s="11">
-        <v>1408025</v>
+        <v>924974</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3006,97 +3006,97 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>67519</v>
+        <v>74377</v>
       </c>
       <c r="F25" s="13">
-        <v>74377</v>
+        <v>51990</v>
       </c>
       <c r="G25" s="13">
-        <v>51990</v>
+        <v>33227</v>
       </c>
       <c r="H25" s="13">
-        <v>33227</v>
+        <v>39290</v>
       </c>
       <c r="I25" s="13">
-        <v>39290</v>
+        <v>49501</v>
       </c>
       <c r="J25" s="13">
-        <v>49501</v>
+        <v>34436</v>
       </c>
       <c r="K25" s="13">
-        <v>34436</v>
+        <v>6275</v>
       </c>
       <c r="L25" s="13">
-        <v>6275</v>
+        <v>151979</v>
       </c>
       <c r="M25" s="13">
-        <v>151979</v>
+        <v>21571</v>
       </c>
       <c r="N25" s="13">
-        <v>21571</v>
+        <v>64157</v>
       </c>
       <c r="O25" s="13">
-        <v>64157</v>
+        <v>65000</v>
       </c>
       <c r="P25" s="13">
-        <v>65000</v>
+        <v>49346</v>
       </c>
       <c r="Q25" s="13">
-        <v>49346</v>
+        <v>52508</v>
       </c>
       <c r="R25" s="13">
-        <v>52508</v>
+        <v>40838</v>
       </c>
       <c r="S25" s="13">
-        <v>40838</v>
+        <v>92456</v>
       </c>
       <c r="T25" s="13">
-        <v>92456</v>
+        <v>62260</v>
       </c>
       <c r="U25" s="13">
-        <v>62260</v>
+        <v>25637</v>
       </c>
       <c r="V25" s="13">
-        <v>25637</v>
+        <v>56023</v>
       </c>
       <c r="W25" s="13">
-        <v>56023</v>
+        <v>41237</v>
       </c>
       <c r="X25" s="13">
-        <v>41237</v>
+        <v>96177</v>
       </c>
       <c r="Y25" s="13">
-        <v>96177</v>
+        <v>74109</v>
       </c>
       <c r="Z25" s="13">
-        <v>74109</v>
+        <v>121878</v>
       </c>
       <c r="AA25" s="13">
-        <v>121878</v>
+        <v>85611</v>
       </c>
       <c r="AB25" s="13">
-        <v>85611</v>
+        <v>78826</v>
       </c>
       <c r="AC25" s="13">
-        <v>78826</v>
+        <v>106761</v>
       </c>
       <c r="AD25" s="13">
-        <v>106761</v>
+        <v>85491</v>
       </c>
       <c r="AE25" s="13">
-        <v>85491</v>
+        <v>97876</v>
       </c>
       <c r="AF25" s="13">
-        <v>97876</v>
+        <v>93514</v>
       </c>
       <c r="AG25" s="13">
-        <v>93514</v>
+        <v>84526</v>
       </c>
       <c r="AH25" s="13">
-        <v>84526</v>
+        <v>112587</v>
       </c>
       <c r="AI25" s="13">
-        <v>112587</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="13">
         <v>0</v>
@@ -3126,352 +3126,352 @@
         <v>0</v>
       </c>
       <c r="AS25" s="13">
-        <v>0</v>
+        <v>1087095</v>
       </c>
       <c r="AT25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="13">
-        <v>99905</v>
-      </c>
-      <c r="AW25" s="13">
-        <v>89183</v>
-      </c>
-      <c r="AX25" s="13">
-        <v>130589</v>
-      </c>
-      <c r="AY25" s="13">
-        <v>100244</v>
-      </c>
-      <c r="AZ25" s="13">
-        <v>93413</v>
-      </c>
-      <c r="BA25" s="13">
-        <v>103354</v>
-      </c>
-      <c r="BB25" s="13">
-        <v>15803</v>
+        <v>86030</v>
+      </c>
+      <c r="AU25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB25" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>337018</v>
+        <v>248136</v>
       </c>
       <c r="F26" s="11">
-        <v>248136</v>
+        <v>229779</v>
       </c>
       <c r="G26" s="11">
-        <v>229779</v>
+        <v>216079</v>
       </c>
       <c r="H26" s="11">
-        <v>216079</v>
+        <v>208237</v>
       </c>
       <c r="I26" s="11">
-        <v>208237</v>
+        <v>425484</v>
       </c>
       <c r="J26" s="11">
-        <v>425484</v>
+        <v>298189</v>
       </c>
       <c r="K26" s="11">
-        <v>298189</v>
+        <v>125495</v>
       </c>
       <c r="L26" s="11">
-        <v>125495</v>
+        <v>152040</v>
       </c>
       <c r="M26" s="11">
-        <v>152040</v>
+        <v>177790</v>
       </c>
       <c r="N26" s="11">
-        <v>177790</v>
+        <v>216973</v>
       </c>
       <c r="O26" s="11">
-        <v>216973</v>
+        <v>128291</v>
       </c>
       <c r="P26" s="11">
-        <v>128291</v>
+        <v>191356</v>
       </c>
       <c r="Q26" s="11">
-        <v>191356</v>
+        <v>219123</v>
       </c>
       <c r="R26" s="11">
-        <v>219123</v>
+        <v>220042</v>
       </c>
       <c r="S26" s="11">
-        <v>220042</v>
+        <v>153478</v>
       </c>
       <c r="T26" s="11">
-        <v>153478</v>
+        <v>293800</v>
       </c>
       <c r="U26" s="11">
-        <v>293800</v>
+        <v>305544</v>
       </c>
       <c r="V26" s="11">
-        <v>305544</v>
+        <v>163002</v>
       </c>
       <c r="W26" s="11">
-        <v>163002</v>
+        <v>137121</v>
       </c>
       <c r="X26" s="11">
-        <v>137121</v>
+        <v>146263</v>
       </c>
       <c r="Y26" s="11">
-        <v>146263</v>
+        <v>209298</v>
       </c>
       <c r="Z26" s="11">
-        <v>209298</v>
+        <v>294755</v>
       </c>
       <c r="AA26" s="11">
-        <v>294755</v>
+        <v>239210</v>
       </c>
       <c r="AB26" s="11">
-        <v>239210</v>
+        <v>328167</v>
       </c>
       <c r="AC26" s="11">
-        <v>328167</v>
+        <v>146626</v>
       </c>
       <c r="AD26" s="11">
-        <v>146626</v>
+        <v>268507</v>
       </c>
       <c r="AE26" s="11">
-        <v>268507</v>
+        <v>166402</v>
       </c>
       <c r="AF26" s="11">
-        <v>166402</v>
+        <v>192409</v>
       </c>
       <c r="AG26" s="11">
-        <v>192409</v>
+        <v>212996</v>
       </c>
       <c r="AH26" s="11">
-        <v>212996</v>
+        <v>237658</v>
       </c>
       <c r="AI26" s="11">
-        <v>237658</v>
+        <v>209468</v>
       </c>
       <c r="AJ26" s="11">
-        <v>209468</v>
+        <v>329376</v>
       </c>
       <c r="AK26" s="11">
-        <v>329376</v>
+        <v>316007</v>
       </c>
       <c r="AL26" s="11">
-        <v>316007</v>
+        <v>159606</v>
       </c>
       <c r="AM26" s="11">
-        <v>159606</v>
+        <v>279923</v>
       </c>
       <c r="AN26" s="11">
-        <v>279923</v>
+        <v>324037</v>
       </c>
       <c r="AO26" s="11">
-        <v>324037</v>
+        <v>301738</v>
       </c>
       <c r="AP26" s="11">
-        <v>301738</v>
+        <v>220791</v>
       </c>
       <c r="AQ26" s="11">
-        <v>220791</v>
+        <v>238631</v>
       </c>
       <c r="AR26" s="11">
-        <v>238631</v>
+        <v>191930</v>
       </c>
       <c r="AS26" s="11">
-        <v>191930</v>
+        <v>58863</v>
       </c>
       <c r="AT26" s="11">
-        <v>58863</v>
+        <v>181103</v>
       </c>
       <c r="AU26" s="11">
-        <v>181103</v>
+        <v>189432</v>
       </c>
       <c r="AV26" s="11">
-        <v>189432</v>
+        <v>197545</v>
       </c>
       <c r="AW26" s="11">
-        <v>197545</v>
+        <v>236603</v>
       </c>
       <c r="AX26" s="11">
-        <v>236603</v>
+        <v>188915</v>
       </c>
       <c r="AY26" s="11">
-        <v>188915</v>
+        <v>208117</v>
       </c>
       <c r="AZ26" s="11">
-        <v>208117</v>
+        <v>213605</v>
       </c>
       <c r="BA26" s="11">
-        <v>213605</v>
+        <v>299382</v>
       </c>
       <c r="BB26" s="11">
-        <v>299382</v>
+        <v>128393</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AC27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AG27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AH27" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AI27" s="13">
+        <v>68091</v>
       </c>
       <c r="AJ27" s="13">
-        <v>68091</v>
+        <v>127691</v>
       </c>
       <c r="AK27" s="13">
-        <v>127691</v>
+        <v>140353</v>
       </c>
       <c r="AL27" s="13">
-        <v>140353</v>
+        <v>123855</v>
       </c>
       <c r="AM27" s="13">
-        <v>123855</v>
+        <v>114719</v>
       </c>
       <c r="AN27" s="13">
-        <v>114719</v>
+        <v>118876</v>
       </c>
       <c r="AO27" s="13">
-        <v>118876</v>
+        <v>66307</v>
       </c>
       <c r="AP27" s="13">
-        <v>66307</v>
+        <v>100918</v>
       </c>
       <c r="AQ27" s="13">
-        <v>100918</v>
+        <v>81510</v>
       </c>
       <c r="AR27" s="13">
-        <v>81510</v>
-      </c>
-      <c r="AS27" s="13">
         <v>59708</v>
       </c>
-      <c r="AT27" s="13">
-        <v>85067</v>
+      <c r="AS27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT27" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU27" s="13">
-        <v>86030</v>
+        <v>99905</v>
       </c>
       <c r="AV27" s="13">
-        <v>0</v>
+        <v>89183</v>
       </c>
       <c r="AW27" s="13">
-        <v>0</v>
+        <v>130611</v>
       </c>
       <c r="AX27" s="13">
-        <v>22</v>
+        <v>100244</v>
       </c>
       <c r="AY27" s="13">
-        <v>0</v>
+        <v>93413</v>
       </c>
       <c r="AZ27" s="13">
-        <v>0</v>
+        <v>103354</v>
       </c>
       <c r="BA27" s="13">
-        <v>0</v>
+        <v>16002</v>
       </c>
       <c r="BB27" s="13">
-        <v>199</v>
+        <v>175537</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3538,70 +3538,70 @@
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y29" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="Z29" s="17">
+        <v>0</v>
       </c>
       <c r="AA29" s="17">
         <v>0</v>
@@ -3754,79 +3754,79 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AB31" s="11">
+        <v>-2359</v>
       </c>
       <c r="AC31" s="11">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="11">
         <v>0</v>
@@ -3835,73 +3835,73 @@
         <v>0</v>
       </c>
       <c r="AF31" s="11">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AG31" s="11">
-        <v>-94</v>
+        <v>-73</v>
       </c>
       <c r="AH31" s="11">
-        <v>-73</v>
-      </c>
-      <c r="AI31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ31" s="11">
         <v>-804</v>
       </c>
-      <c r="AL31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM31" s="11">
+      <c r="AK31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL31" s="11">
         <v>-673</v>
       </c>
+      <c r="AM31" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AN31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AO31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AP31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AQ31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AR31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AS31" s="11">
+        <v>-12</v>
       </c>
       <c r="AT31" s="11">
-        <v>-12</v>
-      </c>
-      <c r="AU31" s="11">
         <v>-27520</v>
       </c>
+      <c r="AU31" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AW31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY31" s="11">
+        <v>58</v>
+      </c>
+      <c r="AX31" s="11">
         <v>-8</v>
       </c>
-      <c r="AZ31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA31" s="11">
+      <c r="AY31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ31" s="11">
         <v>-257927</v>
       </c>
-      <c r="BB31" s="11" t="s">
-        <v>60</v>
+      <c r="BA31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB31" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -3913,472 +3913,472 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AC32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AG32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AH32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AJ32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK32" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL32" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM32" s="13">
+        <v>58</v>
+      </c>
+      <c r="AL32" s="13">
         <v>-22</v>
       </c>
+      <c r="AM32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AO32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AP32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AQ32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AR32" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AS32" s="13">
+        <v>0</v>
       </c>
       <c r="AT32" s="13">
         <v>0</v>
       </c>
-      <c r="AU32" s="13">
-        <v>0</v>
+      <c r="AU32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AW32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AX32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AY32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AZ32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BA32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BB32" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AC33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AG33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AH33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AJ33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AL33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AM33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO33" s="11">
+        <v>58</v>
+      </c>
+      <c r="AN33" s="11">
         <v>-376</v>
       </c>
+      <c r="AO33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AQ33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AR33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AS33" s="11">
+        <v>0</v>
       </c>
       <c r="AT33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU33" s="11">
         <v>-10000</v>
       </c>
+      <c r="AU33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AW33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY33" s="11">
+        <v>58</v>
+      </c>
+      <c r="AX33" s="11">
         <v>-1</v>
       </c>
-      <c r="AZ33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA33" s="11">
+      <c r="AY33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ33" s="11">
         <v>-53336</v>
       </c>
-      <c r="BB33" s="11" t="s">
-        <v>60</v>
+      <c r="BA33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB33" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AC34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AG34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AH34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AJ34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AL34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AM34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AN34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AO34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AP34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AQ34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AR34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AS34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AT34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AU34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AV34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AW34" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX34" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY34" s="13">
+        <v>58</v>
+      </c>
+      <c r="AX34" s="13">
         <v>-15547</v>
       </c>
-      <c r="AZ34" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA34" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB34" s="13" t="s">
-        <v>60</v>
+      <c r="AY34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ34" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB34" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4388,79 +4388,79 @@
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="Z35" s="17">
+        <v>0</v>
       </c>
       <c r="AA35" s="17">
         <v>0</v>
       </c>
       <c r="AB35" s="17">
-        <v>0</v>
+        <v>-2359</v>
       </c>
       <c r="AC35" s="17">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="17">
         <v>0</v>
@@ -4469,34 +4469,34 @@
         <v>0</v>
       </c>
       <c r="AF35" s="17">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AG35" s="17">
-        <v>-94</v>
+        <v>-73</v>
       </c>
       <c r="AH35" s="17">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="17">
         <v>0</v>
       </c>
       <c r="AJ35" s="17">
-        <v>0</v>
+        <v>-804</v>
       </c>
       <c r="AK35" s="17">
-        <v>-804</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="17">
-        <v>0</v>
+        <v>-695</v>
       </c>
       <c r="AM35" s="17">
-        <v>-695</v>
+        <v>0</v>
       </c>
       <c r="AN35" s="17">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="AO35" s="17">
-        <v>-376</v>
+        <v>0</v>
       </c>
       <c r="AP35" s="17">
         <v>0</v>
@@ -4508,13 +4508,13 @@
         <v>0</v>
       </c>
       <c r="AS35" s="17">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AT35" s="17">
-        <v>-12</v>
+        <v>-37520</v>
       </c>
       <c r="AU35" s="17">
-        <v>-37520</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="17">
         <v>0</v>
@@ -4523,16 +4523,16 @@
         <v>0</v>
       </c>
       <c r="AX35" s="17">
-        <v>0</v>
+        <v>-15556</v>
       </c>
       <c r="AY35" s="17">
-        <v>-15556</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="17">
-        <v>0</v>
+        <v>-311263</v>
       </c>
       <c r="BA35" s="17">
-        <v>-311263</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="17">
         <v>0</v>
@@ -4545,154 +4545,154 @@
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19">
-        <v>1285114</v>
+        <v>941166</v>
       </c>
       <c r="F36" s="19">
-        <v>941166</v>
+        <v>726432</v>
       </c>
       <c r="G36" s="19">
-        <v>726432</v>
+        <v>767648</v>
       </c>
       <c r="H36" s="19">
-        <v>767648</v>
+        <v>1127660</v>
       </c>
       <c r="I36" s="19">
-        <v>1127660</v>
+        <v>1384906</v>
       </c>
       <c r="J36" s="19">
-        <v>1384906</v>
+        <v>1246474</v>
       </c>
       <c r="K36" s="19">
-        <v>1246474</v>
+        <v>516275</v>
       </c>
       <c r="L36" s="19">
-        <v>516275</v>
+        <v>1208771</v>
       </c>
       <c r="M36" s="19">
-        <v>1208771</v>
+        <v>1042260</v>
       </c>
       <c r="N36" s="19">
-        <v>1042260</v>
+        <v>1444224</v>
       </c>
       <c r="O36" s="19">
-        <v>1444224</v>
+        <v>986685</v>
       </c>
       <c r="P36" s="19">
-        <v>986685</v>
+        <v>969128</v>
       </c>
       <c r="Q36" s="19">
-        <v>969128</v>
+        <v>1128422</v>
       </c>
       <c r="R36" s="19">
-        <v>1128422</v>
+        <v>820476</v>
       </c>
       <c r="S36" s="19">
-        <v>820476</v>
+        <v>1390295</v>
       </c>
       <c r="T36" s="19">
-        <v>1390295</v>
+        <v>1281044</v>
       </c>
       <c r="U36" s="19">
-        <v>1281044</v>
+        <v>1300955</v>
       </c>
       <c r="V36" s="19">
-        <v>1300955</v>
+        <v>1372638</v>
       </c>
       <c r="W36" s="19">
-        <v>1372638</v>
+        <v>701068</v>
       </c>
       <c r="X36" s="19">
-        <v>701068</v>
+        <v>1446489</v>
       </c>
       <c r="Y36" s="19">
-        <v>1446489</v>
+        <v>1407362</v>
       </c>
       <c r="Z36" s="19">
-        <v>1407362</v>
+        <v>1577496</v>
       </c>
       <c r="AA36" s="19">
-        <v>1577496</v>
+        <v>1692932</v>
       </c>
       <c r="AB36" s="19">
-        <v>1692932</v>
+        <v>1787190</v>
       </c>
       <c r="AC36" s="19">
-        <v>1787190</v>
+        <v>1114647</v>
       </c>
       <c r="AD36" s="19">
-        <v>1114647</v>
+        <v>1401841</v>
       </c>
       <c r="AE36" s="19">
-        <v>1401841</v>
+        <v>1137428</v>
       </c>
       <c r="AF36" s="19">
-        <v>1137428</v>
+        <v>1290676</v>
       </c>
       <c r="AG36" s="19">
-        <v>1290676</v>
+        <v>1294870</v>
       </c>
       <c r="AH36" s="19">
-        <v>1294870</v>
+        <v>1334898</v>
       </c>
       <c r="AI36" s="19">
-        <v>1334898</v>
+        <v>1206052</v>
       </c>
       <c r="AJ36" s="19">
-        <v>1206052</v>
+        <v>1654232</v>
       </c>
       <c r="AK36" s="19">
-        <v>1654232</v>
+        <v>2003506</v>
       </c>
       <c r="AL36" s="19">
-        <v>2003506</v>
+        <v>1746637</v>
       </c>
       <c r="AM36" s="19">
-        <v>1746637</v>
+        <v>1398790</v>
       </c>
       <c r="AN36" s="19">
-        <v>1398790</v>
+        <v>1602243</v>
       </c>
       <c r="AO36" s="19">
-        <v>1602243</v>
+        <v>1383956</v>
       </c>
       <c r="AP36" s="19">
-        <v>1383956</v>
+        <v>1240179</v>
       </c>
       <c r="AQ36" s="19">
-        <v>1240179</v>
+        <v>1183535</v>
       </c>
       <c r="AR36" s="19">
-        <v>1183535</v>
+        <v>1001890</v>
       </c>
       <c r="AS36" s="19">
-        <v>1001890</v>
+        <v>2120863</v>
       </c>
       <c r="AT36" s="19">
-        <v>1118835</v>
+        <v>1228247</v>
       </c>
       <c r="AU36" s="19">
-        <v>1228247</v>
+        <v>1352108</v>
       </c>
       <c r="AV36" s="19">
-        <v>1352108</v>
+        <v>1351981</v>
       </c>
       <c r="AW36" s="19">
-        <v>1351981</v>
+        <v>2038083</v>
       </c>
       <c r="AX36" s="19">
-        <v>2038083</v>
+        <v>1602256</v>
       </c>
       <c r="AY36" s="19">
-        <v>1602256</v>
+        <v>1737875</v>
       </c>
       <c r="AZ36" s="19">
-        <v>1737875</v>
+        <v>1399170</v>
       </c>
       <c r="BA36" s="19">
-        <v>1399170</v>
+        <v>1723409</v>
       </c>
       <c r="BB36" s="19">
-        <v>1723409</v>
+        <v>1228904</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5138,154 +5138,154 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>152201</v>
+        <v>125066</v>
       </c>
       <c r="F43" s="11">
-        <v>125066</v>
+        <v>89739</v>
       </c>
       <c r="G43" s="11">
-        <v>89739</v>
+        <v>104881</v>
       </c>
       <c r="H43" s="11">
-        <v>104881</v>
+        <v>178056</v>
       </c>
       <c r="I43" s="11">
-        <v>178056</v>
+        <v>184527</v>
       </c>
       <c r="J43" s="11">
-        <v>184527</v>
+        <v>183206</v>
       </c>
       <c r="K43" s="11">
-        <v>183206</v>
+        <v>83146</v>
       </c>
       <c r="L43" s="11">
-        <v>83146</v>
+        <v>218396</v>
       </c>
       <c r="M43" s="11">
-        <v>218396</v>
+        <v>208594</v>
       </c>
       <c r="N43" s="11">
-        <v>208594</v>
+        <v>311904</v>
       </c>
       <c r="O43" s="11">
-        <v>311904</v>
+        <v>215220</v>
       </c>
       <c r="P43" s="11">
-        <v>215220</v>
+        <v>194609</v>
       </c>
       <c r="Q43" s="11">
-        <v>194609</v>
+        <v>229415</v>
       </c>
       <c r="R43" s="11">
-        <v>229415</v>
+        <v>155098</v>
       </c>
       <c r="S43" s="11">
-        <v>155098</v>
+        <v>315405</v>
       </c>
       <c r="T43" s="11">
-        <v>315405</v>
+        <v>258163</v>
       </c>
       <c r="U43" s="11">
-        <v>258163</v>
+        <v>272931</v>
       </c>
       <c r="V43" s="11">
-        <v>272931</v>
+        <v>308494</v>
       </c>
       <c r="W43" s="11">
-        <v>308494</v>
+        <v>142161</v>
       </c>
       <c r="X43" s="11">
-        <v>142161</v>
+        <v>363465</v>
       </c>
       <c r="Y43" s="11">
-        <v>363465</v>
+        <v>369726</v>
       </c>
       <c r="Z43" s="11">
-        <v>369726</v>
+        <v>439030</v>
       </c>
       <c r="AA43" s="11">
-        <v>439030</v>
+        <v>594183</v>
       </c>
       <c r="AB43" s="11">
-        <v>594183</v>
+        <v>607767</v>
       </c>
       <c r="AC43" s="11">
-        <v>607767</v>
+        <v>418778</v>
       </c>
       <c r="AD43" s="11">
-        <v>418778</v>
+        <v>521588</v>
       </c>
       <c r="AE43" s="11">
-        <v>521588</v>
+        <v>420759</v>
       </c>
       <c r="AF43" s="11">
-        <v>420759</v>
+        <v>507849</v>
       </c>
       <c r="AG43" s="11">
-        <v>507849</v>
+        <v>487644</v>
       </c>
       <c r="AH43" s="11">
-        <v>487644</v>
+        <v>491819</v>
       </c>
       <c r="AI43" s="11">
-        <v>491819</v>
+        <v>494117</v>
       </c>
       <c r="AJ43" s="11">
-        <v>494117</v>
+        <v>623424</v>
       </c>
       <c r="AK43" s="11">
-        <v>623424</v>
+        <v>841197</v>
       </c>
       <c r="AL43" s="11">
-        <v>841197</v>
+        <v>839417</v>
       </c>
       <c r="AM43" s="11">
-        <v>839417</v>
+        <v>611912</v>
       </c>
       <c r="AN43" s="11">
-        <v>611912</v>
+        <v>732879</v>
       </c>
       <c r="AO43" s="11">
-        <v>732879</v>
+        <v>639877</v>
       </c>
       <c r="AP43" s="11">
-        <v>639877</v>
+        <v>620503</v>
       </c>
       <c r="AQ43" s="11">
-        <v>620503</v>
+        <v>628115</v>
       </c>
       <c r="AR43" s="11">
-        <v>628115</v>
+        <v>566964</v>
       </c>
       <c r="AS43" s="11">
-        <v>566964</v>
+        <v>712736</v>
       </c>
       <c r="AT43" s="11">
-        <v>712736</v>
+        <v>639041</v>
       </c>
       <c r="AU43" s="11">
-        <v>639041</v>
+        <v>744541</v>
       </c>
       <c r="AV43" s="11">
-        <v>744541</v>
+        <v>965683</v>
       </c>
       <c r="AW43" s="11">
-        <v>965683</v>
+        <v>1442823</v>
       </c>
       <c r="AX43" s="11">
-        <v>1442823</v>
+        <v>1200159</v>
       </c>
       <c r="AY43" s="11">
-        <v>1200159</v>
+        <v>1285313</v>
       </c>
       <c r="AZ43" s="11">
-        <v>1285313</v>
+        <v>1291895</v>
       </c>
       <c r="BA43" s="11">
-        <v>1291895</v>
+        <v>1246502</v>
       </c>
       <c r="BB43" s="11">
-        <v>1246502</v>
+        <v>914363</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5297,97 +5297,97 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>9752</v>
+        <v>11033</v>
       </c>
       <c r="F44" s="13">
-        <v>11033</v>
+        <v>8179</v>
       </c>
       <c r="G44" s="13">
-        <v>8179</v>
+        <v>5477</v>
       </c>
       <c r="H44" s="13">
-        <v>5477</v>
+        <v>6424</v>
       </c>
       <c r="I44" s="13">
-        <v>6424</v>
+        <v>8188</v>
       </c>
       <c r="J44" s="13">
-        <v>8188</v>
+        <v>10834</v>
       </c>
       <c r="K44" s="13">
-        <v>10834</v>
+        <v>1285</v>
       </c>
       <c r="L44" s="13">
-        <v>1285</v>
+        <v>24197</v>
       </c>
       <c r="M44" s="13">
-        <v>24197</v>
+        <v>5605</v>
       </c>
       <c r="N44" s="13">
-        <v>5605</v>
+        <v>14128</v>
       </c>
       <c r="O44" s="13">
-        <v>14128</v>
+        <v>14602</v>
       </c>
       <c r="P44" s="13">
-        <v>14602</v>
+        <v>10598</v>
       </c>
       <c r="Q44" s="13">
-        <v>10598</v>
+        <v>12043</v>
       </c>
       <c r="R44" s="13">
-        <v>12043</v>
+        <v>9105</v>
       </c>
       <c r="S44" s="13">
-        <v>9105</v>
+        <v>21589</v>
       </c>
       <c r="T44" s="13">
-        <v>21589</v>
+        <v>14839</v>
       </c>
       <c r="U44" s="13">
-        <v>14839</v>
+        <v>5556</v>
       </c>
       <c r="V44" s="13">
-        <v>5556</v>
+        <v>11966</v>
       </c>
       <c r="W44" s="13">
-        <v>11966</v>
+        <v>8888</v>
       </c>
       <c r="X44" s="13">
-        <v>8888</v>
+        <v>23327</v>
       </c>
       <c r="Y44" s="13">
-        <v>23327</v>
+        <v>18354</v>
       </c>
       <c r="Z44" s="13">
-        <v>18354</v>
+        <v>33000</v>
       </c>
       <c r="AA44" s="13">
-        <v>33000</v>
+        <v>24698</v>
       </c>
       <c r="AB44" s="13">
-        <v>24698</v>
+        <v>22632</v>
       </c>
       <c r="AC44" s="13">
-        <v>22632</v>
+        <v>34146</v>
       </c>
       <c r="AD44" s="13">
-        <v>34146</v>
+        <v>27973</v>
       </c>
       <c r="AE44" s="13">
-        <v>27973</v>
+        <v>32017</v>
       </c>
       <c r="AF44" s="13">
-        <v>32017</v>
+        <v>29834</v>
       </c>
       <c r="AG44" s="13">
-        <v>29834</v>
+        <v>26238</v>
       </c>
       <c r="AH44" s="13">
-        <v>26238</v>
+        <v>39047</v>
       </c>
       <c r="AI44" s="13">
-        <v>39047</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="13">
         <v>0</v>
@@ -5417,352 +5417,352 @@
         <v>0</v>
       </c>
       <c r="AS44" s="13">
-        <v>0</v>
+        <v>560917</v>
       </c>
       <c r="AT44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV44" s="13">
-        <v>55545</v>
-      </c>
-      <c r="AW44" s="13">
-        <v>55612</v>
-      </c>
-      <c r="AX44" s="13">
-        <v>81389</v>
-      </c>
-      <c r="AY44" s="13">
-        <v>62593</v>
-      </c>
-      <c r="AZ44" s="13">
-        <v>59882</v>
-      </c>
-      <c r="BA44" s="13">
-        <v>66870</v>
-      </c>
-      <c r="BB44" s="13">
-        <v>11181</v>
+        <v>47148</v>
+      </c>
+      <c r="AU44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB44" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>73473</v>
+        <v>65987</v>
       </c>
       <c r="F45" s="11">
-        <v>65987</v>
+        <v>60112</v>
       </c>
       <c r="G45" s="11">
-        <v>60112</v>
+        <v>58724</v>
       </c>
       <c r="H45" s="11">
-        <v>58724</v>
+        <v>56393</v>
       </c>
       <c r="I45" s="11">
-        <v>56393</v>
+        <v>121770</v>
       </c>
       <c r="J45" s="11">
-        <v>121770</v>
+        <v>83772</v>
       </c>
       <c r="K45" s="11">
-        <v>83772</v>
+        <v>37176</v>
       </c>
       <c r="L45" s="11">
-        <v>37176</v>
+        <v>51597</v>
       </c>
       <c r="M45" s="11">
-        <v>51597</v>
+        <v>70146</v>
       </c>
       <c r="N45" s="11">
-        <v>70146</v>
+        <v>83985</v>
       </c>
       <c r="O45" s="11">
-        <v>83985</v>
+        <v>51589</v>
       </c>
       <c r="P45" s="11">
-        <v>51589</v>
+        <v>73478</v>
       </c>
       <c r="Q45" s="11">
-        <v>73478</v>
+        <v>82483</v>
       </c>
       <c r="R45" s="11">
-        <v>82483</v>
+        <v>85384</v>
       </c>
       <c r="S45" s="11">
-        <v>85384</v>
+        <v>57397</v>
       </c>
       <c r="T45" s="11">
-        <v>57397</v>
+        <v>111068</v>
       </c>
       <c r="U45" s="11">
-        <v>111068</v>
+        <v>115463</v>
       </c>
       <c r="V45" s="11">
-        <v>115463</v>
+        <v>54480</v>
       </c>
       <c r="W45" s="11">
-        <v>54480</v>
+        <v>52505</v>
       </c>
       <c r="X45" s="11">
-        <v>52505</v>
+        <v>65563</v>
       </c>
       <c r="Y45" s="11">
-        <v>65563</v>
+        <v>97042</v>
       </c>
       <c r="Z45" s="11">
-        <v>97042</v>
+        <v>145452</v>
       </c>
       <c r="AA45" s="11">
-        <v>145452</v>
+        <v>138377</v>
       </c>
       <c r="AB45" s="11">
-        <v>138377</v>
+        <v>177321</v>
       </c>
       <c r="AC45" s="11">
-        <v>177321</v>
+        <v>98639</v>
       </c>
       <c r="AD45" s="11">
-        <v>98639</v>
+        <v>170127</v>
       </c>
       <c r="AE45" s="11">
-        <v>170127</v>
+        <v>102130</v>
       </c>
       <c r="AF45" s="11">
-        <v>102130</v>
+        <v>127383</v>
       </c>
       <c r="AG45" s="11">
-        <v>127383</v>
+        <v>131257</v>
       </c>
       <c r="AH45" s="11">
-        <v>131257</v>
+        <v>146407</v>
       </c>
       <c r="AI45" s="11">
-        <v>146407</v>
+        <v>139031</v>
       </c>
       <c r="AJ45" s="11">
-        <v>139031</v>
+        <v>195810</v>
       </c>
       <c r="AK45" s="11">
-        <v>195810</v>
+        <v>220573</v>
       </c>
       <c r="AL45" s="11">
-        <v>220573</v>
+        <v>137294</v>
       </c>
       <c r="AM45" s="11">
-        <v>137294</v>
+        <v>228423</v>
       </c>
       <c r="AN45" s="11">
-        <v>228423</v>
+        <v>251605</v>
       </c>
       <c r="AO45" s="11">
-        <v>251605</v>
+        <v>228593</v>
       </c>
       <c r="AP45" s="11">
-        <v>228593</v>
+        <v>187794</v>
       </c>
       <c r="AQ45" s="11">
-        <v>187794</v>
+        <v>197243</v>
       </c>
       <c r="AR45" s="11">
-        <v>197243</v>
+        <v>169773</v>
       </c>
       <c r="AS45" s="11">
-        <v>169773</v>
+        <v>50395</v>
       </c>
       <c r="AT45" s="11">
-        <v>50395</v>
+        <v>113190</v>
       </c>
       <c r="AU45" s="11">
-        <v>113190</v>
+        <v>164766</v>
       </c>
       <c r="AV45" s="11">
-        <v>164766</v>
+        <v>183635</v>
       </c>
       <c r="AW45" s="11">
-        <v>183635</v>
+        <v>217455</v>
       </c>
       <c r="AX45" s="11">
-        <v>217455</v>
+        <v>180287</v>
       </c>
       <c r="AY45" s="11">
-        <v>180287</v>
+        <v>188122</v>
       </c>
       <c r="AZ45" s="11">
-        <v>188122</v>
+        <v>188906</v>
       </c>
       <c r="BA45" s="11">
-        <v>188906</v>
+        <v>285662</v>
       </c>
       <c r="BB45" s="11">
-        <v>285662</v>
+        <v>139121</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AC46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AG46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AH46" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI46" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AI46" s="13">
+        <v>26245</v>
       </c>
       <c r="AJ46" s="13">
-        <v>26245</v>
+        <v>61856</v>
       </c>
       <c r="AK46" s="13">
-        <v>61856</v>
+        <v>67802</v>
       </c>
       <c r="AL46" s="13">
-        <v>67802</v>
+        <v>61484</v>
       </c>
       <c r="AM46" s="13">
-        <v>61484</v>
+        <v>59403</v>
       </c>
       <c r="AN46" s="13">
-        <v>59403</v>
+        <v>64199</v>
       </c>
       <c r="AO46" s="13">
-        <v>64199</v>
+        <v>37627</v>
       </c>
       <c r="AP46" s="13">
-        <v>37627</v>
+        <v>56308</v>
       </c>
       <c r="AQ46" s="13">
-        <v>56308</v>
+        <v>44349</v>
       </c>
       <c r="AR46" s="13">
-        <v>44349</v>
-      </c>
-      <c r="AS46" s="13">
         <v>33883</v>
       </c>
-      <c r="AT46" s="13">
-        <v>47761</v>
+      <c r="AS46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU46" s="13">
-        <v>47148</v>
+        <v>55545</v>
       </c>
       <c r="AV46" s="13">
-        <v>0</v>
+        <v>55612</v>
       </c>
       <c r="AW46" s="13">
-        <v>0</v>
+        <v>81400</v>
       </c>
       <c r="AX46" s="13">
-        <v>11</v>
+        <v>62593</v>
       </c>
       <c r="AY46" s="13">
-        <v>0</v>
+        <v>59882</v>
       </c>
       <c r="AZ46" s="13">
-        <v>0</v>
+        <v>66870</v>
       </c>
       <c r="BA46" s="13">
-        <v>0</v>
+        <v>11365</v>
       </c>
       <c r="BB46" s="13">
-        <v>184</v>
+        <v>124274</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5831,70 +5831,70 @@
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y48" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z48" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="Z48" s="17">
+        <v>0</v>
       </c>
       <c r="AA48" s="17">
         <v>0</v>
@@ -6047,79 +6047,79 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA50" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AB50" s="11">
+        <v>-537</v>
       </c>
       <c r="AC50" s="11">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="11">
         <v>0</v>
@@ -6128,28 +6128,28 @@
         <v>0</v>
       </c>
       <c r="AF50" s="11">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AG50" s="11">
-        <v>-48</v>
+        <v>-32</v>
       </c>
       <c r="AH50" s="11">
-        <v>-32</v>
-      </c>
-      <c r="AI50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="11" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="AI50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ50" s="11">
+        <v>-534</v>
       </c>
       <c r="AK50" s="11">
-        <v>-534</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="11">
-        <v>0</v>
+        <v>-480</v>
       </c>
       <c r="AM50" s="11">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="11">
         <v>0</v>
@@ -6167,31 +6167,31 @@
         <v>0</v>
       </c>
       <c r="AS50" s="11">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AT50" s="11">
-        <v>-11</v>
-      </c>
-      <c r="AU50" s="11">
         <v>-18919</v>
       </c>
-      <c r="AV50" s="11" t="s">
-        <v>60</v>
+      <c r="AU50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV50" s="11">
+        <v>0</v>
       </c>
       <c r="AW50" s="11">
         <v>0</v>
       </c>
       <c r="AX50" s="11">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AY50" s="11">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="11">
-        <v>0</v>
+        <v>-232282</v>
       </c>
       <c r="BA50" s="11">
-        <v>-232282</v>
+        <v>0</v>
       </c>
       <c r="BB50" s="11">
         <v>0</v>
@@ -6206,109 +6206,109 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AC51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AG51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AH51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AJ51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK51" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AL51" s="13">
+        <v>-9</v>
       </c>
       <c r="AM51" s="13">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AN51" s="13">
         <v>0</v>
@@ -6331,149 +6331,149 @@
       <c r="AT51" s="13">
         <v>0</v>
       </c>
-      <c r="AU51" s="13">
-        <v>0</v>
+      <c r="AU51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AW51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AX51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AY51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AZ51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BA51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BB51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AC52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AG52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AH52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AJ52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AL52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AM52" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AN52" s="11">
+        <v>-228</v>
       </c>
       <c r="AO52" s="11">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AP52" s="11">
         <v>0</v>
@@ -6488,28 +6488,28 @@
         <v>0</v>
       </c>
       <c r="AT52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU52" s="11">
         <v>-8665</v>
       </c>
+      <c r="AU52" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AW52" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AX52" s="11">
+        <v>-1</v>
       </c>
       <c r="AY52" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="11">
-        <v>0</v>
+        <v>-46804</v>
       </c>
       <c r="BA52" s="11">
-        <v>-46804</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="11">
         <v>0</v>
@@ -6517,152 +6517,152 @@
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AC53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AG53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AH53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AJ53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AL53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AM53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AN53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AO53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AP53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AQ53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AR53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AS53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AT53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AU53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AV53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AW53" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AX53" s="13">
+        <v>-10250</v>
       </c>
       <c r="AY53" s="13">
-        <v>-10250</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="13">
         <v>0</v>
@@ -6683,79 +6683,79 @@
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y54" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z54" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="Z54" s="17">
+        <v>0</v>
       </c>
       <c r="AA54" s="17">
         <v>0</v>
       </c>
       <c r="AB54" s="17">
-        <v>0</v>
+        <v>-537</v>
       </c>
       <c r="AC54" s="17">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="AD54" s="17">
         <v>0</v>
@@ -6764,34 +6764,34 @@
         <v>0</v>
       </c>
       <c r="AF54" s="17">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AG54" s="17">
-        <v>-48</v>
+        <v>-32</v>
       </c>
       <c r="AH54" s="17">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="17">
         <v>0</v>
       </c>
       <c r="AJ54" s="17">
-        <v>0</v>
+        <v>-534</v>
       </c>
       <c r="AK54" s="17">
-        <v>-534</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="17">
-        <v>0</v>
+        <v>-489</v>
       </c>
       <c r="AM54" s="17">
-        <v>-489</v>
+        <v>0</v>
       </c>
       <c r="AN54" s="17">
-        <v>0</v>
+        <v>-228</v>
       </c>
       <c r="AO54" s="17">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AP54" s="17">
         <v>0</v>
@@ -6803,13 +6803,13 @@
         <v>0</v>
       </c>
       <c r="AS54" s="17">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AT54" s="17">
-        <v>-11</v>
+        <v>-27584</v>
       </c>
       <c r="AU54" s="17">
-        <v>-27584</v>
+        <v>0</v>
       </c>
       <c r="AV54" s="17">
         <v>0</v>
@@ -6818,16 +6818,16 @@
         <v>0</v>
       </c>
       <c r="AX54" s="17">
-        <v>0</v>
+        <v>-10259</v>
       </c>
       <c r="AY54" s="17">
-        <v>-10259</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="17">
-        <v>0</v>
+        <v>-279086</v>
       </c>
       <c r="BA54" s="17">
-        <v>-279086</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="17">
         <v>0</v>
@@ -6899,79 +6899,79 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y56" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z56" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="Z56" s="11">
+        <v>-643</v>
       </c>
       <c r="AA56" s="11">
-        <v>-643</v>
+        <v>-325</v>
       </c>
       <c r="AB56" s="11">
-        <v>-325</v>
+        <v>-3860</v>
       </c>
       <c r="AC56" s="11">
-        <v>-3860</v>
+        <v>0</v>
       </c>
       <c r="AD56" s="11">
         <v>0</v>
@@ -6980,67 +6980,67 @@
         <v>0</v>
       </c>
       <c r="AF56" s="11">
-        <v>0</v>
+        <v>-455</v>
       </c>
       <c r="AG56" s="11">
-        <v>-455</v>
+        <v>-472</v>
       </c>
       <c r="AH56" s="11">
-        <v>-472</v>
+        <v>-259</v>
       </c>
       <c r="AI56" s="11">
-        <v>-259</v>
+        <v>-6</v>
       </c>
       <c r="AJ56" s="11">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="11">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="AL56" s="11">
-        <v>-47</v>
+        <v>-58</v>
       </c>
       <c r="AM56" s="11">
-        <v>-58</v>
+        <v>-7683</v>
       </c>
       <c r="AN56" s="11">
-        <v>-7683</v>
+        <v>-8058</v>
       </c>
       <c r="AO56" s="11">
-        <v>-8058</v>
+        <v>-8049</v>
       </c>
       <c r="AP56" s="11">
-        <v>-8049</v>
+        <v>-8065</v>
       </c>
       <c r="AQ56" s="11">
-        <v>-8065</v>
+        <v>-7978</v>
       </c>
       <c r="AR56" s="11">
-        <v>-7978</v>
+        <v>-31864</v>
       </c>
       <c r="AS56" s="11">
-        <v>-31864</v>
+        <v>-22230</v>
       </c>
       <c r="AT56" s="11">
-        <v>-22230</v>
+        <v>-22531</v>
       </c>
       <c r="AU56" s="11">
-        <v>-22531</v>
+        <v>-56</v>
       </c>
       <c r="AV56" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AW56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY56" s="11">
         <v>-56</v>
       </c>
-      <c r="AW56" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AX56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY56" s="11">
-        <v>0</v>
-      </c>
       <c r="AZ56" s="11">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="BA56" s="11">
         <v>0</v>
@@ -7056,154 +7056,154 @@
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19">
-        <v>235426</v>
+        <v>202086</v>
       </c>
       <c r="F57" s="19">
-        <v>202086</v>
+        <v>158030</v>
       </c>
       <c r="G57" s="19">
-        <v>158030</v>
+        <v>169082</v>
       </c>
       <c r="H57" s="19">
-        <v>169082</v>
+        <v>240873</v>
       </c>
       <c r="I57" s="19">
-        <v>240873</v>
+        <v>314485</v>
       </c>
       <c r="J57" s="19">
-        <v>314485</v>
+        <v>277812</v>
       </c>
       <c r="K57" s="19">
-        <v>277812</v>
+        <v>121607</v>
       </c>
       <c r="L57" s="19">
-        <v>121607</v>
+        <v>294190</v>
       </c>
       <c r="M57" s="19">
-        <v>294190</v>
+        <v>284345</v>
       </c>
       <c r="N57" s="19">
-        <v>284345</v>
+        <v>410017</v>
       </c>
       <c r="O57" s="19">
-        <v>410017</v>
+        <v>281411</v>
       </c>
       <c r="P57" s="19">
-        <v>281411</v>
+        <v>278685</v>
       </c>
       <c r="Q57" s="19">
-        <v>278685</v>
+        <v>323941</v>
       </c>
       <c r="R57" s="19">
-        <v>323941</v>
+        <v>249587</v>
       </c>
       <c r="S57" s="19">
-        <v>249587</v>
+        <v>394391</v>
       </c>
       <c r="T57" s="19">
-        <v>394391</v>
+        <v>384070</v>
       </c>
       <c r="U57" s="19">
-        <v>384070</v>
+        <v>393950</v>
       </c>
       <c r="V57" s="19">
-        <v>393950</v>
+        <v>374940</v>
       </c>
       <c r="W57" s="19">
-        <v>374940</v>
+        <v>203554</v>
       </c>
       <c r="X57" s="19">
-        <v>203554</v>
+        <v>452355</v>
       </c>
       <c r="Y57" s="19">
-        <v>452355</v>
+        <v>485122</v>
       </c>
       <c r="Z57" s="19">
-        <v>485122</v>
+        <v>616839</v>
       </c>
       <c r="AA57" s="19">
-        <v>616839</v>
+        <v>756933</v>
       </c>
       <c r="AB57" s="19">
-        <v>756933</v>
+        <v>803323</v>
       </c>
       <c r="AC57" s="19">
-        <v>803323</v>
+        <v>551563</v>
       </c>
       <c r="AD57" s="19">
-        <v>551563</v>
+        <v>719688</v>
       </c>
       <c r="AE57" s="19">
-        <v>719688</v>
+        <v>554906</v>
       </c>
       <c r="AF57" s="19">
-        <v>554906</v>
+        <v>664563</v>
       </c>
       <c r="AG57" s="19">
-        <v>664563</v>
+        <v>644635</v>
       </c>
       <c r="AH57" s="19">
-        <v>644635</v>
+        <v>677014</v>
       </c>
       <c r="AI57" s="19">
-        <v>677014</v>
+        <v>659387</v>
       </c>
       <c r="AJ57" s="19">
-        <v>659387</v>
+        <v>880556</v>
       </c>
       <c r="AK57" s="19">
-        <v>880556</v>
+        <v>1129525</v>
       </c>
       <c r="AL57" s="19">
-        <v>1129525</v>
+        <v>1037648</v>
       </c>
       <c r="AM57" s="19">
-        <v>1037648</v>
+        <v>892055</v>
       </c>
       <c r="AN57" s="19">
-        <v>892055</v>
+        <v>1040397</v>
       </c>
       <c r="AO57" s="19">
-        <v>1040397</v>
+        <v>898048</v>
       </c>
       <c r="AP57" s="19">
-        <v>898048</v>
+        <v>856540</v>
       </c>
       <c r="AQ57" s="19">
-        <v>856540</v>
+        <v>861729</v>
       </c>
       <c r="AR57" s="19">
-        <v>861729</v>
+        <v>738756</v>
       </c>
       <c r="AS57" s="19">
-        <v>738756</v>
+        <v>1301807</v>
       </c>
       <c r="AT57" s="19">
-        <v>788651</v>
+        <v>749264</v>
       </c>
       <c r="AU57" s="19">
-        <v>749264</v>
+        <v>964796</v>
       </c>
       <c r="AV57" s="19">
-        <v>964796</v>
+        <v>1204929</v>
       </c>
       <c r="AW57" s="19">
-        <v>1204929</v>
+        <v>1741678</v>
       </c>
       <c r="AX57" s="19">
-        <v>1741678</v>
+        <v>1432780</v>
       </c>
       <c r="AY57" s="19">
-        <v>1432780</v>
+        <v>1533261</v>
       </c>
       <c r="AZ57" s="19">
-        <v>1533261</v>
+        <v>1268585</v>
       </c>
       <c r="BA57" s="19">
-        <v>1268585</v>
+        <v>1543529</v>
       </c>
       <c r="BB57" s="19">
-        <v>1543529</v>
+        <v>1177758</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7649,154 +7649,154 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>172842</v>
+        <v>202159</v>
       </c>
       <c r="F64" s="11">
-        <v>202159</v>
+        <v>201814</v>
       </c>
       <c r="G64" s="11">
-        <v>201814</v>
+        <v>202339</v>
       </c>
       <c r="H64" s="11">
-        <v>202339</v>
+        <v>202306</v>
       </c>
       <c r="I64" s="11">
-        <v>202306</v>
+        <v>202795</v>
       </c>
       <c r="J64" s="11">
-        <v>202795</v>
+        <v>200477</v>
       </c>
       <c r="K64" s="11">
-        <v>200477</v>
+        <v>216242</v>
       </c>
       <c r="L64" s="11">
-        <v>216242</v>
+        <v>241388</v>
       </c>
       <c r="M64" s="11">
-        <v>241388</v>
+        <v>247472</v>
       </c>
       <c r="N64" s="11">
-        <v>247472</v>
+        <v>268167</v>
       </c>
       <c r="O64" s="11">
-        <v>268167</v>
+        <v>271265</v>
       </c>
       <c r="P64" s="11">
-        <v>271265</v>
+        <v>267164</v>
       </c>
       <c r="Q64" s="11">
-        <v>267164</v>
+        <v>267761</v>
       </c>
       <c r="R64" s="11">
-        <v>267761</v>
+        <v>277161</v>
       </c>
       <c r="S64" s="11">
-        <v>277161</v>
+        <v>275617</v>
       </c>
       <c r="T64" s="11">
-        <v>275617</v>
+        <v>279100</v>
       </c>
       <c r="U64" s="11">
-        <v>279100</v>
+        <v>281438</v>
       </c>
       <c r="V64" s="11">
-        <v>281438</v>
+        <v>267416</v>
       </c>
       <c r="W64" s="11">
-        <v>267416</v>
+        <v>271969</v>
       </c>
       <c r="X64" s="11">
-        <v>271969</v>
+        <v>301869</v>
       </c>
       <c r="Y64" s="11">
-        <v>301869</v>
+        <v>328951</v>
       </c>
       <c r="Z64" s="11">
-        <v>328951</v>
+        <v>378193</v>
       </c>
       <c r="AA64" s="11">
-        <v>378193</v>
+        <v>434309</v>
       </c>
       <c r="AB64" s="11">
-        <v>434309</v>
+        <v>439597</v>
       </c>
       <c r="AC64" s="11">
-        <v>439597</v>
+        <v>486239</v>
       </c>
       <c r="AD64" s="11">
-        <v>486239</v>
+        <v>497773</v>
       </c>
       <c r="AE64" s="11">
-        <v>497773</v>
+        <v>481886</v>
       </c>
       <c r="AF64" s="11">
-        <v>481886</v>
+        <v>505399</v>
       </c>
       <c r="AG64" s="11">
-        <v>505399</v>
+        <v>488905</v>
       </c>
       <c r="AH64" s="11">
-        <v>488905</v>
+        <v>499485</v>
       </c>
       <c r="AI64" s="11">
-        <v>499485</v>
+        <v>532171</v>
       </c>
       <c r="AJ64" s="11">
-        <v>532171</v>
+        <v>520401</v>
       </c>
       <c r="AK64" s="11">
-        <v>520401</v>
+        <v>543709</v>
       </c>
       <c r="AL64" s="11">
-        <v>543709</v>
+        <v>573423</v>
       </c>
       <c r="AM64" s="11">
-        <v>573423</v>
+        <v>609384</v>
       </c>
       <c r="AN64" s="11">
-        <v>609384</v>
+        <v>631952</v>
       </c>
       <c r="AO64" s="11">
-        <v>631952</v>
+        <v>629855</v>
       </c>
       <c r="AP64" s="11">
-        <v>629855</v>
+        <v>675583</v>
       </c>
       <c r="AQ64" s="11">
-        <v>675583</v>
+        <v>727495</v>
       </c>
       <c r="AR64" s="11">
-        <v>727495</v>
+        <v>755698</v>
       </c>
       <c r="AS64" s="11">
-        <v>755698</v>
+        <v>731074</v>
       </c>
       <c r="AT64" s="11">
-        <v>731074</v>
+        <v>639915</v>
       </c>
       <c r="AU64" s="11">
-        <v>639915</v>
+        <v>700566</v>
       </c>
       <c r="AV64" s="11">
-        <v>700566</v>
+        <v>906529</v>
       </c>
       <c r="AW64" s="11">
-        <v>906529</v>
+        <v>863517</v>
       </c>
       <c r="AX64" s="11">
-        <v>863517</v>
+        <v>903290</v>
       </c>
       <c r="AY64" s="11">
-        <v>903290</v>
+        <v>894850</v>
       </c>
       <c r="AZ64" s="11">
-        <v>894850</v>
+        <v>927104</v>
       </c>
       <c r="BA64" s="11">
-        <v>927104</v>
+        <v>885284</v>
       </c>
       <c r="BB64" s="11">
-        <v>885284</v>
+        <v>988528</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -7808,472 +7808,472 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>144433</v>
+        <v>148339</v>
       </c>
       <c r="F65" s="13">
-        <v>148339</v>
+        <v>157319</v>
       </c>
       <c r="G65" s="13">
-        <v>157319</v>
+        <v>164836</v>
       </c>
       <c r="H65" s="13">
-        <v>164836</v>
+        <v>163502</v>
       </c>
       <c r="I65" s="13">
-        <v>163502</v>
+        <v>165411</v>
       </c>
       <c r="J65" s="13">
-        <v>165411</v>
+        <v>314613</v>
       </c>
       <c r="K65" s="13">
-        <v>314613</v>
+        <v>204781</v>
       </c>
       <c r="L65" s="13">
-        <v>204781</v>
+        <v>159213</v>
       </c>
       <c r="M65" s="13">
-        <v>159213</v>
+        <v>259840</v>
       </c>
       <c r="N65" s="13">
-        <v>259840</v>
+        <v>220210</v>
       </c>
       <c r="O65" s="13">
-        <v>220210</v>
+        <v>224646</v>
       </c>
       <c r="P65" s="13">
-        <v>224646</v>
+        <v>214769</v>
       </c>
       <c r="Q65" s="13">
-        <v>214769</v>
+        <v>229356</v>
       </c>
       <c r="R65" s="13">
-        <v>229356</v>
+        <v>222954</v>
       </c>
       <c r="S65" s="13">
-        <v>222954</v>
+        <v>233506</v>
       </c>
       <c r="T65" s="13">
-        <v>233506</v>
+        <v>238339</v>
       </c>
       <c r="U65" s="13">
-        <v>238339</v>
+        <v>216718</v>
       </c>
       <c r="V65" s="13">
-        <v>216718</v>
+        <v>213591</v>
       </c>
       <c r="W65" s="13">
-        <v>213591</v>
+        <v>215535</v>
       </c>
       <c r="X65" s="13">
-        <v>215535</v>
+        <v>242542</v>
       </c>
       <c r="Y65" s="13">
-        <v>242542</v>
+        <v>247662</v>
       </c>
       <c r="Z65" s="13">
-        <v>247662</v>
+        <v>270763</v>
       </c>
       <c r="AA65" s="13">
-        <v>270763</v>
+        <v>288491</v>
       </c>
       <c r="AB65" s="13">
-        <v>288491</v>
+        <v>287113</v>
       </c>
       <c r="AC65" s="13">
-        <v>287113</v>
+        <v>319836</v>
       </c>
       <c r="AD65" s="13">
-        <v>319836</v>
+        <v>327204</v>
       </c>
       <c r="AE65" s="13">
-        <v>327204</v>
+        <v>327118</v>
       </c>
       <c r="AF65" s="13">
-        <v>327118</v>
+        <v>319032</v>
       </c>
       <c r="AG65" s="13">
-        <v>319032</v>
+        <v>310413</v>
       </c>
       <c r="AH65" s="13">
-        <v>310413</v>
-      </c>
-      <c r="AI65" s="13">
         <v>346816</v>
       </c>
+      <c r="AI65" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ65" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK65" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AL65" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AM65" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AN65" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AO65" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AP65" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AQ65" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AR65" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS65" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT65" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AS65" s="13">
+        <v>561452</v>
+      </c>
+      <c r="AT65" s="13">
+        <v>548041</v>
       </c>
       <c r="AU65" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV65" s="13">
-        <v>555978</v>
-      </c>
-      <c r="AW65" s="13">
-        <v>623572</v>
-      </c>
-      <c r="AX65" s="13">
-        <v>623245</v>
-      </c>
-      <c r="AY65" s="13">
-        <v>624406</v>
-      </c>
-      <c r="AZ65" s="13">
-        <v>641046</v>
-      </c>
-      <c r="BA65" s="13">
-        <v>647000</v>
-      </c>
-      <c r="BB65" s="13">
-        <v>707524</v>
+        <v>58</v>
+      </c>
+      <c r="AV65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB65" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>218009</v>
+        <v>265931</v>
       </c>
       <c r="F66" s="11">
-        <v>265931</v>
+        <v>261608</v>
       </c>
       <c r="G66" s="11">
-        <v>261608</v>
+        <v>271771</v>
       </c>
       <c r="H66" s="11">
-        <v>271771</v>
+        <v>270812</v>
       </c>
       <c r="I66" s="11">
-        <v>270812</v>
+        <v>286192</v>
       </c>
       <c r="J66" s="11">
-        <v>286192</v>
+        <v>280936</v>
       </c>
       <c r="K66" s="11">
-        <v>280936</v>
+        <v>296235</v>
       </c>
       <c r="L66" s="11">
-        <v>296235</v>
+        <v>339365</v>
       </c>
       <c r="M66" s="11">
-        <v>339365</v>
+        <v>394544</v>
       </c>
       <c r="N66" s="11">
-        <v>394544</v>
+        <v>387076</v>
       </c>
       <c r="O66" s="11">
-        <v>387076</v>
+        <v>402125</v>
       </c>
       <c r="P66" s="11">
-        <v>402125</v>
+        <v>383986</v>
       </c>
       <c r="Q66" s="11">
-        <v>383986</v>
+        <v>376423</v>
       </c>
       <c r="R66" s="11">
-        <v>376423</v>
+        <v>388035</v>
       </c>
       <c r="S66" s="11">
-        <v>388035</v>
+        <v>373975</v>
       </c>
       <c r="T66" s="11">
-        <v>373975</v>
+        <v>378039</v>
       </c>
       <c r="U66" s="11">
-        <v>378039</v>
+        <v>377893</v>
       </c>
       <c r="V66" s="11">
-        <v>377893</v>
+        <v>334229</v>
       </c>
       <c r="W66" s="11">
-        <v>334229</v>
+        <v>382910</v>
       </c>
       <c r="X66" s="11">
-        <v>382910</v>
+        <v>448254</v>
       </c>
       <c r="Y66" s="11">
-        <v>448254</v>
+        <v>463655</v>
       </c>
       <c r="Z66" s="11">
-        <v>463655</v>
+        <v>493467</v>
       </c>
       <c r="AA66" s="11">
-        <v>493467</v>
+        <v>578475</v>
       </c>
       <c r="AB66" s="11">
-        <v>578475</v>
+        <v>540338</v>
       </c>
       <c r="AC66" s="11">
-        <v>540338</v>
+        <v>672725</v>
       </c>
       <c r="AD66" s="11">
-        <v>672725</v>
+        <v>633604</v>
       </c>
       <c r="AE66" s="11">
-        <v>633604</v>
+        <v>613755</v>
       </c>
       <c r="AF66" s="11">
-        <v>613755</v>
+        <v>662043</v>
       </c>
       <c r="AG66" s="11">
-        <v>662043</v>
+        <v>616242</v>
       </c>
       <c r="AH66" s="11">
-        <v>616242</v>
+        <v>616041</v>
       </c>
       <c r="AI66" s="11">
-        <v>616041</v>
+        <v>663734</v>
       </c>
       <c r="AJ66" s="11">
-        <v>663734</v>
+        <v>594488</v>
       </c>
       <c r="AK66" s="11">
-        <v>594488</v>
+        <v>698000</v>
       </c>
       <c r="AL66" s="11">
-        <v>698000</v>
+        <v>860206</v>
       </c>
       <c r="AM66" s="11">
-        <v>860206</v>
+        <v>816021</v>
       </c>
       <c r="AN66" s="11">
-        <v>816021</v>
+        <v>776470</v>
       </c>
       <c r="AO66" s="11">
-        <v>776470</v>
+        <v>757588</v>
       </c>
       <c r="AP66" s="11">
-        <v>757588</v>
+        <v>850551</v>
       </c>
       <c r="AQ66" s="11">
-        <v>850551</v>
+        <v>826561</v>
       </c>
       <c r="AR66" s="11">
-        <v>826561</v>
+        <v>884557</v>
       </c>
       <c r="AS66" s="11">
-        <v>884557</v>
+        <v>856141</v>
       </c>
       <c r="AT66" s="11">
-        <v>856141</v>
+        <v>625003</v>
       </c>
       <c r="AU66" s="11">
-        <v>625003</v>
+        <v>869790</v>
       </c>
       <c r="AV66" s="11">
-        <v>869790</v>
+        <v>929586</v>
       </c>
       <c r="AW66" s="11">
-        <v>929586</v>
+        <v>919071</v>
       </c>
       <c r="AX66" s="11">
-        <v>919071</v>
+        <v>954329</v>
       </c>
       <c r="AY66" s="11">
-        <v>954329</v>
+        <v>903924</v>
       </c>
       <c r="AZ66" s="11">
-        <v>903924</v>
+        <v>884371</v>
       </c>
       <c r="BA66" s="11">
-        <v>884371</v>
+        <v>954172</v>
       </c>
       <c r="BB66" s="11">
-        <v>954172</v>
+        <v>1083556</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>75</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AC67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AG67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AH67" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AI67" s="13">
+        <v>385440</v>
       </c>
       <c r="AJ67" s="13">
-        <v>385440</v>
+        <v>484419</v>
       </c>
       <c r="AK67" s="13">
-        <v>484419</v>
+        <v>483082</v>
       </c>
       <c r="AL67" s="13">
-        <v>483082</v>
+        <v>496419</v>
       </c>
       <c r="AM67" s="13">
-        <v>496419</v>
+        <v>517813</v>
       </c>
       <c r="AN67" s="13">
-        <v>517813</v>
+        <v>540050</v>
       </c>
       <c r="AO67" s="13">
-        <v>540050</v>
+        <v>567466</v>
       </c>
       <c r="AP67" s="13">
-        <v>567466</v>
+        <v>557958</v>
       </c>
       <c r="AQ67" s="13">
-        <v>557958</v>
+        <v>544093</v>
       </c>
       <c r="AR67" s="13">
-        <v>544093</v>
-      </c>
-      <c r="AS67" s="13">
         <v>567478</v>
       </c>
-      <c r="AT67" s="13">
-        <v>561452</v>
+      <c r="AS67" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT67" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU67" s="13">
-        <v>548041</v>
-      </c>
-      <c r="AV67" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW67" s="13" t="s">
-        <v>60</v>
+        <v>555978</v>
+      </c>
+      <c r="AV67" s="13">
+        <v>623572</v>
+      </c>
+      <c r="AW67" s="13">
+        <v>623225</v>
       </c>
       <c r="AX67" s="13">
-        <v>500000</v>
-      </c>
-      <c r="AY67" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ67" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA67" s="13" t="s">
-        <v>60</v>
+        <v>624406</v>
+      </c>
+      <c r="AY67" s="13">
+        <v>641046</v>
+      </c>
+      <c r="AZ67" s="13">
+        <v>647000</v>
+      </c>
+      <c r="BA67" s="13">
+        <v>710224</v>
       </c>
       <c r="BB67" s="13">
-        <v>924623</v>
+        <v>707965</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pasa/product/monthly.xlsx
+++ b/database/industries/lastic/pasa/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pasa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC5C658-0CEC-450E-BD13-F4ADC85C4DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AF24E1-CD87-407F-80FA-EA9E3068C64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پاسا-ایران‌یاساتایرورابر</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>تایر</t>
@@ -1406,154 +1406,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1261343</v>
+        <v>1049770</v>
       </c>
       <c r="F11" s="11">
-        <v>1049770</v>
+        <v>969581</v>
       </c>
       <c r="G11" s="11">
-        <v>969581</v>
+        <v>1104856</v>
       </c>
       <c r="H11" s="11">
-        <v>1104856</v>
+        <v>1052809</v>
       </c>
       <c r="I11" s="11">
-        <v>1052809</v>
+        <v>859101</v>
       </c>
       <c r="J11" s="11">
-        <v>859101</v>
+        <v>385138</v>
       </c>
       <c r="K11" s="11">
-        <v>385138</v>
+        <v>901618</v>
       </c>
       <c r="L11" s="11">
-        <v>901618</v>
+        <v>650167</v>
       </c>
       <c r="M11" s="11">
-        <v>650167</v>
+        <v>1045509</v>
       </c>
       <c r="N11" s="11">
-        <v>1045509</v>
+        <v>879435</v>
       </c>
       <c r="O11" s="11">
-        <v>879435</v>
+        <v>753893</v>
       </c>
       <c r="P11" s="11">
-        <v>753893</v>
+        <v>962542</v>
       </c>
       <c r="Q11" s="11">
-        <v>962542</v>
+        <v>607503</v>
       </c>
       <c r="R11" s="11">
-        <v>607503</v>
+        <v>1207512</v>
       </c>
       <c r="S11" s="11">
-        <v>1207512</v>
+        <v>1184991</v>
       </c>
       <c r="T11" s="11">
-        <v>1184991</v>
+        <v>1170212</v>
       </c>
       <c r="U11" s="11">
-        <v>1170212</v>
+        <v>575527</v>
       </c>
       <c r="V11" s="11">
-        <v>575527</v>
+        <v>33077</v>
       </c>
       <c r="W11" s="11">
-        <v>33077</v>
+        <v>1228618</v>
       </c>
       <c r="X11" s="11">
-        <v>1228618</v>
+        <v>1010922</v>
       </c>
       <c r="Y11" s="11">
-        <v>1010922</v>
+        <v>1325483</v>
       </c>
       <c r="Z11" s="11">
-        <v>1325483</v>
+        <v>1156344</v>
       </c>
       <c r="AA11" s="11">
-        <v>1156344</v>
+        <v>197112</v>
       </c>
       <c r="AB11" s="11">
-        <v>197112</v>
+        <v>774553</v>
       </c>
       <c r="AC11" s="11">
-        <v>774553</v>
+        <v>1175860</v>
       </c>
       <c r="AD11" s="11">
-        <v>1175860</v>
+        <v>1276508</v>
       </c>
       <c r="AE11" s="11">
-        <v>1276508</v>
+        <v>1260775</v>
       </c>
       <c r="AF11" s="11">
-        <v>1260775</v>
+        <v>1087802</v>
       </c>
       <c r="AG11" s="11">
-        <v>1087802</v>
+        <v>651932</v>
       </c>
       <c r="AH11" s="11">
-        <v>651932</v>
+        <v>537758</v>
       </c>
       <c r="AI11" s="11">
-        <v>537758</v>
+        <v>1057005</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1057005</v>
+        <v>1240544</v>
       </c>
       <c r="AK11" s="11">
-        <v>1240544</v>
+        <v>1357633</v>
       </c>
       <c r="AL11" s="11">
-        <v>1357633</v>
+        <v>866889</v>
       </c>
       <c r="AM11" s="11">
-        <v>866889</v>
+        <v>1414212</v>
       </c>
       <c r="AN11" s="11">
-        <v>1414212</v>
+        <v>1277905</v>
       </c>
       <c r="AO11" s="11">
-        <v>1277905</v>
+        <v>1379084</v>
       </c>
       <c r="AP11" s="11">
-        <v>1379084</v>
+        <v>1362327</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1362327</v>
+        <v>1255588</v>
       </c>
       <c r="AR11" s="11">
-        <v>1255588</v>
+        <v>1326245</v>
       </c>
       <c r="AS11" s="11">
-        <v>1326245</v>
+        <v>813561</v>
       </c>
       <c r="AT11" s="11">
-        <v>813561</v>
+        <v>666056</v>
       </c>
       <c r="AU11" s="11">
-        <v>666056</v>
+        <v>1284935</v>
       </c>
       <c r="AV11" s="11">
-        <v>1284935</v>
+        <v>1414467</v>
       </c>
       <c r="AW11" s="11">
-        <v>1414467</v>
+        <v>1262842</v>
       </c>
       <c r="AX11" s="11">
-        <v>1262842</v>
+        <v>1215231</v>
       </c>
       <c r="AY11" s="11">
-        <v>1215231</v>
+        <v>1130358</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1130358</v>
+        <v>949821</v>
       </c>
       <c r="BA11" s="11">
-        <v>949821</v>
+        <v>1462906</v>
       </c>
       <c r="BB11" s="11">
-        <v>1462906</v>
+        <v>1579004</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1565,94 +1565,94 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>78258</v>
+        <v>93016</v>
       </c>
       <c r="F12" s="13">
-        <v>93016</v>
+        <v>86574</v>
       </c>
       <c r="G12" s="13">
-        <v>86574</v>
+        <v>148189</v>
       </c>
       <c r="H12" s="13">
-        <v>148189</v>
+        <v>53987</v>
       </c>
       <c r="I12" s="13">
-        <v>53987</v>
+        <v>31972</v>
       </c>
       <c r="J12" s="13">
-        <v>31972</v>
+        <v>17287</v>
       </c>
       <c r="K12" s="13">
-        <v>17287</v>
+        <v>43996</v>
       </c>
       <c r="L12" s="13">
-        <v>43996</v>
+        <v>68688</v>
       </c>
       <c r="M12" s="13">
-        <v>68688</v>
+        <v>85152</v>
       </c>
       <c r="N12" s="13">
-        <v>85152</v>
+        <v>76075</v>
       </c>
       <c r="O12" s="13">
-        <v>76075</v>
+        <v>26625</v>
       </c>
       <c r="P12" s="13">
-        <v>26625</v>
+        <v>23158</v>
       </c>
       <c r="Q12" s="13">
-        <v>23158</v>
+        <v>27666</v>
       </c>
       <c r="R12" s="13">
-        <v>27666</v>
+        <v>77369</v>
       </c>
       <c r="S12" s="13">
-        <v>77369</v>
+        <v>150052</v>
       </c>
       <c r="T12" s="13">
-        <v>150052</v>
+        <v>171298</v>
       </c>
       <c r="U12" s="13">
-        <v>171298</v>
+        <v>84171</v>
       </c>
       <c r="V12" s="13">
-        <v>84171</v>
+        <v>3848</v>
       </c>
       <c r="W12" s="13">
-        <v>3848</v>
+        <v>110265</v>
       </c>
       <c r="X12" s="13">
-        <v>110265</v>
+        <v>80266</v>
       </c>
       <c r="Y12" s="13">
-        <v>80266</v>
+        <v>124515</v>
       </c>
       <c r="Z12" s="13">
-        <v>124515</v>
+        <v>110120</v>
       </c>
       <c r="AA12" s="13">
-        <v>110120</v>
+        <v>103430</v>
       </c>
       <c r="AB12" s="13">
-        <v>103430</v>
+        <v>66209</v>
       </c>
       <c r="AC12" s="13">
-        <v>66209</v>
+        <v>71944</v>
       </c>
       <c r="AD12" s="13">
-        <v>71944</v>
+        <v>112511</v>
       </c>
       <c r="AE12" s="13">
-        <v>112511</v>
+        <v>105943</v>
       </c>
       <c r="AF12" s="13">
-        <v>105943</v>
+        <v>94317</v>
       </c>
       <c r="AG12" s="13">
-        <v>94317</v>
+        <v>70052</v>
       </c>
       <c r="AH12" s="13">
-        <v>70052</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="13">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>0</v>
       </c>
       <c r="AR12" s="13">
-        <v>0</v>
+        <v>1176506</v>
       </c>
       <c r="AS12" s="13">
-        <v>1176506</v>
-      </c>
-      <c r="AT12" s="13">
         <v>64456</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU12" s="13" t="s">
         <v>58</v>
@@ -1724,154 +1724,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>205755</v>
+        <v>238526</v>
       </c>
       <c r="F13" s="11">
-        <v>238526</v>
+        <v>255519</v>
       </c>
       <c r="G13" s="11">
-        <v>255519</v>
+        <v>343206</v>
       </c>
       <c r="H13" s="11">
-        <v>343206</v>
+        <v>272708</v>
       </c>
       <c r="I13" s="11">
-        <v>272708</v>
+        <v>200829</v>
       </c>
       <c r="J13" s="11">
-        <v>200829</v>
+        <v>110406</v>
       </c>
       <c r="K13" s="11">
-        <v>110406</v>
+        <v>216771</v>
       </c>
       <c r="L13" s="11">
-        <v>216771</v>
+        <v>157816</v>
       </c>
       <c r="M13" s="11">
-        <v>157816</v>
+        <v>254754</v>
       </c>
       <c r="N13" s="11">
-        <v>254754</v>
+        <v>231616</v>
       </c>
       <c r="O13" s="11">
-        <v>231616</v>
+        <v>222176</v>
       </c>
       <c r="P13" s="11">
-        <v>222176</v>
+        <v>278061</v>
       </c>
       <c r="Q13" s="11">
-        <v>278061</v>
+        <v>188038</v>
       </c>
       <c r="R13" s="11">
-        <v>188038</v>
+        <v>264573</v>
       </c>
       <c r="S13" s="11">
-        <v>264573</v>
+        <v>250011</v>
       </c>
       <c r="T13" s="11">
-        <v>250011</v>
+        <v>258946</v>
       </c>
       <c r="U13" s="11">
-        <v>258946</v>
+        <v>114303</v>
       </c>
       <c r="V13" s="11">
-        <v>114303</v>
+        <v>6301</v>
       </c>
       <c r="W13" s="11">
-        <v>6301</v>
+        <v>301657</v>
       </c>
       <c r="X13" s="11">
-        <v>301657</v>
+        <v>238531</v>
       </c>
       <c r="Y13" s="11">
-        <v>238531</v>
+        <v>332468</v>
       </c>
       <c r="Z13" s="11">
-        <v>332468</v>
+        <v>314218</v>
       </c>
       <c r="AA13" s="11">
-        <v>314218</v>
+        <v>1285139</v>
       </c>
       <c r="AB13" s="11">
-        <v>1285139</v>
+        <v>218610</v>
       </c>
       <c r="AC13" s="11">
-        <v>218610</v>
+        <v>315710</v>
       </c>
       <c r="AD13" s="11">
-        <v>315710</v>
+        <v>310027</v>
       </c>
       <c r="AE13" s="11">
-        <v>310027</v>
+        <v>310581</v>
       </c>
       <c r="AF13" s="11">
-        <v>310581</v>
+        <v>234342</v>
       </c>
       <c r="AG13" s="11">
-        <v>234342</v>
+        <v>131430</v>
       </c>
       <c r="AH13" s="11">
-        <v>131430</v>
+        <v>111657</v>
       </c>
       <c r="AI13" s="11">
-        <v>111657</v>
+        <v>181932</v>
       </c>
       <c r="AJ13" s="11">
-        <v>181932</v>
+        <v>156101</v>
       </c>
       <c r="AK13" s="11">
-        <v>156101</v>
+        <v>170724</v>
       </c>
       <c r="AL13" s="11">
-        <v>170724</v>
+        <v>110235</v>
       </c>
       <c r="AM13" s="11">
-        <v>110235</v>
+        <v>286846</v>
       </c>
       <c r="AN13" s="11">
-        <v>286846</v>
+        <v>240282</v>
       </c>
       <c r="AO13" s="11">
-        <v>240282</v>
+        <v>254640</v>
       </c>
       <c r="AP13" s="11">
-        <v>254640</v>
+        <v>272919</v>
       </c>
       <c r="AQ13" s="11">
-        <v>272919</v>
+        <v>223708</v>
       </c>
       <c r="AR13" s="11">
-        <v>223708</v>
+        <v>226709</v>
       </c>
       <c r="AS13" s="11">
-        <v>226709</v>
+        <v>194299</v>
       </c>
       <c r="AT13" s="11">
-        <v>194299</v>
+        <v>100164</v>
       </c>
       <c r="AU13" s="11">
-        <v>100164</v>
+        <v>183692</v>
       </c>
       <c r="AV13" s="11">
-        <v>183692</v>
+        <v>196344</v>
       </c>
       <c r="AW13" s="11">
-        <v>196344</v>
+        <v>165035</v>
       </c>
       <c r="AX13" s="11">
-        <v>165035</v>
+        <v>162716</v>
       </c>
       <c r="AY13" s="11">
-        <v>162716</v>
+        <v>206418</v>
       </c>
       <c r="AZ13" s="11">
-        <v>206418</v>
+        <v>116371</v>
       </c>
       <c r="BA13" s="11">
-        <v>116371</v>
+        <v>184422</v>
       </c>
       <c r="BB13" s="11">
-        <v>184422</v>
+        <v>198484</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1969,68 +1969,68 @@
       <c r="AG14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH14" s="13" t="s">
-        <v>58</v>
+      <c r="AH14" s="13">
+        <v>56441</v>
       </c>
       <c r="AI14" s="13">
-        <v>56441</v>
+        <v>122686</v>
       </c>
       <c r="AJ14" s="13">
-        <v>122686</v>
+        <v>216298</v>
       </c>
       <c r="AK14" s="13">
-        <v>216298</v>
+        <v>192322</v>
       </c>
       <c r="AL14" s="13">
-        <v>192322</v>
+        <v>117622</v>
       </c>
       <c r="AM14" s="13">
-        <v>117622</v>
+        <v>24402</v>
       </c>
       <c r="AN14" s="13">
-        <v>24402</v>
+        <v>76558</v>
       </c>
       <c r="AO14" s="13">
-        <v>76558</v>
+        <v>88699</v>
       </c>
       <c r="AP14" s="13">
-        <v>88699</v>
+        <v>105933</v>
       </c>
       <c r="AQ14" s="13">
-        <v>105933</v>
-      </c>
-      <c r="AR14" s="13">
         <v>85939</v>
       </c>
+      <c r="AR14" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="13" t="s">
-        <v>58</v>
+      <c r="AT14" s="13">
+        <v>61089</v>
       </c>
       <c r="AU14" s="13">
-        <v>61089</v>
+        <v>142674</v>
       </c>
       <c r="AV14" s="13">
-        <v>142674</v>
+        <v>132872</v>
       </c>
       <c r="AW14" s="13">
-        <v>132872</v>
+        <v>101431</v>
       </c>
       <c r="AX14" s="13">
-        <v>101431</v>
+        <v>114885</v>
       </c>
       <c r="AY14" s="13">
-        <v>114885</v>
+        <v>23535</v>
       </c>
       <c r="AZ14" s="13">
-        <v>23535</v>
+        <v>26527</v>
       </c>
       <c r="BA14" s="13">
-        <v>26527</v>
+        <v>46778</v>
       </c>
       <c r="BB14" s="13">
-        <v>46778</v>
+        <v>77256</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2156,8 +2156,8 @@
       <c r="X16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="17" t="s">
-        <v>58</v>
+      <c r="Y16" s="17">
+        <v>0</v>
       </c>
       <c r="Z16" s="17">
         <v>0</v>
@@ -2254,154 +2254,154 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19">
-        <v>1545356</v>
+        <v>1381312</v>
       </c>
       <c r="F17" s="19">
-        <v>1381312</v>
+        <v>1311674</v>
       </c>
       <c r="G17" s="19">
-        <v>1311674</v>
+        <v>1596251</v>
       </c>
       <c r="H17" s="19">
-        <v>1596251</v>
+        <v>1379504</v>
       </c>
       <c r="I17" s="19">
-        <v>1379504</v>
+        <v>1091902</v>
       </c>
       <c r="J17" s="19">
-        <v>1091902</v>
+        <v>512831</v>
       </c>
       <c r="K17" s="19">
-        <v>512831</v>
+        <v>1162385</v>
       </c>
       <c r="L17" s="19">
-        <v>1162385</v>
+        <v>876671</v>
       </c>
       <c r="M17" s="19">
-        <v>876671</v>
+        <v>1385415</v>
       </c>
       <c r="N17" s="19">
-        <v>1385415</v>
+        <v>1187126</v>
       </c>
       <c r="O17" s="19">
-        <v>1187126</v>
+        <v>1002694</v>
       </c>
       <c r="P17" s="19">
-        <v>1002694</v>
+        <v>1263761</v>
       </c>
       <c r="Q17" s="19">
-        <v>1263761</v>
+        <v>823207</v>
       </c>
       <c r="R17" s="19">
-        <v>823207</v>
+        <v>1549454</v>
       </c>
       <c r="S17" s="19">
-        <v>1549454</v>
+        <v>1585054</v>
       </c>
       <c r="T17" s="19">
-        <v>1585054</v>
+        <v>1600456</v>
       </c>
       <c r="U17" s="19">
-        <v>1600456</v>
+        <v>774001</v>
       </c>
       <c r="V17" s="19">
-        <v>774001</v>
+        <v>43226</v>
       </c>
       <c r="W17" s="19">
-        <v>43226</v>
+        <v>1640540</v>
       </c>
       <c r="X17" s="19">
-        <v>1640540</v>
+        <v>1329719</v>
       </c>
       <c r="Y17" s="19">
-        <v>1329719</v>
+        <v>1782466</v>
       </c>
       <c r="Z17" s="19">
-        <v>1782466</v>
+        <v>1580682</v>
       </c>
       <c r="AA17" s="19">
-        <v>1580682</v>
+        <v>1585681</v>
       </c>
       <c r="AB17" s="19">
-        <v>1585681</v>
+        <v>1059372</v>
       </c>
       <c r="AC17" s="19">
-        <v>1059372</v>
+        <v>1563514</v>
       </c>
       <c r="AD17" s="19">
-        <v>1563514</v>
+        <v>1699046</v>
       </c>
       <c r="AE17" s="19">
-        <v>1699046</v>
+        <v>1677299</v>
       </c>
       <c r="AF17" s="19">
-        <v>1677299</v>
+        <v>1416461</v>
       </c>
       <c r="AG17" s="19">
-        <v>1416461</v>
+        <v>853414</v>
       </c>
       <c r="AH17" s="19">
-        <v>853414</v>
+        <v>705856</v>
       </c>
       <c r="AI17" s="19">
-        <v>705856</v>
+        <v>1361623</v>
       </c>
       <c r="AJ17" s="19">
-        <v>1361623</v>
+        <v>1612943</v>
       </c>
       <c r="AK17" s="19">
-        <v>1612943</v>
+        <v>1720679</v>
       </c>
       <c r="AL17" s="19">
-        <v>1720679</v>
+        <v>1094746</v>
       </c>
       <c r="AM17" s="19">
-        <v>1094746</v>
+        <v>1725460</v>
       </c>
       <c r="AN17" s="19">
-        <v>1725460</v>
+        <v>1594745</v>
       </c>
       <c r="AO17" s="19">
-        <v>1594745</v>
+        <v>1722423</v>
       </c>
       <c r="AP17" s="19">
-        <v>1722423</v>
+        <v>1741179</v>
       </c>
       <c r="AQ17" s="19">
-        <v>1741179</v>
+        <v>1565235</v>
       </c>
       <c r="AR17" s="19">
-        <v>1565235</v>
+        <v>2729460</v>
       </c>
       <c r="AS17" s="19">
-        <v>2729460</v>
+        <v>1072316</v>
       </c>
       <c r="AT17" s="19">
-        <v>1072316</v>
+        <v>827309</v>
       </c>
       <c r="AU17" s="19">
-        <v>827309</v>
+        <v>1611301</v>
       </c>
       <c r="AV17" s="19">
-        <v>1611301</v>
+        <v>1743683</v>
       </c>
       <c r="AW17" s="19">
-        <v>1743683</v>
+        <v>1529308</v>
       </c>
       <c r="AX17" s="19">
-        <v>1529308</v>
+        <v>1492832</v>
       </c>
       <c r="AY17" s="19">
-        <v>1492832</v>
+        <v>1360311</v>
       </c>
       <c r="AZ17" s="19">
-        <v>1360311</v>
+        <v>1092719</v>
       </c>
       <c r="BA17" s="19">
-        <v>1092719</v>
+        <v>1694106</v>
       </c>
       <c r="BB17" s="19">
-        <v>1694106</v>
+        <v>1854744</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2847,154 +2847,154 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>618653</v>
+        <v>444663</v>
       </c>
       <c r="F24" s="11">
-        <v>444663</v>
+        <v>518342</v>
       </c>
       <c r="G24" s="11">
-        <v>518342</v>
+        <v>880133</v>
       </c>
       <c r="H24" s="11">
-        <v>880133</v>
+        <v>909921</v>
       </c>
       <c r="I24" s="11">
-        <v>909921</v>
+        <v>913849</v>
       </c>
       <c r="J24" s="11">
-        <v>913849</v>
+        <v>384505</v>
       </c>
       <c r="K24" s="11">
-        <v>384505</v>
+        <v>904752</v>
       </c>
       <c r="L24" s="11">
-        <v>904752</v>
+        <v>842899</v>
       </c>
       <c r="M24" s="11">
-        <v>842899</v>
+        <v>1163094</v>
       </c>
       <c r="N24" s="11">
-        <v>1163094</v>
+        <v>793394</v>
       </c>
       <c r="O24" s="11">
-        <v>793394</v>
+        <v>728426</v>
       </c>
       <c r="P24" s="11">
-        <v>728426</v>
+        <v>856791</v>
       </c>
       <c r="Q24" s="11">
-        <v>856791</v>
+        <v>559596</v>
       </c>
       <c r="R24" s="11">
-        <v>559596</v>
+        <v>1144361</v>
       </c>
       <c r="S24" s="11">
-        <v>1144361</v>
+        <v>924984</v>
       </c>
       <c r="T24" s="11">
-        <v>924984</v>
+        <v>969774</v>
       </c>
       <c r="U24" s="11">
-        <v>969774</v>
+        <v>1153613</v>
       </c>
       <c r="V24" s="11">
-        <v>1153613</v>
+        <v>522710</v>
       </c>
       <c r="W24" s="11">
-        <v>522710</v>
+        <v>1204049</v>
       </c>
       <c r="X24" s="11">
-        <v>1204049</v>
+        <v>1123955</v>
       </c>
       <c r="Y24" s="11">
-        <v>1123955</v>
+        <v>1160863</v>
       </c>
       <c r="Z24" s="11">
-        <v>1160863</v>
+        <v>1368111</v>
       </c>
       <c r="AA24" s="11">
-        <v>1368111</v>
+        <v>1382556</v>
       </c>
       <c r="AB24" s="11">
-        <v>1382556</v>
+        <v>861260</v>
       </c>
       <c r="AC24" s="11">
-        <v>861260</v>
+        <v>1047843</v>
       </c>
       <c r="AD24" s="11">
-        <v>1047843</v>
+        <v>873150</v>
       </c>
       <c r="AE24" s="11">
-        <v>873150</v>
+        <v>1004847</v>
       </c>
       <c r="AF24" s="11">
-        <v>1004847</v>
+        <v>997421</v>
       </c>
       <c r="AG24" s="11">
-        <v>997421</v>
+        <v>984653</v>
       </c>
       <c r="AH24" s="11">
-        <v>984653</v>
+        <v>928493</v>
       </c>
       <c r="AI24" s="11">
-        <v>928493</v>
+        <v>1197969</v>
       </c>
       <c r="AJ24" s="11">
-        <v>1197969</v>
+        <v>1547146</v>
       </c>
       <c r="AK24" s="11">
-        <v>1547146</v>
+        <v>1463871</v>
       </c>
       <c r="AL24" s="11">
-        <v>1463871</v>
+        <v>1004148</v>
       </c>
       <c r="AM24" s="11">
-        <v>1004148</v>
+        <v>1159706</v>
       </c>
       <c r="AN24" s="11">
-        <v>1159706</v>
+        <v>1015911</v>
       </c>
       <c r="AO24" s="11">
-        <v>1015911</v>
+        <v>918470</v>
       </c>
       <c r="AP24" s="11">
-        <v>918470</v>
+        <v>863394</v>
       </c>
       <c r="AQ24" s="11">
-        <v>863394</v>
+        <v>750252</v>
       </c>
       <c r="AR24" s="11">
-        <v>750252</v>
+        <v>974917</v>
       </c>
       <c r="AS24" s="11">
-        <v>974917</v>
+        <v>998634</v>
       </c>
       <c r="AT24" s="11">
-        <v>998634</v>
+        <v>1062771</v>
       </c>
       <c r="AU24" s="11">
-        <v>1062771</v>
+        <v>1065253</v>
       </c>
       <c r="AV24" s="11">
-        <v>1065253</v>
+        <v>1670869</v>
       </c>
       <c r="AW24" s="11">
-        <v>1670869</v>
+        <v>1328653</v>
       </c>
       <c r="AX24" s="11">
-        <v>1328653</v>
+        <v>1436345</v>
       </c>
       <c r="AY24" s="11">
-        <v>1436345</v>
+        <v>1393474</v>
       </c>
       <c r="AZ24" s="11">
-        <v>1393474</v>
+        <v>1408025</v>
       </c>
       <c r="BA24" s="11">
-        <v>1408025</v>
+        <v>924974</v>
       </c>
       <c r="BB24" s="11">
-        <v>924974</v>
+        <v>856598</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3006,94 +3006,94 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>74377</v>
+        <v>51990</v>
       </c>
       <c r="F25" s="13">
-        <v>51990</v>
+        <v>33227</v>
       </c>
       <c r="G25" s="13">
-        <v>33227</v>
+        <v>39290</v>
       </c>
       <c r="H25" s="13">
-        <v>39290</v>
+        <v>49501</v>
       </c>
       <c r="I25" s="13">
-        <v>49501</v>
+        <v>34436</v>
       </c>
       <c r="J25" s="13">
-        <v>34436</v>
+        <v>6275</v>
       </c>
       <c r="K25" s="13">
-        <v>6275</v>
+        <v>151979</v>
       </c>
       <c r="L25" s="13">
-        <v>151979</v>
+        <v>21571</v>
       </c>
       <c r="M25" s="13">
-        <v>21571</v>
+        <v>64157</v>
       </c>
       <c r="N25" s="13">
-        <v>64157</v>
+        <v>65000</v>
       </c>
       <c r="O25" s="13">
-        <v>65000</v>
+        <v>49346</v>
       </c>
       <c r="P25" s="13">
-        <v>49346</v>
+        <v>52508</v>
       </c>
       <c r="Q25" s="13">
-        <v>52508</v>
+        <v>40838</v>
       </c>
       <c r="R25" s="13">
-        <v>40838</v>
+        <v>92456</v>
       </c>
       <c r="S25" s="13">
-        <v>92456</v>
+        <v>62260</v>
       </c>
       <c r="T25" s="13">
-        <v>62260</v>
+        <v>25637</v>
       </c>
       <c r="U25" s="13">
-        <v>25637</v>
+        <v>56023</v>
       </c>
       <c r="V25" s="13">
-        <v>56023</v>
+        <v>41237</v>
       </c>
       <c r="W25" s="13">
-        <v>41237</v>
+        <v>96177</v>
       </c>
       <c r="X25" s="13">
-        <v>96177</v>
+        <v>74109</v>
       </c>
       <c r="Y25" s="13">
-        <v>74109</v>
+        <v>121878</v>
       </c>
       <c r="Z25" s="13">
-        <v>121878</v>
+        <v>85611</v>
       </c>
       <c r="AA25" s="13">
-        <v>85611</v>
+        <v>78826</v>
       </c>
       <c r="AB25" s="13">
-        <v>78826</v>
+        <v>106761</v>
       </c>
       <c r="AC25" s="13">
-        <v>106761</v>
+        <v>85491</v>
       </c>
       <c r="AD25" s="13">
-        <v>85491</v>
+        <v>97876</v>
       </c>
       <c r="AE25" s="13">
-        <v>97876</v>
+        <v>93514</v>
       </c>
       <c r="AF25" s="13">
-        <v>93514</v>
+        <v>84526</v>
       </c>
       <c r="AG25" s="13">
-        <v>84526</v>
+        <v>112587</v>
       </c>
       <c r="AH25" s="13">
-        <v>112587</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="13">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="AR25" s="13">
-        <v>0</v>
+        <v>1087095</v>
       </c>
       <c r="AS25" s="13">
-        <v>1087095</v>
-      </c>
-      <c r="AT25" s="13">
         <v>86030</v>
+      </c>
+      <c r="AT25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU25" s="13" t="s">
         <v>58</v>
@@ -3165,154 +3165,154 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>248136</v>
+        <v>229779</v>
       </c>
       <c r="F26" s="11">
-        <v>229779</v>
+        <v>216079</v>
       </c>
       <c r="G26" s="11">
-        <v>216079</v>
+        <v>208237</v>
       </c>
       <c r="H26" s="11">
-        <v>208237</v>
+        <v>425484</v>
       </c>
       <c r="I26" s="11">
-        <v>425484</v>
+        <v>298189</v>
       </c>
       <c r="J26" s="11">
-        <v>298189</v>
+        <v>125495</v>
       </c>
       <c r="K26" s="11">
-        <v>125495</v>
+        <v>152040</v>
       </c>
       <c r="L26" s="11">
-        <v>152040</v>
+        <v>177790</v>
       </c>
       <c r="M26" s="11">
-        <v>177790</v>
+        <v>216973</v>
       </c>
       <c r="N26" s="11">
-        <v>216973</v>
+        <v>128291</v>
       </c>
       <c r="O26" s="11">
-        <v>128291</v>
+        <v>191356</v>
       </c>
       <c r="P26" s="11">
-        <v>191356</v>
+        <v>219123</v>
       </c>
       <c r="Q26" s="11">
-        <v>219123</v>
+        <v>220042</v>
       </c>
       <c r="R26" s="11">
-        <v>220042</v>
+        <v>153478</v>
       </c>
       <c r="S26" s="11">
-        <v>153478</v>
+        <v>293800</v>
       </c>
       <c r="T26" s="11">
-        <v>293800</v>
+        <v>305544</v>
       </c>
       <c r="U26" s="11">
-        <v>305544</v>
+        <v>163002</v>
       </c>
       <c r="V26" s="11">
-        <v>163002</v>
+        <v>137121</v>
       </c>
       <c r="W26" s="11">
-        <v>137121</v>
+        <v>146263</v>
       </c>
       <c r="X26" s="11">
-        <v>146263</v>
+        <v>209298</v>
       </c>
       <c r="Y26" s="11">
-        <v>209298</v>
+        <v>294755</v>
       </c>
       <c r="Z26" s="11">
-        <v>294755</v>
+        <v>239210</v>
       </c>
       <c r="AA26" s="11">
-        <v>239210</v>
+        <v>328167</v>
       </c>
       <c r="AB26" s="11">
-        <v>328167</v>
+        <v>146626</v>
       </c>
       <c r="AC26" s="11">
-        <v>146626</v>
+        <v>268507</v>
       </c>
       <c r="AD26" s="11">
-        <v>268507</v>
+        <v>166402</v>
       </c>
       <c r="AE26" s="11">
-        <v>166402</v>
+        <v>192409</v>
       </c>
       <c r="AF26" s="11">
-        <v>192409</v>
+        <v>212996</v>
       </c>
       <c r="AG26" s="11">
-        <v>212996</v>
+        <v>237658</v>
       </c>
       <c r="AH26" s="11">
-        <v>237658</v>
+        <v>209468</v>
       </c>
       <c r="AI26" s="11">
-        <v>209468</v>
+        <v>329376</v>
       </c>
       <c r="AJ26" s="11">
-        <v>329376</v>
+        <v>316007</v>
       </c>
       <c r="AK26" s="11">
-        <v>316007</v>
+        <v>159606</v>
       </c>
       <c r="AL26" s="11">
-        <v>159606</v>
+        <v>279923</v>
       </c>
       <c r="AM26" s="11">
-        <v>279923</v>
+        <v>324037</v>
       </c>
       <c r="AN26" s="11">
-        <v>324037</v>
+        <v>301738</v>
       </c>
       <c r="AO26" s="11">
-        <v>301738</v>
+        <v>220791</v>
       </c>
       <c r="AP26" s="11">
-        <v>220791</v>
+        <v>238631</v>
       </c>
       <c r="AQ26" s="11">
-        <v>238631</v>
+        <v>191930</v>
       </c>
       <c r="AR26" s="11">
-        <v>191930</v>
+        <v>58863</v>
       </c>
       <c r="AS26" s="11">
-        <v>58863</v>
+        <v>181103</v>
       </c>
       <c r="AT26" s="11">
-        <v>181103</v>
+        <v>189432</v>
       </c>
       <c r="AU26" s="11">
-        <v>189432</v>
+        <v>197545</v>
       </c>
       <c r="AV26" s="11">
-        <v>197545</v>
+        <v>236603</v>
       </c>
       <c r="AW26" s="11">
-        <v>236603</v>
+        <v>188915</v>
       </c>
       <c r="AX26" s="11">
-        <v>188915</v>
+        <v>208117</v>
       </c>
       <c r="AY26" s="11">
-        <v>208117</v>
+        <v>213605</v>
       </c>
       <c r="AZ26" s="11">
-        <v>213605</v>
+        <v>299382</v>
       </c>
       <c r="BA26" s="11">
-        <v>299382</v>
+        <v>128393</v>
       </c>
       <c r="BB26" s="11">
-        <v>128393</v>
+        <v>110003</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3410,68 +3410,68 @@
       <c r="AG27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH27" s="13" t="s">
-        <v>58</v>
+      <c r="AH27" s="13">
+        <v>68091</v>
       </c>
       <c r="AI27" s="13">
-        <v>68091</v>
+        <v>127691</v>
       </c>
       <c r="AJ27" s="13">
-        <v>127691</v>
+        <v>140353</v>
       </c>
       <c r="AK27" s="13">
-        <v>140353</v>
+        <v>123855</v>
       </c>
       <c r="AL27" s="13">
-        <v>123855</v>
+        <v>114719</v>
       </c>
       <c r="AM27" s="13">
-        <v>114719</v>
+        <v>118876</v>
       </c>
       <c r="AN27" s="13">
-        <v>118876</v>
+        <v>66307</v>
       </c>
       <c r="AO27" s="13">
-        <v>66307</v>
+        <v>100918</v>
       </c>
       <c r="AP27" s="13">
-        <v>100918</v>
+        <v>81510</v>
       </c>
       <c r="AQ27" s="13">
-        <v>81510</v>
-      </c>
-      <c r="AR27" s="13">
         <v>59708</v>
       </c>
+      <c r="AR27" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT27" s="13" t="s">
-        <v>58</v>
+      <c r="AT27" s="13">
+        <v>99905</v>
       </c>
       <c r="AU27" s="13">
-        <v>99905</v>
+        <v>89183</v>
       </c>
       <c r="AV27" s="13">
-        <v>89183</v>
+        <v>130611</v>
       </c>
       <c r="AW27" s="13">
-        <v>130611</v>
+        <v>100244</v>
       </c>
       <c r="AX27" s="13">
-        <v>100244</v>
+        <v>93413</v>
       </c>
       <c r="AY27" s="13">
-        <v>93413</v>
+        <v>103354</v>
       </c>
       <c r="AZ27" s="13">
-        <v>103354</v>
+        <v>16002</v>
       </c>
       <c r="BA27" s="13">
-        <v>16002</v>
+        <v>175537</v>
       </c>
       <c r="BB27" s="13">
-        <v>175537</v>
+        <v>109202</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3597,8 +3597,8 @@
       <c r="X29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y29" s="17" t="s">
-        <v>58</v>
+      <c r="Y29" s="17">
+        <v>0</v>
       </c>
       <c r="Z29" s="17">
         <v>0</v>
@@ -3819,11 +3819,11 @@
       <c r="Z31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA31" s="11" t="s">
-        <v>58</v>
+      <c r="AA31" s="11">
+        <v>-2359</v>
       </c>
       <c r="AB31" s="11">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="11">
         <v>0</v>
@@ -3832,29 +3832,29 @@
         <v>0</v>
       </c>
       <c r="AE31" s="11">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AF31" s="11">
-        <v>-94</v>
+        <v>-73</v>
       </c>
       <c r="AG31" s="11">
-        <v>-73</v>
-      </c>
-      <c r="AH31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI31" s="11">
         <v>-804</v>
       </c>
-      <c r="AK31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL31" s="11">
+      <c r="AJ31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK31" s="11">
         <v>-673</v>
       </c>
+      <c r="AL31" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AM31" s="11" t="s">
         <v>58</v>
       </c>
@@ -3870,38 +3870,38 @@
       <c r="AQ31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR31" s="11" t="s">
-        <v>58</v>
+      <c r="AR31" s="11">
+        <v>-12</v>
       </c>
       <c r="AS31" s="11">
-        <v>-12</v>
-      </c>
-      <c r="AT31" s="11">
         <v>-27520</v>
       </c>
+      <c r="AT31" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU31" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AV31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX31" s="11">
+      <c r="AW31" s="11">
         <v>-8</v>
       </c>
-      <c r="AY31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ31" s="11">
+      <c r="AX31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY31" s="11">
         <v>-257927</v>
       </c>
-      <c r="BA31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB31" s="11">
-        <v>0</v>
+      <c r="AZ31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA31" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4008,12 +4008,12 @@
       <c r="AJ32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL32" s="13">
+      <c r="AK32" s="13">
         <v>-22</v>
       </c>
+      <c r="AL32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM32" s="13" t="s">
         <v>58</v>
       </c>
@@ -4029,14 +4029,14 @@
       <c r="AQ32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR32" s="13" t="s">
-        <v>58</v>
+      <c r="AR32" s="13">
+        <v>0</v>
       </c>
       <c r="AS32" s="13">
         <v>0</v>
       </c>
-      <c r="AT32" s="13">
-        <v>0</v>
+      <c r="AT32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU32" s="13" t="s">
         <v>58</v>
@@ -4173,12 +4173,12 @@
       <c r="AL33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN33" s="11">
+      <c r="AM33" s="11">
         <v>-376</v>
       </c>
+      <c r="AN33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO33" s="11" t="s">
         <v>58</v>
       </c>
@@ -4188,38 +4188,38 @@
       <c r="AQ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR33" s="11" t="s">
-        <v>58</v>
+      <c r="AR33" s="11">
+        <v>0</v>
       </c>
       <c r="AS33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT33" s="11">
         <v>-10000</v>
       </c>
+      <c r="AT33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU33" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AV33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX33" s="11">
+      <c r="AW33" s="11">
         <v>-1</v>
       </c>
-      <c r="AY33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ33" s="11">
+      <c r="AX33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY33" s="11">
         <v>-53336</v>
       </c>
-      <c r="BA33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB33" s="11">
-        <v>0</v>
+      <c r="AZ33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA33" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4362,23 +4362,23 @@
       <c r="AV34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX34" s="13">
+      <c r="AW34" s="13">
         <v>-15547</v>
       </c>
-      <c r="AY34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ34" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB34" s="13">
-        <v>0</v>
+      <c r="AX34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA34" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4447,17 +4447,17 @@
       <c r="X35" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="17" t="s">
-        <v>58</v>
+      <c r="Y35" s="17">
+        <v>0</v>
       </c>
       <c r="Z35" s="17">
         <v>0</v>
       </c>
       <c r="AA35" s="17">
-        <v>0</v>
+        <v>-2359</v>
       </c>
       <c r="AB35" s="17">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="17">
         <v>0</v>
@@ -4466,34 +4466,34 @@
         <v>0</v>
       </c>
       <c r="AE35" s="17">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AF35" s="17">
-        <v>-94</v>
+        <v>-73</v>
       </c>
       <c r="AG35" s="17">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="17">
         <v>0</v>
       </c>
       <c r="AI35" s="17">
-        <v>0</v>
+        <v>-804</v>
       </c>
       <c r="AJ35" s="17">
-        <v>-804</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="17">
-        <v>0</v>
+        <v>-695</v>
       </c>
       <c r="AL35" s="17">
-        <v>-695</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="17">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="AN35" s="17">
-        <v>-376</v>
+        <v>0</v>
       </c>
       <c r="AO35" s="17">
         <v>0</v>
@@ -4505,13 +4505,13 @@
         <v>0</v>
       </c>
       <c r="AR35" s="17">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AS35" s="17">
-        <v>-12</v>
+        <v>-37520</v>
       </c>
       <c r="AT35" s="17">
-        <v>-37520</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="17">
         <v>0</v>
@@ -4520,16 +4520,16 @@
         <v>0</v>
       </c>
       <c r="AW35" s="17">
-        <v>0</v>
+        <v>-15556</v>
       </c>
       <c r="AX35" s="17">
-        <v>-15556</v>
+        <v>0</v>
       </c>
       <c r="AY35" s="17">
-        <v>0</v>
+        <v>-311263</v>
       </c>
       <c r="AZ35" s="17">
-        <v>-311263</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="17">
         <v>0</v>
@@ -4545,154 +4545,154 @@
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19">
-        <v>941166</v>
+        <v>726432</v>
       </c>
       <c r="F36" s="19">
-        <v>726432</v>
+        <v>767648</v>
       </c>
       <c r="G36" s="19">
-        <v>767648</v>
+        <v>1127660</v>
       </c>
       <c r="H36" s="19">
-        <v>1127660</v>
+        <v>1384906</v>
       </c>
       <c r="I36" s="19">
-        <v>1384906</v>
+        <v>1246474</v>
       </c>
       <c r="J36" s="19">
-        <v>1246474</v>
+        <v>516275</v>
       </c>
       <c r="K36" s="19">
-        <v>516275</v>
+        <v>1208771</v>
       </c>
       <c r="L36" s="19">
-        <v>1208771</v>
+        <v>1042260</v>
       </c>
       <c r="M36" s="19">
-        <v>1042260</v>
+        <v>1444224</v>
       </c>
       <c r="N36" s="19">
-        <v>1444224</v>
+        <v>986685</v>
       </c>
       <c r="O36" s="19">
-        <v>986685</v>
+        <v>969128</v>
       </c>
       <c r="P36" s="19">
-        <v>969128</v>
+        <v>1128422</v>
       </c>
       <c r="Q36" s="19">
-        <v>1128422</v>
+        <v>820476</v>
       </c>
       <c r="R36" s="19">
-        <v>820476</v>
+        <v>1390295</v>
       </c>
       <c r="S36" s="19">
-        <v>1390295</v>
+        <v>1281044</v>
       </c>
       <c r="T36" s="19">
-        <v>1281044</v>
+        <v>1300955</v>
       </c>
       <c r="U36" s="19">
-        <v>1300955</v>
+        <v>1372638</v>
       </c>
       <c r="V36" s="19">
-        <v>1372638</v>
+        <v>701068</v>
       </c>
       <c r="W36" s="19">
-        <v>701068</v>
+        <v>1446489</v>
       </c>
       <c r="X36" s="19">
-        <v>1446489</v>
+        <v>1407362</v>
       </c>
       <c r="Y36" s="19">
-        <v>1407362</v>
+        <v>1577496</v>
       </c>
       <c r="Z36" s="19">
-        <v>1577496</v>
+        <v>1692932</v>
       </c>
       <c r="AA36" s="19">
-        <v>1692932</v>
+        <v>1787190</v>
       </c>
       <c r="AB36" s="19">
-        <v>1787190</v>
+        <v>1114647</v>
       </c>
       <c r="AC36" s="19">
-        <v>1114647</v>
+        <v>1401841</v>
       </c>
       <c r="AD36" s="19">
-        <v>1401841</v>
+        <v>1137428</v>
       </c>
       <c r="AE36" s="19">
-        <v>1137428</v>
+        <v>1290676</v>
       </c>
       <c r="AF36" s="19">
-        <v>1290676</v>
+        <v>1294870</v>
       </c>
       <c r="AG36" s="19">
-        <v>1294870</v>
+        <v>1334898</v>
       </c>
       <c r="AH36" s="19">
-        <v>1334898</v>
+        <v>1206052</v>
       </c>
       <c r="AI36" s="19">
-        <v>1206052</v>
+        <v>1654232</v>
       </c>
       <c r="AJ36" s="19">
-        <v>1654232</v>
+        <v>2003506</v>
       </c>
       <c r="AK36" s="19">
-        <v>2003506</v>
+        <v>1746637</v>
       </c>
       <c r="AL36" s="19">
-        <v>1746637</v>
+        <v>1398790</v>
       </c>
       <c r="AM36" s="19">
-        <v>1398790</v>
+        <v>1602243</v>
       </c>
       <c r="AN36" s="19">
-        <v>1602243</v>
+        <v>1383956</v>
       </c>
       <c r="AO36" s="19">
-        <v>1383956</v>
+        <v>1240179</v>
       </c>
       <c r="AP36" s="19">
-        <v>1240179</v>
+        <v>1183535</v>
       </c>
       <c r="AQ36" s="19">
-        <v>1183535</v>
+        <v>1001890</v>
       </c>
       <c r="AR36" s="19">
-        <v>1001890</v>
+        <v>2120863</v>
       </c>
       <c r="AS36" s="19">
-        <v>2120863</v>
+        <v>1228247</v>
       </c>
       <c r="AT36" s="19">
-        <v>1228247</v>
+        <v>1352108</v>
       </c>
       <c r="AU36" s="19">
-        <v>1352108</v>
+        <v>1351981</v>
       </c>
       <c r="AV36" s="19">
-        <v>1351981</v>
+        <v>2038083</v>
       </c>
       <c r="AW36" s="19">
-        <v>2038083</v>
+        <v>1602256</v>
       </c>
       <c r="AX36" s="19">
-        <v>1602256</v>
+        <v>1737875</v>
       </c>
       <c r="AY36" s="19">
-        <v>1737875</v>
+        <v>1399170</v>
       </c>
       <c r="AZ36" s="19">
-        <v>1399170</v>
+        <v>1723409</v>
       </c>
       <c r="BA36" s="19">
-        <v>1723409</v>
+        <v>1228904</v>
       </c>
       <c r="BB36" s="19">
-        <v>1228904</v>
+        <v>1075803</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5138,154 +5138,154 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>125066</v>
+        <v>89739</v>
       </c>
       <c r="F43" s="11">
-        <v>89739</v>
+        <v>104881</v>
       </c>
       <c r="G43" s="11">
-        <v>104881</v>
+        <v>178056</v>
       </c>
       <c r="H43" s="11">
-        <v>178056</v>
+        <v>184527</v>
       </c>
       <c r="I43" s="11">
-        <v>184527</v>
+        <v>183206</v>
       </c>
       <c r="J43" s="11">
-        <v>183206</v>
+        <v>83146</v>
       </c>
       <c r="K43" s="11">
-        <v>83146</v>
+        <v>218396</v>
       </c>
       <c r="L43" s="11">
-        <v>218396</v>
+        <v>208594</v>
       </c>
       <c r="M43" s="11">
-        <v>208594</v>
+        <v>311904</v>
       </c>
       <c r="N43" s="11">
-        <v>311904</v>
+        <v>215220</v>
       </c>
       <c r="O43" s="11">
-        <v>215220</v>
+        <v>194609</v>
       </c>
       <c r="P43" s="11">
-        <v>194609</v>
+        <v>229415</v>
       </c>
       <c r="Q43" s="11">
-        <v>229415</v>
+        <v>155098</v>
       </c>
       <c r="R43" s="11">
-        <v>155098</v>
+        <v>315405</v>
       </c>
       <c r="S43" s="11">
-        <v>315405</v>
+        <v>258163</v>
       </c>
       <c r="T43" s="11">
-        <v>258163</v>
+        <v>272931</v>
       </c>
       <c r="U43" s="11">
-        <v>272931</v>
+        <v>308494</v>
       </c>
       <c r="V43" s="11">
-        <v>308494</v>
+        <v>142161</v>
       </c>
       <c r="W43" s="11">
-        <v>142161</v>
+        <v>363465</v>
       </c>
       <c r="X43" s="11">
-        <v>363465</v>
+        <v>369726</v>
       </c>
       <c r="Y43" s="11">
-        <v>369726</v>
+        <v>439030</v>
       </c>
       <c r="Z43" s="11">
-        <v>439030</v>
+        <v>594183</v>
       </c>
       <c r="AA43" s="11">
-        <v>594183</v>
+        <v>607767</v>
       </c>
       <c r="AB43" s="11">
-        <v>607767</v>
+        <v>418778</v>
       </c>
       <c r="AC43" s="11">
-        <v>418778</v>
+        <v>521588</v>
       </c>
       <c r="AD43" s="11">
-        <v>521588</v>
+        <v>420759</v>
       </c>
       <c r="AE43" s="11">
-        <v>420759</v>
+        <v>507849</v>
       </c>
       <c r="AF43" s="11">
-        <v>507849</v>
+        <v>487644</v>
       </c>
       <c r="AG43" s="11">
-        <v>487644</v>
+        <v>491819</v>
       </c>
       <c r="AH43" s="11">
-        <v>491819</v>
+        <v>494117</v>
       </c>
       <c r="AI43" s="11">
-        <v>494117</v>
+        <v>623424</v>
       </c>
       <c r="AJ43" s="11">
-        <v>623424</v>
+        <v>841197</v>
       </c>
       <c r="AK43" s="11">
-        <v>841197</v>
+        <v>839417</v>
       </c>
       <c r="AL43" s="11">
-        <v>839417</v>
+        <v>611912</v>
       </c>
       <c r="AM43" s="11">
-        <v>611912</v>
+        <v>732879</v>
       </c>
       <c r="AN43" s="11">
-        <v>732879</v>
+        <v>639877</v>
       </c>
       <c r="AO43" s="11">
-        <v>639877</v>
+        <v>620503</v>
       </c>
       <c r="AP43" s="11">
-        <v>620503</v>
+        <v>628115</v>
       </c>
       <c r="AQ43" s="11">
-        <v>628115</v>
+        <v>566964</v>
       </c>
       <c r="AR43" s="11">
-        <v>566964</v>
+        <v>712736</v>
       </c>
       <c r="AS43" s="11">
-        <v>712736</v>
+        <v>639041</v>
       </c>
       <c r="AT43" s="11">
-        <v>639041</v>
+        <v>744541</v>
       </c>
       <c r="AU43" s="11">
-        <v>744541</v>
+        <v>965683</v>
       </c>
       <c r="AV43" s="11">
-        <v>965683</v>
+        <v>1442823</v>
       </c>
       <c r="AW43" s="11">
-        <v>1442823</v>
+        <v>1200159</v>
       </c>
       <c r="AX43" s="11">
-        <v>1200159</v>
+        <v>1285313</v>
       </c>
       <c r="AY43" s="11">
-        <v>1285313</v>
+        <v>1291895</v>
       </c>
       <c r="AZ43" s="11">
-        <v>1291895</v>
+        <v>1246502</v>
       </c>
       <c r="BA43" s="11">
-        <v>1246502</v>
+        <v>914363</v>
       </c>
       <c r="BB43" s="11">
-        <v>914363</v>
+        <v>914614</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5297,94 +5297,94 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>11033</v>
+        <v>8179</v>
       </c>
       <c r="F44" s="13">
-        <v>8179</v>
+        <v>5477</v>
       </c>
       <c r="G44" s="13">
-        <v>5477</v>
+        <v>6424</v>
       </c>
       <c r="H44" s="13">
-        <v>6424</v>
+        <v>8188</v>
       </c>
       <c r="I44" s="13">
-        <v>8188</v>
+        <v>10834</v>
       </c>
       <c r="J44" s="13">
-        <v>10834</v>
+        <v>1285</v>
       </c>
       <c r="K44" s="13">
-        <v>1285</v>
+        <v>24197</v>
       </c>
       <c r="L44" s="13">
-        <v>24197</v>
+        <v>5605</v>
       </c>
       <c r="M44" s="13">
-        <v>5605</v>
+        <v>14128</v>
       </c>
       <c r="N44" s="13">
-        <v>14128</v>
+        <v>14602</v>
       </c>
       <c r="O44" s="13">
-        <v>14602</v>
+        <v>10598</v>
       </c>
       <c r="P44" s="13">
-        <v>10598</v>
+        <v>12043</v>
       </c>
       <c r="Q44" s="13">
-        <v>12043</v>
+        <v>9105</v>
       </c>
       <c r="R44" s="13">
-        <v>9105</v>
+        <v>21589</v>
       </c>
       <c r="S44" s="13">
-        <v>21589</v>
+        <v>14839</v>
       </c>
       <c r="T44" s="13">
-        <v>14839</v>
+        <v>5556</v>
       </c>
       <c r="U44" s="13">
-        <v>5556</v>
+        <v>11966</v>
       </c>
       <c r="V44" s="13">
-        <v>11966</v>
+        <v>8888</v>
       </c>
       <c r="W44" s="13">
-        <v>8888</v>
+        <v>23327</v>
       </c>
       <c r="X44" s="13">
-        <v>23327</v>
+        <v>18354</v>
       </c>
       <c r="Y44" s="13">
-        <v>18354</v>
+        <v>33000</v>
       </c>
       <c r="Z44" s="13">
-        <v>33000</v>
+        <v>24698</v>
       </c>
       <c r="AA44" s="13">
-        <v>24698</v>
+        <v>22632</v>
       </c>
       <c r="AB44" s="13">
-        <v>22632</v>
+        <v>34146</v>
       </c>
       <c r="AC44" s="13">
-        <v>34146</v>
+        <v>27973</v>
       </c>
       <c r="AD44" s="13">
-        <v>27973</v>
+        <v>32017</v>
       </c>
       <c r="AE44" s="13">
-        <v>32017</v>
+        <v>29834</v>
       </c>
       <c r="AF44" s="13">
-        <v>29834</v>
+        <v>26238</v>
       </c>
       <c r="AG44" s="13">
-        <v>26238</v>
+        <v>39047</v>
       </c>
       <c r="AH44" s="13">
-        <v>39047</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="13">
         <v>0</v>
@@ -5414,13 +5414,13 @@
         <v>0</v>
       </c>
       <c r="AR44" s="13">
-        <v>0</v>
+        <v>560917</v>
       </c>
       <c r="AS44" s="13">
-        <v>560917</v>
-      </c>
-      <c r="AT44" s="13">
         <v>47148</v>
+      </c>
+      <c r="AT44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU44" s="13" t="s">
         <v>58</v>
@@ -5456,154 +5456,154 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>65987</v>
+        <v>60112</v>
       </c>
       <c r="F45" s="11">
-        <v>60112</v>
+        <v>58724</v>
       </c>
       <c r="G45" s="11">
-        <v>58724</v>
+        <v>56393</v>
       </c>
       <c r="H45" s="11">
-        <v>56393</v>
+        <v>121770</v>
       </c>
       <c r="I45" s="11">
-        <v>121770</v>
+        <v>83772</v>
       </c>
       <c r="J45" s="11">
-        <v>83772</v>
+        <v>37176</v>
       </c>
       <c r="K45" s="11">
-        <v>37176</v>
+        <v>51597</v>
       </c>
       <c r="L45" s="11">
-        <v>51597</v>
+        <v>70146</v>
       </c>
       <c r="M45" s="11">
-        <v>70146</v>
+        <v>83985</v>
       </c>
       <c r="N45" s="11">
-        <v>83985</v>
+        <v>51589</v>
       </c>
       <c r="O45" s="11">
-        <v>51589</v>
+        <v>73478</v>
       </c>
       <c r="P45" s="11">
-        <v>73478</v>
+        <v>82483</v>
       </c>
       <c r="Q45" s="11">
-        <v>82483</v>
+        <v>85384</v>
       </c>
       <c r="R45" s="11">
-        <v>85384</v>
+        <v>57397</v>
       </c>
       <c r="S45" s="11">
-        <v>57397</v>
+        <v>111068</v>
       </c>
       <c r="T45" s="11">
-        <v>111068</v>
+        <v>115463</v>
       </c>
       <c r="U45" s="11">
-        <v>115463</v>
+        <v>54480</v>
       </c>
       <c r="V45" s="11">
-        <v>54480</v>
+        <v>52505</v>
       </c>
       <c r="W45" s="11">
-        <v>52505</v>
+        <v>65563</v>
       </c>
       <c r="X45" s="11">
-        <v>65563</v>
+        <v>97042</v>
       </c>
       <c r="Y45" s="11">
-        <v>97042</v>
+        <v>145452</v>
       </c>
       <c r="Z45" s="11">
-        <v>145452</v>
+        <v>138377</v>
       </c>
       <c r="AA45" s="11">
-        <v>138377</v>
+        <v>177321</v>
       </c>
       <c r="AB45" s="11">
-        <v>177321</v>
+        <v>98639</v>
       </c>
       <c r="AC45" s="11">
-        <v>98639</v>
+        <v>170127</v>
       </c>
       <c r="AD45" s="11">
-        <v>170127</v>
+        <v>102130</v>
       </c>
       <c r="AE45" s="11">
-        <v>102130</v>
+        <v>127383</v>
       </c>
       <c r="AF45" s="11">
-        <v>127383</v>
+        <v>131257</v>
       </c>
       <c r="AG45" s="11">
-        <v>131257</v>
+        <v>146407</v>
       </c>
       <c r="AH45" s="11">
-        <v>146407</v>
+        <v>139031</v>
       </c>
       <c r="AI45" s="11">
-        <v>139031</v>
+        <v>195810</v>
       </c>
       <c r="AJ45" s="11">
-        <v>195810</v>
+        <v>220573</v>
       </c>
       <c r="AK45" s="11">
-        <v>220573</v>
+        <v>137294</v>
       </c>
       <c r="AL45" s="11">
-        <v>137294</v>
+        <v>228423</v>
       </c>
       <c r="AM45" s="11">
-        <v>228423</v>
+        <v>251605</v>
       </c>
       <c r="AN45" s="11">
-        <v>251605</v>
+        <v>228593</v>
       </c>
       <c r="AO45" s="11">
-        <v>228593</v>
+        <v>187794</v>
       </c>
       <c r="AP45" s="11">
-        <v>187794</v>
+        <v>197243</v>
       </c>
       <c r="AQ45" s="11">
-        <v>197243</v>
+        <v>169773</v>
       </c>
       <c r="AR45" s="11">
-        <v>169773</v>
+        <v>50395</v>
       </c>
       <c r="AS45" s="11">
-        <v>50395</v>
+        <v>113190</v>
       </c>
       <c r="AT45" s="11">
-        <v>113190</v>
+        <v>164766</v>
       </c>
       <c r="AU45" s="11">
-        <v>164766</v>
+        <v>183635</v>
       </c>
       <c r="AV45" s="11">
-        <v>183635</v>
+        <v>217455</v>
       </c>
       <c r="AW45" s="11">
-        <v>217455</v>
+        <v>180287</v>
       </c>
       <c r="AX45" s="11">
-        <v>180287</v>
+        <v>188122</v>
       </c>
       <c r="AY45" s="11">
-        <v>188122</v>
+        <v>188906</v>
       </c>
       <c r="AZ45" s="11">
-        <v>188906</v>
+        <v>285662</v>
       </c>
       <c r="BA45" s="11">
-        <v>285662</v>
+        <v>139121</v>
       </c>
       <c r="BB45" s="11">
-        <v>139121</v>
+        <v>121988</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -5701,68 +5701,68 @@
       <c r="AG46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH46" s="13" t="s">
-        <v>58</v>
+      <c r="AH46" s="13">
+        <v>26245</v>
       </c>
       <c r="AI46" s="13">
-        <v>26245</v>
+        <v>61856</v>
       </c>
       <c r="AJ46" s="13">
-        <v>61856</v>
+        <v>67802</v>
       </c>
       <c r="AK46" s="13">
-        <v>67802</v>
+        <v>61484</v>
       </c>
       <c r="AL46" s="13">
-        <v>61484</v>
+        <v>59403</v>
       </c>
       <c r="AM46" s="13">
-        <v>59403</v>
+        <v>64199</v>
       </c>
       <c r="AN46" s="13">
-        <v>64199</v>
+        <v>37627</v>
       </c>
       <c r="AO46" s="13">
-        <v>37627</v>
+        <v>56308</v>
       </c>
       <c r="AP46" s="13">
-        <v>56308</v>
+        <v>44349</v>
       </c>
       <c r="AQ46" s="13">
-        <v>44349</v>
-      </c>
-      <c r="AR46" s="13">
         <v>33883</v>
       </c>
+      <c r="AR46" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT46" s="13" t="s">
-        <v>58</v>
+      <c r="AT46" s="13">
+        <v>55545</v>
       </c>
       <c r="AU46" s="13">
-        <v>55545</v>
+        <v>55612</v>
       </c>
       <c r="AV46" s="13">
-        <v>55612</v>
+        <v>81400</v>
       </c>
       <c r="AW46" s="13">
-        <v>81400</v>
+        <v>62593</v>
       </c>
       <c r="AX46" s="13">
-        <v>62593</v>
+        <v>59882</v>
       </c>
       <c r="AY46" s="13">
-        <v>59882</v>
+        <v>66870</v>
       </c>
       <c r="AZ46" s="13">
-        <v>66870</v>
+        <v>11365</v>
       </c>
       <c r="BA46" s="13">
-        <v>11365</v>
+        <v>124274</v>
       </c>
       <c r="BB46" s="13">
-        <v>124274</v>
+        <v>93404</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5890,8 +5890,8 @@
       <c r="X48" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y48" s="17" t="s">
-        <v>58</v>
+      <c r="Y48" s="17">
+        <v>0</v>
       </c>
       <c r="Z48" s="17">
         <v>0</v>
@@ -6112,11 +6112,11 @@
       <c r="Z50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA50" s="11" t="s">
-        <v>58</v>
+      <c r="AA50" s="11">
+        <v>-537</v>
       </c>
       <c r="AB50" s="11">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="11">
         <v>0</v>
@@ -6125,28 +6125,28 @@
         <v>0</v>
       </c>
       <c r="AE50" s="11">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AF50" s="11">
-        <v>-48</v>
+        <v>-32</v>
       </c>
       <c r="AG50" s="11">
-        <v>-32</v>
-      </c>
-      <c r="AH50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AH50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI50" s="11">
+        <v>-534</v>
       </c>
       <c r="AJ50" s="11">
-        <v>-534</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="11">
-        <v>0</v>
+        <v>-480</v>
       </c>
       <c r="AL50" s="11">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="11">
         <v>0</v>
@@ -6164,31 +6164,31 @@
         <v>0</v>
       </c>
       <c r="AR50" s="11">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AS50" s="11">
-        <v>-11</v>
-      </c>
-      <c r="AT50" s="11">
         <v>-18919</v>
       </c>
-      <c r="AU50" s="11" t="s">
-        <v>58</v>
+      <c r="AT50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU50" s="11">
+        <v>0</v>
       </c>
       <c r="AV50" s="11">
         <v>0</v>
       </c>
       <c r="AW50" s="11">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AX50" s="11">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AY50" s="11">
-        <v>0</v>
+        <v>-232282</v>
       </c>
       <c r="AZ50" s="11">
-        <v>-232282</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="11">
         <v>0</v>
@@ -6301,11 +6301,11 @@
       <c r="AJ51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK51" s="13" t="s">
-        <v>58</v>
+      <c r="AK51" s="13">
+        <v>-9</v>
       </c>
       <c r="AL51" s="13">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="13">
         <v>0</v>
@@ -6328,8 +6328,8 @@
       <c r="AS51" s="13">
         <v>0</v>
       </c>
-      <c r="AT51" s="13">
-        <v>0</v>
+      <c r="AT51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU51" s="13" t="s">
         <v>58</v>
@@ -6466,11 +6466,11 @@
       <c r="AL52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM52" s="11" t="s">
-        <v>58</v>
+      <c r="AM52" s="11">
+        <v>-228</v>
       </c>
       <c r="AN52" s="11">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AO52" s="11">
         <v>0</v>
@@ -6485,28 +6485,28 @@
         <v>0</v>
       </c>
       <c r="AS52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT52" s="11">
         <v>-8665</v>
       </c>
+      <c r="AT52" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU52" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AV52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW52" s="11" t="s">
-        <v>58</v>
+      <c r="AW52" s="11">
+        <v>-1</v>
       </c>
       <c r="AX52" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="11">
-        <v>0</v>
+        <v>-46804</v>
       </c>
       <c r="AZ52" s="11">
-        <v>-46804</v>
+        <v>0</v>
       </c>
       <c r="BA52" s="11">
         <v>0</v>
@@ -6655,11 +6655,11 @@
       <c r="AV53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW53" s="13" t="s">
-        <v>58</v>
+      <c r="AW53" s="13">
+        <v>-10250</v>
       </c>
       <c r="AX53" s="13">
-        <v>-10250</v>
+        <v>0</v>
       </c>
       <c r="AY53" s="13">
         <v>0</v>
@@ -6742,17 +6742,17 @@
       <c r="X54" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="17" t="s">
-        <v>58</v>
+      <c r="Y54" s="17">
+        <v>0</v>
       </c>
       <c r="Z54" s="17">
         <v>0</v>
       </c>
       <c r="AA54" s="17">
-        <v>0</v>
+        <v>-537</v>
       </c>
       <c r="AB54" s="17">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="17">
         <v>0</v>
@@ -6761,34 +6761,34 @@
         <v>0</v>
       </c>
       <c r="AE54" s="17">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AF54" s="17">
-        <v>-48</v>
+        <v>-32</v>
       </c>
       <c r="AG54" s="17">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AH54" s="17">
         <v>0</v>
       </c>
       <c r="AI54" s="17">
-        <v>0</v>
+        <v>-534</v>
       </c>
       <c r="AJ54" s="17">
-        <v>-534</v>
+        <v>0</v>
       </c>
       <c r="AK54" s="17">
-        <v>0</v>
+        <v>-489</v>
       </c>
       <c r="AL54" s="17">
-        <v>-489</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="17">
-        <v>0</v>
+        <v>-228</v>
       </c>
       <c r="AN54" s="17">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="17">
         <v>0</v>
@@ -6800,13 +6800,13 @@
         <v>0</v>
       </c>
       <c r="AR54" s="17">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AS54" s="17">
-        <v>-11</v>
+        <v>-27584</v>
       </c>
       <c r="AT54" s="17">
-        <v>-27584</v>
+        <v>0</v>
       </c>
       <c r="AU54" s="17">
         <v>0</v>
@@ -6815,16 +6815,16 @@
         <v>0</v>
       </c>
       <c r="AW54" s="17">
-        <v>0</v>
+        <v>-10259</v>
       </c>
       <c r="AX54" s="17">
-        <v>-10259</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="17">
-        <v>0</v>
+        <v>-279086</v>
       </c>
       <c r="AZ54" s="17">
-        <v>-279086</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="17">
         <v>0</v>
@@ -6958,17 +6958,17 @@
       <c r="X56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="11" t="s">
-        <v>58</v>
+      <c r="Y56" s="11">
+        <v>-643</v>
       </c>
       <c r="Z56" s="11">
-        <v>-643</v>
+        <v>-325</v>
       </c>
       <c r="AA56" s="11">
-        <v>-325</v>
+        <v>-3860</v>
       </c>
       <c r="AB56" s="11">
-        <v>-3860</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="11">
         <v>0</v>
@@ -6977,67 +6977,67 @@
         <v>0</v>
       </c>
       <c r="AE56" s="11">
-        <v>0</v>
+        <v>-455</v>
       </c>
       <c r="AF56" s="11">
-        <v>-455</v>
+        <v>-472</v>
       </c>
       <c r="AG56" s="11">
-        <v>-472</v>
+        <v>-259</v>
       </c>
       <c r="AH56" s="11">
-        <v>-259</v>
+        <v>-6</v>
       </c>
       <c r="AI56" s="11">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="11">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="AK56" s="11">
-        <v>-47</v>
+        <v>-58</v>
       </c>
       <c r="AL56" s="11">
-        <v>-58</v>
+        <v>-7683</v>
       </c>
       <c r="AM56" s="11">
-        <v>-7683</v>
+        <v>-8058</v>
       </c>
       <c r="AN56" s="11">
-        <v>-8058</v>
+        <v>-8049</v>
       </c>
       <c r="AO56" s="11">
-        <v>-8049</v>
+        <v>-8065</v>
       </c>
       <c r="AP56" s="11">
-        <v>-8065</v>
+        <v>-7978</v>
       </c>
       <c r="AQ56" s="11">
-        <v>-7978</v>
+        <v>-31864</v>
       </c>
       <c r="AR56" s="11">
-        <v>-31864</v>
+        <v>-22230</v>
       </c>
       <c r="AS56" s="11">
-        <v>-22230</v>
+        <v>-22531</v>
       </c>
       <c r="AT56" s="11">
-        <v>-22531</v>
+        <v>-56</v>
       </c>
       <c r="AU56" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AV56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX56" s="11">
         <v>-56</v>
       </c>
-      <c r="AV56" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AW56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX56" s="11">
-        <v>0</v>
-      </c>
       <c r="AY56" s="11">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="AZ56" s="11">
         <v>0</v>
@@ -7056,154 +7056,154 @@
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19">
-        <v>202086</v>
+        <v>158030</v>
       </c>
       <c r="F57" s="19">
-        <v>158030</v>
+        <v>169082</v>
       </c>
       <c r="G57" s="19">
-        <v>169082</v>
+        <v>240873</v>
       </c>
       <c r="H57" s="19">
-        <v>240873</v>
+        <v>314485</v>
       </c>
       <c r="I57" s="19">
-        <v>314485</v>
+        <v>277812</v>
       </c>
       <c r="J57" s="19">
-        <v>277812</v>
+        <v>121607</v>
       </c>
       <c r="K57" s="19">
-        <v>121607</v>
+        <v>294190</v>
       </c>
       <c r="L57" s="19">
-        <v>294190</v>
+        <v>284345</v>
       </c>
       <c r="M57" s="19">
-        <v>284345</v>
+        <v>410017</v>
       </c>
       <c r="N57" s="19">
-        <v>410017</v>
+        <v>281411</v>
       </c>
       <c r="O57" s="19">
-        <v>281411</v>
+        <v>278685</v>
       </c>
       <c r="P57" s="19">
-        <v>278685</v>
+        <v>323941</v>
       </c>
       <c r="Q57" s="19">
-        <v>323941</v>
+        <v>249587</v>
       </c>
       <c r="R57" s="19">
-        <v>249587</v>
+        <v>394391</v>
       </c>
       <c r="S57" s="19">
-        <v>394391</v>
+        <v>384070</v>
       </c>
       <c r="T57" s="19">
-        <v>384070</v>
+        <v>393950</v>
       </c>
       <c r="U57" s="19">
-        <v>393950</v>
+        <v>374940</v>
       </c>
       <c r="V57" s="19">
-        <v>374940</v>
+        <v>203554</v>
       </c>
       <c r="W57" s="19">
-        <v>203554</v>
+        <v>452355</v>
       </c>
       <c r="X57" s="19">
-        <v>452355</v>
+        <v>485122</v>
       </c>
       <c r="Y57" s="19">
-        <v>485122</v>
+        <v>616839</v>
       </c>
       <c r="Z57" s="19">
-        <v>616839</v>
+        <v>756933</v>
       </c>
       <c r="AA57" s="19">
-        <v>756933</v>
+        <v>803323</v>
       </c>
       <c r="AB57" s="19">
-        <v>803323</v>
+        <v>551563</v>
       </c>
       <c r="AC57" s="19">
-        <v>551563</v>
+        <v>719688</v>
       </c>
       <c r="AD57" s="19">
-        <v>719688</v>
+        <v>554906</v>
       </c>
       <c r="AE57" s="19">
-        <v>554906</v>
+        <v>664563</v>
       </c>
       <c r="AF57" s="19">
-        <v>664563</v>
+        <v>644635</v>
       </c>
       <c r="AG57" s="19">
-        <v>644635</v>
+        <v>677014</v>
       </c>
       <c r="AH57" s="19">
-        <v>677014</v>
+        <v>659387</v>
       </c>
       <c r="AI57" s="19">
-        <v>659387</v>
+        <v>880556</v>
       </c>
       <c r="AJ57" s="19">
-        <v>880556</v>
+        <v>1129525</v>
       </c>
       <c r="AK57" s="19">
-        <v>1129525</v>
+        <v>1037648</v>
       </c>
       <c r="AL57" s="19">
-        <v>1037648</v>
+        <v>892055</v>
       </c>
       <c r="AM57" s="19">
-        <v>892055</v>
+        <v>1040397</v>
       </c>
       <c r="AN57" s="19">
-        <v>1040397</v>
+        <v>898048</v>
       </c>
       <c r="AO57" s="19">
-        <v>898048</v>
+        <v>856540</v>
       </c>
       <c r="AP57" s="19">
-        <v>856540</v>
+        <v>861729</v>
       </c>
       <c r="AQ57" s="19">
-        <v>861729</v>
+        <v>738756</v>
       </c>
       <c r="AR57" s="19">
-        <v>738756</v>
+        <v>1301807</v>
       </c>
       <c r="AS57" s="19">
-        <v>1301807</v>
+        <v>749264</v>
       </c>
       <c r="AT57" s="19">
-        <v>749264</v>
+        <v>964796</v>
       </c>
       <c r="AU57" s="19">
-        <v>964796</v>
+        <v>1204929</v>
       </c>
       <c r="AV57" s="19">
-        <v>1204929</v>
+        <v>1741678</v>
       </c>
       <c r="AW57" s="19">
-        <v>1741678</v>
+        <v>1432780</v>
       </c>
       <c r="AX57" s="19">
-        <v>1432780</v>
+        <v>1533261</v>
       </c>
       <c r="AY57" s="19">
-        <v>1533261</v>
+        <v>1268585</v>
       </c>
       <c r="AZ57" s="19">
-        <v>1268585</v>
+        <v>1543529</v>
       </c>
       <c r="BA57" s="19">
-        <v>1543529</v>
+        <v>1177758</v>
       </c>
       <c r="BB57" s="19">
-        <v>1177758</v>
+        <v>1130006</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7649,154 +7649,154 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>202159</v>
+        <v>201814</v>
       </c>
       <c r="F64" s="11">
-        <v>201814</v>
+        <v>202339</v>
       </c>
       <c r="G64" s="11">
-        <v>202339</v>
+        <v>202306</v>
       </c>
       <c r="H64" s="11">
-        <v>202306</v>
+        <v>202795</v>
       </c>
       <c r="I64" s="11">
-        <v>202795</v>
+        <v>200477</v>
       </c>
       <c r="J64" s="11">
-        <v>200477</v>
+        <v>216242</v>
       </c>
       <c r="K64" s="11">
-        <v>216242</v>
+        <v>241388</v>
       </c>
       <c r="L64" s="11">
-        <v>241388</v>
+        <v>247472</v>
       </c>
       <c r="M64" s="11">
-        <v>247472</v>
+        <v>268167</v>
       </c>
       <c r="N64" s="11">
-        <v>268167</v>
+        <v>271265</v>
       </c>
       <c r="O64" s="11">
-        <v>271265</v>
+        <v>267164</v>
       </c>
       <c r="P64" s="11">
-        <v>267164</v>
+        <v>267761</v>
       </c>
       <c r="Q64" s="11">
-        <v>267761</v>
+        <v>277161</v>
       </c>
       <c r="R64" s="11">
-        <v>277161</v>
+        <v>275617</v>
       </c>
       <c r="S64" s="11">
-        <v>275617</v>
+        <v>279100</v>
       </c>
       <c r="T64" s="11">
-        <v>279100</v>
+        <v>281438</v>
       </c>
       <c r="U64" s="11">
-        <v>281438</v>
+        <v>267416</v>
       </c>
       <c r="V64" s="11">
-        <v>267416</v>
+        <v>271969</v>
       </c>
       <c r="W64" s="11">
-        <v>271969</v>
+        <v>301869</v>
       </c>
       <c r="X64" s="11">
-        <v>301869</v>
+        <v>328951</v>
       </c>
       <c r="Y64" s="11">
-        <v>328951</v>
+        <v>378193</v>
       </c>
       <c r="Z64" s="11">
-        <v>378193</v>
+        <v>434309</v>
       </c>
       <c r="AA64" s="11">
-        <v>434309</v>
+        <v>439597</v>
       </c>
       <c r="AB64" s="11">
-        <v>439597</v>
+        <v>486239</v>
       </c>
       <c r="AC64" s="11">
-        <v>486239</v>
+        <v>497773</v>
       </c>
       <c r="AD64" s="11">
-        <v>497773</v>
+        <v>481886</v>
       </c>
       <c r="AE64" s="11">
-        <v>481886</v>
+        <v>505399</v>
       </c>
       <c r="AF64" s="11">
-        <v>505399</v>
+        <v>488905</v>
       </c>
       <c r="AG64" s="11">
-        <v>488905</v>
+        <v>499485</v>
       </c>
       <c r="AH64" s="11">
-        <v>499485</v>
+        <v>532171</v>
       </c>
       <c r="AI64" s="11">
-        <v>532171</v>
+        <v>520401</v>
       </c>
       <c r="AJ64" s="11">
-        <v>520401</v>
+        <v>543709</v>
       </c>
       <c r="AK64" s="11">
-        <v>543709</v>
+        <v>573423</v>
       </c>
       <c r="AL64" s="11">
-        <v>573423</v>
+        <v>609384</v>
       </c>
       <c r="AM64" s="11">
-        <v>609384</v>
+        <v>631952</v>
       </c>
       <c r="AN64" s="11">
-        <v>631952</v>
+        <v>629855</v>
       </c>
       <c r="AO64" s="11">
-        <v>629855</v>
+        <v>675583</v>
       </c>
       <c r="AP64" s="11">
-        <v>675583</v>
+        <v>727495</v>
       </c>
       <c r="AQ64" s="11">
-        <v>727495</v>
+        <v>755698</v>
       </c>
       <c r="AR64" s="11">
-        <v>755698</v>
+        <v>731074</v>
       </c>
       <c r="AS64" s="11">
-        <v>731074</v>
+        <v>639915</v>
       </c>
       <c r="AT64" s="11">
-        <v>639915</v>
+        <v>700566</v>
       </c>
       <c r="AU64" s="11">
-        <v>700566</v>
+        <v>906529</v>
       </c>
       <c r="AV64" s="11">
-        <v>906529</v>
+        <v>863517</v>
       </c>
       <c r="AW64" s="11">
-        <v>863517</v>
+        <v>903290</v>
       </c>
       <c r="AX64" s="11">
-        <v>903290</v>
+        <v>894850</v>
       </c>
       <c r="AY64" s="11">
-        <v>894850</v>
+        <v>927104</v>
       </c>
       <c r="AZ64" s="11">
-        <v>927104</v>
+        <v>885284</v>
       </c>
       <c r="BA64" s="11">
-        <v>885284</v>
+        <v>988528</v>
       </c>
       <c r="BB64" s="11">
-        <v>988528</v>
+        <v>1067728</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -7808,95 +7808,95 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>148339</v>
+        <v>157319</v>
       </c>
       <c r="F65" s="13">
-        <v>157319</v>
+        <v>164836</v>
       </c>
       <c r="G65" s="13">
-        <v>164836</v>
+        <v>163502</v>
       </c>
       <c r="H65" s="13">
-        <v>163502</v>
+        <v>165411</v>
       </c>
       <c r="I65" s="13">
-        <v>165411</v>
+        <v>314613</v>
       </c>
       <c r="J65" s="13">
-        <v>314613</v>
+        <v>204781</v>
       </c>
       <c r="K65" s="13">
-        <v>204781</v>
+        <v>159213</v>
       </c>
       <c r="L65" s="13">
-        <v>159213</v>
+        <v>259840</v>
       </c>
       <c r="M65" s="13">
-        <v>259840</v>
+        <v>220210</v>
       </c>
       <c r="N65" s="13">
-        <v>220210</v>
+        <v>224646</v>
       </c>
       <c r="O65" s="13">
-        <v>224646</v>
+        <v>214769</v>
       </c>
       <c r="P65" s="13">
-        <v>214769</v>
+        <v>229356</v>
       </c>
       <c r="Q65" s="13">
-        <v>229356</v>
+        <v>222954</v>
       </c>
       <c r="R65" s="13">
-        <v>222954</v>
+        <v>233506</v>
       </c>
       <c r="S65" s="13">
-        <v>233506</v>
+        <v>238339</v>
       </c>
       <c r="T65" s="13">
-        <v>238339</v>
+        <v>216718</v>
       </c>
       <c r="U65" s="13">
-        <v>216718</v>
+        <v>213591</v>
       </c>
       <c r="V65" s="13">
-        <v>213591</v>
+        <v>215535</v>
       </c>
       <c r="W65" s="13">
-        <v>215535</v>
+        <v>242542</v>
       </c>
       <c r="X65" s="13">
-        <v>242542</v>
+        <v>247662</v>
       </c>
       <c r="Y65" s="13">
-        <v>247662</v>
+        <v>270763</v>
       </c>
       <c r="Z65" s="13">
-        <v>270763</v>
+        <v>288491</v>
       </c>
       <c r="AA65" s="13">
-        <v>288491</v>
+        <v>287113</v>
       </c>
       <c r="AB65" s="13">
-        <v>287113</v>
+        <v>319836</v>
       </c>
       <c r="AC65" s="13">
-        <v>319836</v>
+        <v>327204</v>
       </c>
       <c r="AD65" s="13">
-        <v>327204</v>
+        <v>327118</v>
       </c>
       <c r="AE65" s="13">
-        <v>327118</v>
+        <v>319032</v>
       </c>
       <c r="AF65" s="13">
-        <v>319032</v>
+        <v>310413</v>
       </c>
       <c r="AG65" s="13">
-        <v>310413</v>
-      </c>
-      <c r="AH65" s="13">
         <v>346816</v>
       </c>
+      <c r="AH65" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI65" s="13" t="s">
         <v>58</v>
       </c>
@@ -7924,14 +7924,14 @@
       <c r="AQ65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR65" s="13" t="s">
-        <v>58</v>
+      <c r="AR65" s="13">
+        <v>561452</v>
       </c>
       <c r="AS65" s="13">
-        <v>561452</v>
-      </c>
-      <c r="AT65" s="13">
         <v>548041</v>
+      </c>
+      <c r="AT65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU65" s="13" t="s">
         <v>58</v>
@@ -7967,154 +7967,154 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>265931</v>
+        <v>261608</v>
       </c>
       <c r="F66" s="11">
-        <v>261608</v>
+        <v>271771</v>
       </c>
       <c r="G66" s="11">
-        <v>271771</v>
+        <v>270812</v>
       </c>
       <c r="H66" s="11">
-        <v>270812</v>
+        <v>286192</v>
       </c>
       <c r="I66" s="11">
-        <v>286192</v>
+        <v>280936</v>
       </c>
       <c r="J66" s="11">
-        <v>280936</v>
+        <v>296235</v>
       </c>
       <c r="K66" s="11">
-        <v>296235</v>
+        <v>339365</v>
       </c>
       <c r="L66" s="11">
-        <v>339365</v>
+        <v>394544</v>
       </c>
       <c r="M66" s="11">
-        <v>394544</v>
+        <v>387076</v>
       </c>
       <c r="N66" s="11">
-        <v>387076</v>
+        <v>402125</v>
       </c>
       <c r="O66" s="11">
-        <v>402125</v>
+        <v>383986</v>
       </c>
       <c r="P66" s="11">
-        <v>383986</v>
+        <v>376423</v>
       </c>
       <c r="Q66" s="11">
-        <v>376423</v>
+        <v>388035</v>
       </c>
       <c r="R66" s="11">
-        <v>388035</v>
+        <v>373975</v>
       </c>
       <c r="S66" s="11">
-        <v>373975</v>
+        <v>378039</v>
       </c>
       <c r="T66" s="11">
-        <v>378039</v>
+        <v>377893</v>
       </c>
       <c r="U66" s="11">
-        <v>377893</v>
+        <v>334229</v>
       </c>
       <c r="V66" s="11">
-        <v>334229</v>
+        <v>382910</v>
       </c>
       <c r="W66" s="11">
-        <v>382910</v>
+        <v>448254</v>
       </c>
       <c r="X66" s="11">
-        <v>448254</v>
+        <v>463655</v>
       </c>
       <c r="Y66" s="11">
-        <v>463655</v>
+        <v>493467</v>
       </c>
       <c r="Z66" s="11">
-        <v>493467</v>
+        <v>578475</v>
       </c>
       <c r="AA66" s="11">
-        <v>578475</v>
+        <v>540338</v>
       </c>
       <c r="AB66" s="11">
-        <v>540338</v>
+        <v>672725</v>
       </c>
       <c r="AC66" s="11">
-        <v>672725</v>
+        <v>633604</v>
       </c>
       <c r="AD66" s="11">
-        <v>633604</v>
+        <v>613755</v>
       </c>
       <c r="AE66" s="11">
-        <v>613755</v>
+        <v>662043</v>
       </c>
       <c r="AF66" s="11">
-        <v>662043</v>
+        <v>616242</v>
       </c>
       <c r="AG66" s="11">
-        <v>616242</v>
+        <v>616041</v>
       </c>
       <c r="AH66" s="11">
-        <v>616041</v>
+        <v>663734</v>
       </c>
       <c r="AI66" s="11">
-        <v>663734</v>
+        <v>594488</v>
       </c>
       <c r="AJ66" s="11">
-        <v>594488</v>
+        <v>698000</v>
       </c>
       <c r="AK66" s="11">
-        <v>698000</v>
+        <v>860206</v>
       </c>
       <c r="AL66" s="11">
-        <v>860206</v>
+        <v>816021</v>
       </c>
       <c r="AM66" s="11">
-        <v>816021</v>
+        <v>776470</v>
       </c>
       <c r="AN66" s="11">
-        <v>776470</v>
+        <v>757588</v>
       </c>
       <c r="AO66" s="11">
-        <v>757588</v>
+        <v>850551</v>
       </c>
       <c r="AP66" s="11">
-        <v>850551</v>
+        <v>826561</v>
       </c>
       <c r="AQ66" s="11">
-        <v>826561</v>
+        <v>884557</v>
       </c>
       <c r="AR66" s="11">
-        <v>884557</v>
+        <v>856141</v>
       </c>
       <c r="AS66" s="11">
-        <v>856141</v>
+        <v>625003</v>
       </c>
       <c r="AT66" s="11">
-        <v>625003</v>
+        <v>869790</v>
       </c>
       <c r="AU66" s="11">
-        <v>869790</v>
+        <v>929586</v>
       </c>
       <c r="AV66" s="11">
-        <v>929586</v>
+        <v>919071</v>
       </c>
       <c r="AW66" s="11">
-        <v>919071</v>
+        <v>954329</v>
       </c>
       <c r="AX66" s="11">
-        <v>954329</v>
+        <v>903924</v>
       </c>
       <c r="AY66" s="11">
-        <v>903924</v>
+        <v>884371</v>
       </c>
       <c r="AZ66" s="11">
-        <v>884371</v>
+        <v>954172</v>
       </c>
       <c r="BA66" s="11">
-        <v>954172</v>
+        <v>1083556</v>
       </c>
       <c r="BB66" s="11">
-        <v>1083556</v>
+        <v>1108952</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8212,68 +8212,68 @@
       <c r="AG67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH67" s="13" t="s">
-        <v>58</v>
+      <c r="AH67" s="13">
+        <v>385440</v>
       </c>
       <c r="AI67" s="13">
-        <v>385440</v>
+        <v>484419</v>
       </c>
       <c r="AJ67" s="13">
-        <v>484419</v>
+        <v>483082</v>
       </c>
       <c r="AK67" s="13">
-        <v>483082</v>
+        <v>496419</v>
       </c>
       <c r="AL67" s="13">
-        <v>496419</v>
+        <v>517813</v>
       </c>
       <c r="AM67" s="13">
-        <v>517813</v>
+        <v>540050</v>
       </c>
       <c r="AN67" s="13">
-        <v>540050</v>
+        <v>567466</v>
       </c>
       <c r="AO67" s="13">
-        <v>567466</v>
+        <v>557958</v>
       </c>
       <c r="AP67" s="13">
-        <v>557958</v>
+        <v>544093</v>
       </c>
       <c r="AQ67" s="13">
-        <v>544093</v>
-      </c>
-      <c r="AR67" s="13">
         <v>567478</v>
       </c>
+      <c r="AR67" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT67" s="13" t="s">
-        <v>58</v>
+      <c r="AT67" s="13">
+        <v>555978</v>
       </c>
       <c r="AU67" s="13">
-        <v>555978</v>
+        <v>623572</v>
       </c>
       <c r="AV67" s="13">
-        <v>623572</v>
+        <v>623225</v>
       </c>
       <c r="AW67" s="13">
-        <v>623225</v>
+        <v>624406</v>
       </c>
       <c r="AX67" s="13">
-        <v>624406</v>
+        <v>641046</v>
       </c>
       <c r="AY67" s="13">
-        <v>641046</v>
+        <v>647000</v>
       </c>
       <c r="AZ67" s="13">
-        <v>647000</v>
+        <v>710224</v>
       </c>
       <c r="BA67" s="13">
-        <v>710224</v>
+        <v>707965</v>
       </c>
       <c r="BB67" s="13">
-        <v>707965</v>
+        <v>855332</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pasa/product/monthly.xlsx
+++ b/database/industries/lastic/pasa/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pasa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pasa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AF24E1-CD87-407F-80FA-EA9E3068C64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7749D272-B30D-4350-AA73-F2D16EC22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>تایر</t>
@@ -730,12 +730,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -790,7 +790,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -959,7 +959,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1128,7 +1128,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1340,7 +1340,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1406,157 +1406,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1049770</v>
+        <v>1104856</v>
       </c>
       <c r="F11" s="11">
-        <v>969581</v>
+        <v>1052809</v>
       </c>
       <c r="G11" s="11">
-        <v>1104856</v>
+        <v>859101</v>
       </c>
       <c r="H11" s="11">
-        <v>1052809</v>
+        <v>385138</v>
       </c>
       <c r="I11" s="11">
-        <v>859101</v>
+        <v>901618</v>
       </c>
       <c r="J11" s="11">
-        <v>385138</v>
+        <v>650167</v>
       </c>
       <c r="K11" s="11">
-        <v>901618</v>
+        <v>1045509</v>
       </c>
       <c r="L11" s="11">
-        <v>650167</v>
+        <v>879435</v>
       </c>
       <c r="M11" s="11">
-        <v>1045509</v>
+        <v>753893</v>
       </c>
       <c r="N11" s="11">
-        <v>879435</v>
+        <v>962542</v>
       </c>
       <c r="O11" s="11">
-        <v>753893</v>
+        <v>607503</v>
       </c>
       <c r="P11" s="11">
-        <v>962542</v>
+        <v>1207512</v>
       </c>
       <c r="Q11" s="11">
-        <v>607503</v>
+        <v>1184991</v>
       </c>
       <c r="R11" s="11">
-        <v>1207512</v>
+        <v>1170212</v>
       </c>
       <c r="S11" s="11">
-        <v>1184991</v>
+        <v>575527</v>
       </c>
       <c r="T11" s="11">
-        <v>1170212</v>
+        <v>33077</v>
       </c>
       <c r="U11" s="11">
-        <v>575527</v>
+        <v>1228618</v>
       </c>
       <c r="V11" s="11">
-        <v>33077</v>
+        <v>1010922</v>
       </c>
       <c r="W11" s="11">
-        <v>1228618</v>
+        <v>1325483</v>
       </c>
       <c r="X11" s="11">
-        <v>1010922</v>
+        <v>1156344</v>
       </c>
       <c r="Y11" s="11">
-        <v>1325483</v>
+        <v>197112</v>
       </c>
       <c r="Z11" s="11">
-        <v>1156344</v>
+        <v>774553</v>
       </c>
       <c r="AA11" s="11">
-        <v>197112</v>
+        <v>1175860</v>
       </c>
       <c r="AB11" s="11">
-        <v>774553</v>
+        <v>1276508</v>
       </c>
       <c r="AC11" s="11">
-        <v>1175860</v>
+        <v>1260775</v>
       </c>
       <c r="AD11" s="11">
-        <v>1276508</v>
+        <v>1087802</v>
       </c>
       <c r="AE11" s="11">
-        <v>1260775</v>
+        <v>651932</v>
       </c>
       <c r="AF11" s="11">
-        <v>1087802</v>
+        <v>537758</v>
       </c>
       <c r="AG11" s="11">
-        <v>651932</v>
+        <v>1057005</v>
       </c>
       <c r="AH11" s="11">
-        <v>537758</v>
+        <v>1240544</v>
       </c>
       <c r="AI11" s="11">
-        <v>1057005</v>
+        <v>1357633</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1240544</v>
+        <v>866889</v>
       </c>
       <c r="AK11" s="11">
-        <v>1357633</v>
+        <v>1414212</v>
       </c>
       <c r="AL11" s="11">
-        <v>866889</v>
+        <v>1277905</v>
       </c>
       <c r="AM11" s="11">
-        <v>1414212</v>
+        <v>1379084</v>
       </c>
       <c r="AN11" s="11">
-        <v>1277905</v>
+        <v>1362327</v>
       </c>
       <c r="AO11" s="11">
-        <v>1379084</v>
+        <v>1255588</v>
       </c>
       <c r="AP11" s="11">
-        <v>1362327</v>
+        <v>1326245</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1255588</v>
+        <v>813561</v>
       </c>
       <c r="AR11" s="11">
-        <v>1326245</v>
+        <v>666056</v>
       </c>
       <c r="AS11" s="11">
-        <v>813561</v>
+        <v>1284935</v>
       </c>
       <c r="AT11" s="11">
-        <v>666056</v>
+        <v>1414467</v>
       </c>
       <c r="AU11" s="11">
-        <v>1284935</v>
+        <v>1262842</v>
       </c>
       <c r="AV11" s="11">
-        <v>1414467</v>
+        <v>1215231</v>
       </c>
       <c r="AW11" s="11">
-        <v>1262842</v>
+        <v>1130358</v>
       </c>
       <c r="AX11" s="11">
-        <v>1215231</v>
+        <v>949821</v>
       </c>
       <c r="AY11" s="11">
-        <v>1130358</v>
+        <v>1462906</v>
       </c>
       <c r="AZ11" s="11">
-        <v>949821</v>
+        <v>1579004</v>
       </c>
       <c r="BA11" s="11">
-        <v>1462906</v>
+        <v>1146358</v>
       </c>
       <c r="BB11" s="11">
-        <v>1579004</v>
+        <v>1377457</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1565,91 +1565,91 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>93016</v>
+        <v>148189</v>
       </c>
       <c r="F12" s="13">
-        <v>86574</v>
+        <v>53987</v>
       </c>
       <c r="G12" s="13">
-        <v>148189</v>
+        <v>31972</v>
       </c>
       <c r="H12" s="13">
-        <v>53987</v>
+        <v>17287</v>
       </c>
       <c r="I12" s="13">
-        <v>31972</v>
+        <v>43996</v>
       </c>
       <c r="J12" s="13">
-        <v>17287</v>
+        <v>68688</v>
       </c>
       <c r="K12" s="13">
-        <v>43996</v>
+        <v>85152</v>
       </c>
       <c r="L12" s="13">
-        <v>68688</v>
+        <v>76075</v>
       </c>
       <c r="M12" s="13">
-        <v>85152</v>
+        <v>26625</v>
       </c>
       <c r="N12" s="13">
-        <v>76075</v>
+        <v>23158</v>
       </c>
       <c r="O12" s="13">
-        <v>26625</v>
+        <v>27666</v>
       </c>
       <c r="P12" s="13">
-        <v>23158</v>
+        <v>77369</v>
       </c>
       <c r="Q12" s="13">
-        <v>27666</v>
+        <v>150052</v>
       </c>
       <c r="R12" s="13">
-        <v>77369</v>
+        <v>171298</v>
       </c>
       <c r="S12" s="13">
-        <v>150052</v>
+        <v>84171</v>
       </c>
       <c r="T12" s="13">
-        <v>171298</v>
+        <v>3848</v>
       </c>
       <c r="U12" s="13">
-        <v>84171</v>
+        <v>110265</v>
       </c>
       <c r="V12" s="13">
-        <v>3848</v>
+        <v>80266</v>
       </c>
       <c r="W12" s="13">
-        <v>110265</v>
+        <v>124515</v>
       </c>
       <c r="X12" s="13">
-        <v>80266</v>
+        <v>110120</v>
       </c>
       <c r="Y12" s="13">
-        <v>124515</v>
+        <v>103430</v>
       </c>
       <c r="Z12" s="13">
-        <v>110120</v>
+        <v>66209</v>
       </c>
       <c r="AA12" s="13">
-        <v>103430</v>
+        <v>71944</v>
       </c>
       <c r="AB12" s="13">
-        <v>66209</v>
+        <v>112511</v>
       </c>
       <c r="AC12" s="13">
-        <v>71944</v>
+        <v>105943</v>
       </c>
       <c r="AD12" s="13">
-        <v>112511</v>
+        <v>94317</v>
       </c>
       <c r="AE12" s="13">
-        <v>105943</v>
+        <v>70052</v>
       </c>
       <c r="AF12" s="13">
-        <v>94317</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="13">
-        <v>70052</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="13">
         <v>0</v>
@@ -1679,14 +1679,14 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>1176506</v>
-      </c>
-      <c r="AS12" s="13">
         <v>64456</v>
       </c>
+      <c r="AR12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1724,157 +1724,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>238526</v>
+        <v>343206</v>
       </c>
       <c r="F13" s="11">
-        <v>255519</v>
+        <v>272708</v>
       </c>
       <c r="G13" s="11">
-        <v>343206</v>
+        <v>200829</v>
       </c>
       <c r="H13" s="11">
-        <v>272708</v>
+        <v>110406</v>
       </c>
       <c r="I13" s="11">
-        <v>200829</v>
+        <v>216771</v>
       </c>
       <c r="J13" s="11">
-        <v>110406</v>
+        <v>157816</v>
       </c>
       <c r="K13" s="11">
-        <v>216771</v>
+        <v>254754</v>
       </c>
       <c r="L13" s="11">
-        <v>157816</v>
+        <v>231616</v>
       </c>
       <c r="M13" s="11">
-        <v>254754</v>
+        <v>222176</v>
       </c>
       <c r="N13" s="11">
-        <v>231616</v>
+        <v>278061</v>
       </c>
       <c r="O13" s="11">
-        <v>222176</v>
+        <v>188038</v>
       </c>
       <c r="P13" s="11">
-        <v>278061</v>
+        <v>264573</v>
       </c>
       <c r="Q13" s="11">
-        <v>188038</v>
+        <v>250011</v>
       </c>
       <c r="R13" s="11">
-        <v>264573</v>
+        <v>258946</v>
       </c>
       <c r="S13" s="11">
-        <v>250011</v>
+        <v>114303</v>
       </c>
       <c r="T13" s="11">
-        <v>258946</v>
+        <v>6301</v>
       </c>
       <c r="U13" s="11">
-        <v>114303</v>
+        <v>301657</v>
       </c>
       <c r="V13" s="11">
-        <v>6301</v>
+        <v>238531</v>
       </c>
       <c r="W13" s="11">
-        <v>301657</v>
+        <v>332468</v>
       </c>
       <c r="X13" s="11">
-        <v>238531</v>
+        <v>314218</v>
       </c>
       <c r="Y13" s="11">
-        <v>332468</v>
+        <v>1285139</v>
       </c>
       <c r="Z13" s="11">
-        <v>314218</v>
+        <v>218610</v>
       </c>
       <c r="AA13" s="11">
-        <v>1285139</v>
+        <v>315710</v>
       </c>
       <c r="AB13" s="11">
-        <v>218610</v>
+        <v>310027</v>
       </c>
       <c r="AC13" s="11">
-        <v>315710</v>
+        <v>310581</v>
       </c>
       <c r="AD13" s="11">
-        <v>310027</v>
+        <v>234342</v>
       </c>
       <c r="AE13" s="11">
-        <v>310581</v>
+        <v>131430</v>
       </c>
       <c r="AF13" s="11">
-        <v>234342</v>
+        <v>111657</v>
       </c>
       <c r="AG13" s="11">
-        <v>131430</v>
+        <v>181932</v>
       </c>
       <c r="AH13" s="11">
-        <v>111657</v>
+        <v>156101</v>
       </c>
       <c r="AI13" s="11">
-        <v>181932</v>
+        <v>170724</v>
       </c>
       <c r="AJ13" s="11">
-        <v>156101</v>
+        <v>110235</v>
       </c>
       <c r="AK13" s="11">
-        <v>170724</v>
+        <v>286846</v>
       </c>
       <c r="AL13" s="11">
-        <v>110235</v>
+        <v>240282</v>
       </c>
       <c r="AM13" s="11">
-        <v>286846</v>
+        <v>254640</v>
       </c>
       <c r="AN13" s="11">
-        <v>240282</v>
+        <v>272919</v>
       </c>
       <c r="AO13" s="11">
-        <v>254640</v>
+        <v>223708</v>
       </c>
       <c r="AP13" s="11">
-        <v>272919</v>
+        <v>226709</v>
       </c>
       <c r="AQ13" s="11">
-        <v>223708</v>
+        <v>194299</v>
       </c>
       <c r="AR13" s="11">
-        <v>226709</v>
+        <v>100164</v>
       </c>
       <c r="AS13" s="11">
-        <v>194299</v>
+        <v>183692</v>
       </c>
       <c r="AT13" s="11">
-        <v>100164</v>
+        <v>196344</v>
       </c>
       <c r="AU13" s="11">
-        <v>183692</v>
+        <v>165035</v>
       </c>
       <c r="AV13" s="11">
-        <v>196344</v>
+        <v>162716</v>
       </c>
       <c r="AW13" s="11">
-        <v>165035</v>
+        <v>206418</v>
       </c>
       <c r="AX13" s="11">
-        <v>162716</v>
+        <v>116371</v>
       </c>
       <c r="AY13" s="11">
-        <v>206418</v>
+        <v>184422</v>
       </c>
       <c r="AZ13" s="11">
-        <v>116371</v>
+        <v>198484</v>
       </c>
       <c r="BA13" s="11">
-        <v>184422</v>
+        <v>166239</v>
       </c>
       <c r="BB13" s="11">
-        <v>198484</v>
+        <v>243196</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1963,77 +1963,77 @@
       <c r="AE14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG14" s="13" t="s">
-        <v>58</v>
+      <c r="AF14" s="13">
+        <v>56441</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>122686</v>
       </c>
       <c r="AH14" s="13">
-        <v>56441</v>
+        <v>216298</v>
       </c>
       <c r="AI14" s="13">
-        <v>122686</v>
+        <v>192322</v>
       </c>
       <c r="AJ14" s="13">
-        <v>216298</v>
+        <v>117622</v>
       </c>
       <c r="AK14" s="13">
-        <v>192322</v>
+        <v>24402</v>
       </c>
       <c r="AL14" s="13">
-        <v>117622</v>
+        <v>76558</v>
       </c>
       <c r="AM14" s="13">
-        <v>24402</v>
+        <v>88699</v>
       </c>
       <c r="AN14" s="13">
-        <v>76558</v>
+        <v>105933</v>
       </c>
       <c r="AO14" s="13">
-        <v>88699</v>
+        <v>85939</v>
       </c>
       <c r="AP14" s="13">
-        <v>105933</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>85939</v>
-      </c>
-      <c r="AR14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS14" s="13" t="s">
-        <v>58</v>
+        <v>89606</v>
+      </c>
+      <c r="AQ14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>61089</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>142674</v>
       </c>
       <c r="AT14" s="13">
-        <v>61089</v>
+        <v>132872</v>
       </c>
       <c r="AU14" s="13">
-        <v>142674</v>
+        <v>101431</v>
       </c>
       <c r="AV14" s="13">
-        <v>132872</v>
+        <v>114885</v>
       </c>
       <c r="AW14" s="13">
-        <v>101431</v>
+        <v>23535</v>
       </c>
       <c r="AX14" s="13">
-        <v>114885</v>
+        <v>26527</v>
       </c>
       <c r="AY14" s="13">
-        <v>23535</v>
+        <v>46778</v>
       </c>
       <c r="AZ14" s="13">
-        <v>26527</v>
+        <v>77256</v>
       </c>
       <c r="BA14" s="13">
-        <v>46778</v>
+        <v>86062</v>
       </c>
       <c r="BB14" s="13">
-        <v>77256</v>
+        <v>222875</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>61</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="BA15" s="15"/>
       <c r="BB15" s="15"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>62</v>
       </c>
@@ -2150,11 +2150,11 @@
       <c r="V16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="17" t="s">
-        <v>58</v>
+      <c r="W16" s="17">
+        <v>0</v>
+      </c>
+      <c r="X16" s="17">
+        <v>0</v>
       </c>
       <c r="Y16" s="17">
         <v>0</v>
@@ -2247,164 +2247,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19">
-        <v>1381312</v>
+        <v>1596251</v>
       </c>
       <c r="F17" s="19">
-        <v>1311674</v>
+        <v>1379504</v>
       </c>
       <c r="G17" s="19">
-        <v>1596251</v>
+        <v>1091902</v>
       </c>
       <c r="H17" s="19">
-        <v>1379504</v>
+        <v>512831</v>
       </c>
       <c r="I17" s="19">
-        <v>1091902</v>
+        <v>1162385</v>
       </c>
       <c r="J17" s="19">
-        <v>512831</v>
+        <v>876671</v>
       </c>
       <c r="K17" s="19">
-        <v>1162385</v>
+        <v>1385415</v>
       </c>
       <c r="L17" s="19">
-        <v>876671</v>
+        <v>1187126</v>
       </c>
       <c r="M17" s="19">
-        <v>1385415</v>
+        <v>1002694</v>
       </c>
       <c r="N17" s="19">
-        <v>1187126</v>
+        <v>1263761</v>
       </c>
       <c r="O17" s="19">
-        <v>1002694</v>
+        <v>823207</v>
       </c>
       <c r="P17" s="19">
-        <v>1263761</v>
+        <v>1549454</v>
       </c>
       <c r="Q17" s="19">
-        <v>823207</v>
+        <v>1585054</v>
       </c>
       <c r="R17" s="19">
-        <v>1549454</v>
+        <v>1600456</v>
       </c>
       <c r="S17" s="19">
-        <v>1585054</v>
+        <v>774001</v>
       </c>
       <c r="T17" s="19">
-        <v>1600456</v>
+        <v>43226</v>
       </c>
       <c r="U17" s="19">
-        <v>774001</v>
+        <v>1640540</v>
       </c>
       <c r="V17" s="19">
-        <v>43226</v>
+        <v>1329719</v>
       </c>
       <c r="W17" s="19">
-        <v>1640540</v>
+        <v>1782466</v>
       </c>
       <c r="X17" s="19">
-        <v>1329719</v>
+        <v>1580682</v>
       </c>
       <c r="Y17" s="19">
-        <v>1782466</v>
+        <v>1585681</v>
       </c>
       <c r="Z17" s="19">
-        <v>1580682</v>
+        <v>1059372</v>
       </c>
       <c r="AA17" s="19">
-        <v>1585681</v>
+        <v>1563514</v>
       </c>
       <c r="AB17" s="19">
-        <v>1059372</v>
+        <v>1699046</v>
       </c>
       <c r="AC17" s="19">
-        <v>1563514</v>
+        <v>1677299</v>
       </c>
       <c r="AD17" s="19">
-        <v>1699046</v>
+        <v>1416461</v>
       </c>
       <c r="AE17" s="19">
-        <v>1677299</v>
+        <v>853414</v>
       </c>
       <c r="AF17" s="19">
-        <v>1416461</v>
+        <v>705856</v>
       </c>
       <c r="AG17" s="19">
-        <v>853414</v>
+        <v>1361623</v>
       </c>
       <c r="AH17" s="19">
-        <v>705856</v>
+        <v>1612943</v>
       </c>
       <c r="AI17" s="19">
-        <v>1361623</v>
+        <v>1720679</v>
       </c>
       <c r="AJ17" s="19">
-        <v>1612943</v>
+        <v>1094746</v>
       </c>
       <c r="AK17" s="19">
-        <v>1720679</v>
+        <v>1725460</v>
       </c>
       <c r="AL17" s="19">
-        <v>1094746</v>
+        <v>1594745</v>
       </c>
       <c r="AM17" s="19">
-        <v>1725460</v>
+        <v>1722423</v>
       </c>
       <c r="AN17" s="19">
-        <v>1594745</v>
+        <v>1741179</v>
       </c>
       <c r="AO17" s="19">
-        <v>1722423</v>
+        <v>1565235</v>
       </c>
       <c r="AP17" s="19">
-        <v>1741179</v>
+        <v>1642560</v>
       </c>
       <c r="AQ17" s="19">
-        <v>1565235</v>
+        <v>1072316</v>
       </c>
       <c r="AR17" s="19">
-        <v>2729460</v>
+        <v>827309</v>
       </c>
       <c r="AS17" s="19">
-        <v>1072316</v>
+        <v>1611301</v>
       </c>
       <c r="AT17" s="19">
-        <v>827309</v>
+        <v>1743683</v>
       </c>
       <c r="AU17" s="19">
-        <v>1611301</v>
+        <v>1529308</v>
       </c>
       <c r="AV17" s="19">
-        <v>1743683</v>
+        <v>1492832</v>
       </c>
       <c r="AW17" s="19">
-        <v>1529308</v>
+        <v>1360311</v>
       </c>
       <c r="AX17" s="19">
-        <v>1492832</v>
+        <v>1092719</v>
       </c>
       <c r="AY17" s="19">
-        <v>1360311</v>
+        <v>1694106</v>
       </c>
       <c r="AZ17" s="19">
-        <v>1092719</v>
+        <v>1854744</v>
       </c>
       <c r="BA17" s="19">
-        <v>1694106</v>
+        <v>1398659</v>
       </c>
       <c r="BB17" s="19">
-        <v>1854744</v>
+        <v>1843528</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2459,7 +2459,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2514,7 +2514,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2569,7 +2569,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>64</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2781,7 +2781,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
@@ -2838,7 +2838,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
@@ -2847,157 +2847,157 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>444663</v>
+        <v>880133</v>
       </c>
       <c r="F24" s="11">
-        <v>518342</v>
+        <v>909921</v>
       </c>
       <c r="G24" s="11">
-        <v>880133</v>
+        <v>913849</v>
       </c>
       <c r="H24" s="11">
-        <v>909921</v>
+        <v>384505</v>
       </c>
       <c r="I24" s="11">
-        <v>913849</v>
+        <v>904752</v>
       </c>
       <c r="J24" s="11">
-        <v>384505</v>
+        <v>842899</v>
       </c>
       <c r="K24" s="11">
-        <v>904752</v>
+        <v>1163094</v>
       </c>
       <c r="L24" s="11">
-        <v>842899</v>
+        <v>793394</v>
       </c>
       <c r="M24" s="11">
-        <v>1163094</v>
+        <v>728426</v>
       </c>
       <c r="N24" s="11">
-        <v>793394</v>
+        <v>856791</v>
       </c>
       <c r="O24" s="11">
-        <v>728426</v>
+        <v>559596</v>
       </c>
       <c r="P24" s="11">
-        <v>856791</v>
+        <v>1144361</v>
       </c>
       <c r="Q24" s="11">
-        <v>559596</v>
+        <v>924984</v>
       </c>
       <c r="R24" s="11">
-        <v>1144361</v>
+        <v>969774</v>
       </c>
       <c r="S24" s="11">
-        <v>924984</v>
+        <v>1153613</v>
       </c>
       <c r="T24" s="11">
-        <v>969774</v>
+        <v>522710</v>
       </c>
       <c r="U24" s="11">
-        <v>1153613</v>
+        <v>1204049</v>
       </c>
       <c r="V24" s="11">
-        <v>522710</v>
+        <v>1123955</v>
       </c>
       <c r="W24" s="11">
-        <v>1204049</v>
+        <v>1160863</v>
       </c>
       <c r="X24" s="11">
-        <v>1123955</v>
+        <v>1368111</v>
       </c>
       <c r="Y24" s="11">
-        <v>1160863</v>
+        <v>1382556</v>
       </c>
       <c r="Z24" s="11">
-        <v>1368111</v>
+        <v>861260</v>
       </c>
       <c r="AA24" s="11">
-        <v>1382556</v>
+        <v>1047843</v>
       </c>
       <c r="AB24" s="11">
-        <v>861260</v>
+        <v>873150</v>
       </c>
       <c r="AC24" s="11">
-        <v>1047843</v>
+        <v>1004847</v>
       </c>
       <c r="AD24" s="11">
-        <v>873150</v>
+        <v>997421</v>
       </c>
       <c r="AE24" s="11">
-        <v>1004847</v>
+        <v>984653</v>
       </c>
       <c r="AF24" s="11">
-        <v>997421</v>
+        <v>928493</v>
       </c>
       <c r="AG24" s="11">
-        <v>984653</v>
+        <v>1197969</v>
       </c>
       <c r="AH24" s="11">
-        <v>928493</v>
+        <v>1547146</v>
       </c>
       <c r="AI24" s="11">
-        <v>1197969</v>
+        <v>1463871</v>
       </c>
       <c r="AJ24" s="11">
-        <v>1547146</v>
+        <v>1004148</v>
       </c>
       <c r="AK24" s="11">
-        <v>1463871</v>
+        <v>1159706</v>
       </c>
       <c r="AL24" s="11">
-        <v>1004148</v>
+        <v>1015911</v>
       </c>
       <c r="AM24" s="11">
-        <v>1159706</v>
+        <v>918470</v>
       </c>
       <c r="AN24" s="11">
-        <v>1015911</v>
+        <v>863394</v>
       </c>
       <c r="AO24" s="11">
-        <v>918470</v>
+        <v>750252</v>
       </c>
       <c r="AP24" s="11">
-        <v>863394</v>
+        <v>974917</v>
       </c>
       <c r="AQ24" s="11">
-        <v>750252</v>
+        <v>998634</v>
       </c>
       <c r="AR24" s="11">
-        <v>974917</v>
+        <v>1062771</v>
       </c>
       <c r="AS24" s="11">
-        <v>998634</v>
+        <v>1065253</v>
       </c>
       <c r="AT24" s="11">
-        <v>1062771</v>
+        <v>1670869</v>
       </c>
       <c r="AU24" s="11">
-        <v>1065253</v>
+        <v>1328653</v>
       </c>
       <c r="AV24" s="11">
-        <v>1670869</v>
+        <v>1436345</v>
       </c>
       <c r="AW24" s="11">
-        <v>1328653</v>
+        <v>1393474</v>
       </c>
       <c r="AX24" s="11">
-        <v>1436345</v>
+        <v>1408025</v>
       </c>
       <c r="AY24" s="11">
-        <v>1393474</v>
+        <v>924974</v>
       </c>
       <c r="AZ24" s="11">
-        <v>1408025</v>
+        <v>856598</v>
       </c>
       <c r="BA24" s="11">
-        <v>924974</v>
+        <v>1735103</v>
       </c>
       <c r="BB24" s="11">
-        <v>856598</v>
+        <v>1332788</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>57</v>
       </c>
@@ -3006,91 +3006,91 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>51990</v>
+        <v>39290</v>
       </c>
       <c r="F25" s="13">
-        <v>33227</v>
+        <v>49501</v>
       </c>
       <c r="G25" s="13">
-        <v>39290</v>
+        <v>34436</v>
       </c>
       <c r="H25" s="13">
-        <v>49501</v>
+        <v>6275</v>
       </c>
       <c r="I25" s="13">
-        <v>34436</v>
+        <v>151979</v>
       </c>
       <c r="J25" s="13">
-        <v>6275</v>
+        <v>21571</v>
       </c>
       <c r="K25" s="13">
-        <v>151979</v>
+        <v>64157</v>
       </c>
       <c r="L25" s="13">
-        <v>21571</v>
+        <v>65000</v>
       </c>
       <c r="M25" s="13">
-        <v>64157</v>
+        <v>49346</v>
       </c>
       <c r="N25" s="13">
-        <v>65000</v>
+        <v>52508</v>
       </c>
       <c r="O25" s="13">
-        <v>49346</v>
+        <v>40838</v>
       </c>
       <c r="P25" s="13">
-        <v>52508</v>
+        <v>92456</v>
       </c>
       <c r="Q25" s="13">
-        <v>40838</v>
+        <v>62260</v>
       </c>
       <c r="R25" s="13">
-        <v>92456</v>
+        <v>25637</v>
       </c>
       <c r="S25" s="13">
-        <v>62260</v>
+        <v>56023</v>
       </c>
       <c r="T25" s="13">
-        <v>25637</v>
+        <v>41237</v>
       </c>
       <c r="U25" s="13">
-        <v>56023</v>
+        <v>96177</v>
       </c>
       <c r="V25" s="13">
-        <v>41237</v>
+        <v>74109</v>
       </c>
       <c r="W25" s="13">
-        <v>96177</v>
+        <v>121878</v>
       </c>
       <c r="X25" s="13">
-        <v>74109</v>
+        <v>85611</v>
       </c>
       <c r="Y25" s="13">
-        <v>121878</v>
+        <v>78826</v>
       </c>
       <c r="Z25" s="13">
-        <v>85611</v>
+        <v>106761</v>
       </c>
       <c r="AA25" s="13">
-        <v>78826</v>
+        <v>85491</v>
       </c>
       <c r="AB25" s="13">
-        <v>106761</v>
+        <v>97876</v>
       </c>
       <c r="AC25" s="13">
-        <v>85491</v>
+        <v>93514</v>
       </c>
       <c r="AD25" s="13">
-        <v>97876</v>
+        <v>84526</v>
       </c>
       <c r="AE25" s="13">
-        <v>93514</v>
+        <v>112587</v>
       </c>
       <c r="AF25" s="13">
-        <v>84526</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="13">
-        <v>112587</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="13">
         <v>0</v>
@@ -3120,14 +3120,14 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="13">
-        <v>1087095</v>
-      </c>
-      <c r="AS25" s="13">
         <v>86030</v>
       </c>
+      <c r="AR25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS25" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT25" s="13" t="s">
         <v>58</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>59</v>
       </c>
@@ -3165,157 +3165,157 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>229779</v>
+        <v>208237</v>
       </c>
       <c r="F26" s="11">
-        <v>216079</v>
+        <v>425484</v>
       </c>
       <c r="G26" s="11">
-        <v>208237</v>
+        <v>298189</v>
       </c>
       <c r="H26" s="11">
-        <v>425484</v>
+        <v>125495</v>
       </c>
       <c r="I26" s="11">
-        <v>298189</v>
+        <v>152040</v>
       </c>
       <c r="J26" s="11">
-        <v>125495</v>
+        <v>177790</v>
       </c>
       <c r="K26" s="11">
-        <v>152040</v>
+        <v>216973</v>
       </c>
       <c r="L26" s="11">
-        <v>177790</v>
+        <v>128291</v>
       </c>
       <c r="M26" s="11">
-        <v>216973</v>
+        <v>191356</v>
       </c>
       <c r="N26" s="11">
-        <v>128291</v>
+        <v>219123</v>
       </c>
       <c r="O26" s="11">
-        <v>191356</v>
+        <v>220042</v>
       </c>
       <c r="P26" s="11">
-        <v>219123</v>
+        <v>153478</v>
       </c>
       <c r="Q26" s="11">
-        <v>220042</v>
+        <v>293800</v>
       </c>
       <c r="R26" s="11">
-        <v>153478</v>
+        <v>305544</v>
       </c>
       <c r="S26" s="11">
-        <v>293800</v>
+        <v>163002</v>
       </c>
       <c r="T26" s="11">
-        <v>305544</v>
+        <v>137121</v>
       </c>
       <c r="U26" s="11">
-        <v>163002</v>
+        <v>146263</v>
       </c>
       <c r="V26" s="11">
-        <v>137121</v>
+        <v>209298</v>
       </c>
       <c r="W26" s="11">
-        <v>146263</v>
+        <v>294755</v>
       </c>
       <c r="X26" s="11">
-        <v>209298</v>
+        <v>239210</v>
       </c>
       <c r="Y26" s="11">
-        <v>294755</v>
+        <v>328167</v>
       </c>
       <c r="Z26" s="11">
-        <v>239210</v>
+        <v>146626</v>
       </c>
       <c r="AA26" s="11">
-        <v>328167</v>
+        <v>268507</v>
       </c>
       <c r="AB26" s="11">
-        <v>146626</v>
+        <v>166402</v>
       </c>
       <c r="AC26" s="11">
-        <v>268507</v>
+        <v>192409</v>
       </c>
       <c r="AD26" s="11">
-        <v>166402</v>
+        <v>212996</v>
       </c>
       <c r="AE26" s="11">
-        <v>192409</v>
+        <v>237658</v>
       </c>
       <c r="AF26" s="11">
-        <v>212996</v>
+        <v>209468</v>
       </c>
       <c r="AG26" s="11">
-        <v>237658</v>
+        <v>329376</v>
       </c>
       <c r="AH26" s="11">
-        <v>209468</v>
+        <v>316007</v>
       </c>
       <c r="AI26" s="11">
-        <v>329376</v>
+        <v>159606</v>
       </c>
       <c r="AJ26" s="11">
-        <v>316007</v>
+        <v>279923</v>
       </c>
       <c r="AK26" s="11">
-        <v>159606</v>
+        <v>324037</v>
       </c>
       <c r="AL26" s="11">
-        <v>279923</v>
+        <v>301738</v>
       </c>
       <c r="AM26" s="11">
-        <v>324037</v>
+        <v>220791</v>
       </c>
       <c r="AN26" s="11">
-        <v>301738</v>
+        <v>238631</v>
       </c>
       <c r="AO26" s="11">
-        <v>220791</v>
+        <v>191930</v>
       </c>
       <c r="AP26" s="11">
-        <v>238631</v>
+        <v>58863</v>
       </c>
       <c r="AQ26" s="11">
-        <v>191930</v>
+        <v>181103</v>
       </c>
       <c r="AR26" s="11">
-        <v>58863</v>
+        <v>189432</v>
       </c>
       <c r="AS26" s="11">
-        <v>181103</v>
+        <v>197545</v>
       </c>
       <c r="AT26" s="11">
-        <v>189432</v>
+        <v>236603</v>
       </c>
       <c r="AU26" s="11">
-        <v>197545</v>
+        <v>188915</v>
       </c>
       <c r="AV26" s="11">
-        <v>236603</v>
+        <v>208117</v>
       </c>
       <c r="AW26" s="11">
-        <v>188915</v>
+        <v>213605</v>
       </c>
       <c r="AX26" s="11">
-        <v>208117</v>
+        <v>299382</v>
       </c>
       <c r="AY26" s="11">
-        <v>213605</v>
+        <v>128393</v>
       </c>
       <c r="AZ26" s="11">
-        <v>299382</v>
+        <v>110003</v>
       </c>
       <c r="BA26" s="11">
-        <v>128393</v>
+        <v>230971</v>
       </c>
       <c r="BB26" s="11">
-        <v>110003</v>
+        <v>96537</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>60</v>
       </c>
@@ -3404,77 +3404,77 @@
       <c r="AE27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG27" s="13" t="s">
-        <v>58</v>
+      <c r="AF27" s="13">
+        <v>68091</v>
+      </c>
+      <c r="AG27" s="13">
+        <v>127691</v>
       </c>
       <c r="AH27" s="13">
-        <v>68091</v>
+        <v>140353</v>
       </c>
       <c r="AI27" s="13">
-        <v>127691</v>
+        <v>123855</v>
       </c>
       <c r="AJ27" s="13">
-        <v>140353</v>
+        <v>114719</v>
       </c>
       <c r="AK27" s="13">
-        <v>123855</v>
+        <v>118876</v>
       </c>
       <c r="AL27" s="13">
-        <v>114719</v>
+        <v>66307</v>
       </c>
       <c r="AM27" s="13">
-        <v>118876</v>
+        <v>100918</v>
       </c>
       <c r="AN27" s="13">
-        <v>66307</v>
+        <v>81510</v>
       </c>
       <c r="AO27" s="13">
-        <v>100918</v>
+        <v>59708</v>
       </c>
       <c r="AP27" s="13">
-        <v>81510</v>
-      </c>
-      <c r="AQ27" s="13">
-        <v>59708</v>
-      </c>
-      <c r="AR27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS27" s="13" t="s">
-        <v>58</v>
+        <v>85067</v>
+      </c>
+      <c r="AQ27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR27" s="13">
+        <v>99905</v>
+      </c>
+      <c r="AS27" s="13">
+        <v>89183</v>
       </c>
       <c r="AT27" s="13">
-        <v>99905</v>
+        <v>130611</v>
       </c>
       <c r="AU27" s="13">
-        <v>89183</v>
+        <v>100244</v>
       </c>
       <c r="AV27" s="13">
-        <v>130611</v>
+        <v>93413</v>
       </c>
       <c r="AW27" s="13">
-        <v>100244</v>
+        <v>103354</v>
       </c>
       <c r="AX27" s="13">
-        <v>93413</v>
+        <v>16002</v>
       </c>
       <c r="AY27" s="13">
-        <v>103354</v>
+        <v>175537</v>
       </c>
       <c r="AZ27" s="13">
-        <v>16002</v>
+        <v>109202</v>
       </c>
       <c r="BA27" s="13">
-        <v>175537</v>
+        <v>94435</v>
       </c>
       <c r="BB27" s="13">
-        <v>109202</v>
+        <v>187176</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>61</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="15"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>62</v>
       </c>
@@ -3591,11 +3591,11 @@
       <c r="V29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W29" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X29" s="17" t="s">
-        <v>58</v>
+      <c r="W29" s="17">
+        <v>0</v>
+      </c>
+      <c r="X29" s="17">
+        <v>0</v>
       </c>
       <c r="Y29" s="17">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -3813,44 +3813,44 @@
       <c r="X31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z31" s="11" t="s">
-        <v>58</v>
+      <c r="Y31" s="11">
+        <v>-2359</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>0</v>
       </c>
       <c r="AA31" s="11">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="11">
         <v>0</v>
       </c>
       <c r="AC31" s="11">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AD31" s="11">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="AE31" s="11">
-        <v>-94</v>
-      </c>
-      <c r="AF31" s="11">
-        <v>-73</v>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG31" s="11">
-        <v>0</v>
+        <v>-804</v>
       </c>
       <c r="AH31" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AI31" s="11">
-        <v>-804</v>
+        <v>-673</v>
       </c>
       <c r="AJ31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK31" s="11">
-        <v>-673</v>
+      <c r="AK31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL31" s="11" t="s">
         <v>58</v>
@@ -3864,47 +3864,47 @@
       <c r="AO31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR31" s="11">
+      <c r="AP31" s="11">
         <v>-12</v>
       </c>
-      <c r="AS31" s="11">
+      <c r="AQ31" s="11">
         <v>-27520</v>
       </c>
+      <c r="AR31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS31" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU31" s="11" t="s">
-        <v>58</v>
+      <c r="AU31" s="11">
+        <v>-8</v>
       </c>
       <c r="AV31" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AW31" s="11">
-        <v>-8</v>
+        <v>-257927</v>
       </c>
       <c r="AX31" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AY31" s="11">
-        <v>-257927</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA31" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB31" s="11" t="s">
-        <v>58</v>
+      <c r="BA31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB31" s="11">
+        <v>-35944</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>57</v>
       </c>
@@ -4002,14 +4002,14 @@
       <c r="AH32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI32" s="13" t="s">
-        <v>58</v>
+      <c r="AI32" s="13">
+        <v>-22</v>
       </c>
       <c r="AJ32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK32" s="13">
-        <v>-22</v>
+      <c r="AK32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL32" s="13" t="s">
         <v>58</v>
@@ -4023,17 +4023,17 @@
       <c r="AO32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="13">
-        <v>0</v>
+      <c r="AP32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT32" s="13" t="s">
         <v>58</v>
@@ -4063,7 +4063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>59</v>
       </c>
@@ -4167,14 +4167,14 @@
       <c r="AJ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK33" s="11" t="s">
-        <v>58</v>
+      <c r="AK33" s="11">
+        <v>-376</v>
       </c>
       <c r="AL33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM33" s="11">
-        <v>-376</v>
+      <c r="AM33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN33" s="11" t="s">
         <v>58</v>
@@ -4182,47 +4182,47 @@
       <c r="AO33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS33" s="11">
+      <c r="AP33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="11">
         <v>-10000</v>
       </c>
+      <c r="AR33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU33" s="11" t="s">
-        <v>58</v>
+      <c r="AU33" s="11">
+        <v>-1</v>
       </c>
       <c r="AV33" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AW33" s="11">
-        <v>-1</v>
+        <v>-53336</v>
       </c>
       <c r="AX33" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AY33" s="11">
-        <v>-53336</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA33" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB33" s="11" t="s">
-        <v>58</v>
+      <c r="BA33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB33" s="11">
+        <v>-12355</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>60</v>
       </c>
@@ -4356,14 +4356,14 @@
       <c r="AT34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU34" s="13" t="s">
-        <v>58</v>
+      <c r="AU34" s="13">
+        <v>-15547</v>
       </c>
       <c r="AV34" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AW34" s="13">
-        <v>-15547</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="13" t="s">
         <v>58</v>
@@ -4374,14 +4374,14 @@
       <c r="AZ34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA34" s="13">
-        <v>0</v>
+      <c r="BA34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB34" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>66</v>
       </c>
@@ -4441,56 +4441,56 @@
       <c r="V35" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="17" t="s">
-        <v>58</v>
+      <c r="W35" s="17">
+        <v>0</v>
+      </c>
+      <c r="X35" s="17">
+        <v>0</v>
       </c>
       <c r="Y35" s="17">
-        <v>0</v>
+        <v>-2359</v>
       </c>
       <c r="Z35" s="17">
         <v>0</v>
       </c>
       <c r="AA35" s="17">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="17">
         <v>0</v>
       </c>
       <c r="AC35" s="17">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AD35" s="17">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="AE35" s="17">
-        <v>-94</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="17">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="17">
-        <v>0</v>
+        <v>-804</v>
       </c>
       <c r="AH35" s="17">
         <v>0</v>
       </c>
       <c r="AI35" s="17">
-        <v>-804</v>
+        <v>-695</v>
       </c>
       <c r="AJ35" s="17">
         <v>0</v>
       </c>
       <c r="AK35" s="17">
-        <v>-695</v>
+        <v>-376</v>
       </c>
       <c r="AL35" s="17">
         <v>0</v>
       </c>
       <c r="AM35" s="17">
-        <v>-376</v>
+        <v>0</v>
       </c>
       <c r="AN35" s="17">
         <v>0</v>
@@ -4499,34 +4499,34 @@
         <v>0</v>
       </c>
       <c r="AP35" s="17">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AQ35" s="17">
-        <v>0</v>
+        <v>-37520</v>
       </c>
       <c r="AR35" s="17">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="17">
-        <v>-37520</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="17">
         <v>0</v>
       </c>
       <c r="AU35" s="17">
-        <v>0</v>
+        <v>-15556</v>
       </c>
       <c r="AV35" s="17">
         <v>0</v>
       </c>
       <c r="AW35" s="17">
-        <v>-15556</v>
+        <v>-311263</v>
       </c>
       <c r="AX35" s="17">
         <v>0</v>
       </c>
       <c r="AY35" s="17">
-        <v>-311263</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="17">
         <v>0</v>
@@ -4535,167 +4535,167 @@
         <v>0</v>
       </c>
       <c r="BB35" s="17">
-        <v>0</v>
+        <v>-48299</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19">
-        <v>726432</v>
+        <v>1127660</v>
       </c>
       <c r="F36" s="19">
-        <v>767648</v>
+        <v>1384906</v>
       </c>
       <c r="G36" s="19">
-        <v>1127660</v>
+        <v>1246474</v>
       </c>
       <c r="H36" s="19">
-        <v>1384906</v>
+        <v>516275</v>
       </c>
       <c r="I36" s="19">
-        <v>1246474</v>
+        <v>1208771</v>
       </c>
       <c r="J36" s="19">
-        <v>516275</v>
+        <v>1042260</v>
       </c>
       <c r="K36" s="19">
-        <v>1208771</v>
+        <v>1444224</v>
       </c>
       <c r="L36" s="19">
-        <v>1042260</v>
+        <v>986685</v>
       </c>
       <c r="M36" s="19">
-        <v>1444224</v>
+        <v>969128</v>
       </c>
       <c r="N36" s="19">
-        <v>986685</v>
+        <v>1128422</v>
       </c>
       <c r="O36" s="19">
-        <v>969128</v>
+        <v>820476</v>
       </c>
       <c r="P36" s="19">
-        <v>1128422</v>
+        <v>1390295</v>
       </c>
       <c r="Q36" s="19">
-        <v>820476</v>
+        <v>1281044</v>
       </c>
       <c r="R36" s="19">
-        <v>1390295</v>
+        <v>1300955</v>
       </c>
       <c r="S36" s="19">
-        <v>1281044</v>
+        <v>1372638</v>
       </c>
       <c r="T36" s="19">
-        <v>1300955</v>
+        <v>701068</v>
       </c>
       <c r="U36" s="19">
-        <v>1372638</v>
+        <v>1446489</v>
       </c>
       <c r="V36" s="19">
-        <v>701068</v>
+        <v>1407362</v>
       </c>
       <c r="W36" s="19">
-        <v>1446489</v>
+        <v>1577496</v>
       </c>
       <c r="X36" s="19">
-        <v>1407362</v>
+        <v>1692932</v>
       </c>
       <c r="Y36" s="19">
-        <v>1577496</v>
+        <v>1787190</v>
       </c>
       <c r="Z36" s="19">
-        <v>1692932</v>
+        <v>1114647</v>
       </c>
       <c r="AA36" s="19">
-        <v>1787190</v>
+        <v>1401841</v>
       </c>
       <c r="AB36" s="19">
-        <v>1114647</v>
+        <v>1137428</v>
       </c>
       <c r="AC36" s="19">
-        <v>1401841</v>
+        <v>1290676</v>
       </c>
       <c r="AD36" s="19">
-        <v>1137428</v>
+        <v>1294870</v>
       </c>
       <c r="AE36" s="19">
-        <v>1290676</v>
+        <v>1334898</v>
       </c>
       <c r="AF36" s="19">
-        <v>1294870</v>
+        <v>1206052</v>
       </c>
       <c r="AG36" s="19">
-        <v>1334898</v>
+        <v>1654232</v>
       </c>
       <c r="AH36" s="19">
-        <v>1206052</v>
+        <v>2003506</v>
       </c>
       <c r="AI36" s="19">
-        <v>1654232</v>
+        <v>1746637</v>
       </c>
       <c r="AJ36" s="19">
-        <v>2003506</v>
+        <v>1398790</v>
       </c>
       <c r="AK36" s="19">
-        <v>1746637</v>
+        <v>1602243</v>
       </c>
       <c r="AL36" s="19">
-        <v>1398790</v>
+        <v>1383956</v>
       </c>
       <c r="AM36" s="19">
-        <v>1602243</v>
+        <v>1240179</v>
       </c>
       <c r="AN36" s="19">
-        <v>1383956</v>
+        <v>1183535</v>
       </c>
       <c r="AO36" s="19">
-        <v>1240179</v>
+        <v>1001890</v>
       </c>
       <c r="AP36" s="19">
-        <v>1183535</v>
+        <v>1118835</v>
       </c>
       <c r="AQ36" s="19">
-        <v>1001890</v>
+        <v>1228247</v>
       </c>
       <c r="AR36" s="19">
-        <v>2120863</v>
+        <v>1352108</v>
       </c>
       <c r="AS36" s="19">
-        <v>1228247</v>
+        <v>1351981</v>
       </c>
       <c r="AT36" s="19">
-        <v>1352108</v>
+        <v>2038083</v>
       </c>
       <c r="AU36" s="19">
-        <v>1351981</v>
+        <v>1602256</v>
       </c>
       <c r="AV36" s="19">
-        <v>2038083</v>
+        <v>1737875</v>
       </c>
       <c r="AW36" s="19">
-        <v>1602256</v>
+        <v>1399170</v>
       </c>
       <c r="AX36" s="19">
-        <v>1737875</v>
+        <v>1723409</v>
       </c>
       <c r="AY36" s="19">
-        <v>1399170</v>
+        <v>1228904</v>
       </c>
       <c r="AZ36" s="19">
-        <v>1723409</v>
+        <v>1075803</v>
       </c>
       <c r="BA36" s="19">
-        <v>1228904</v>
+        <v>2060509</v>
       </c>
       <c r="BB36" s="19">
-        <v>1075803</v>
+        <v>1568202</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4750,7 +4750,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4805,7 +4805,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4860,7 +4860,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>67</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5072,7 +5072,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>67</v>
       </c>
@@ -5129,7 +5129,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>55</v>
       </c>
@@ -5138,157 +5138,157 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>89739</v>
+        <v>178056</v>
       </c>
       <c r="F43" s="11">
-        <v>104881</v>
+        <v>184527</v>
       </c>
       <c r="G43" s="11">
-        <v>178056</v>
+        <v>183206</v>
       </c>
       <c r="H43" s="11">
-        <v>184527</v>
+        <v>83146</v>
       </c>
       <c r="I43" s="11">
-        <v>183206</v>
+        <v>218396</v>
       </c>
       <c r="J43" s="11">
-        <v>83146</v>
+        <v>208594</v>
       </c>
       <c r="K43" s="11">
-        <v>218396</v>
+        <v>311904</v>
       </c>
       <c r="L43" s="11">
-        <v>208594</v>
+        <v>215220</v>
       </c>
       <c r="M43" s="11">
-        <v>311904</v>
+        <v>194609</v>
       </c>
       <c r="N43" s="11">
-        <v>215220</v>
+        <v>229415</v>
       </c>
       <c r="O43" s="11">
-        <v>194609</v>
+        <v>155098</v>
       </c>
       <c r="P43" s="11">
-        <v>229415</v>
+        <v>315405</v>
       </c>
       <c r="Q43" s="11">
-        <v>155098</v>
+        <v>258163</v>
       </c>
       <c r="R43" s="11">
-        <v>315405</v>
+        <v>272931</v>
       </c>
       <c r="S43" s="11">
-        <v>258163</v>
+        <v>308494</v>
       </c>
       <c r="T43" s="11">
-        <v>272931</v>
+        <v>142161</v>
       </c>
       <c r="U43" s="11">
-        <v>308494</v>
+        <v>363465</v>
       </c>
       <c r="V43" s="11">
-        <v>142161</v>
+        <v>369726</v>
       </c>
       <c r="W43" s="11">
-        <v>363465</v>
+        <v>439030</v>
       </c>
       <c r="X43" s="11">
-        <v>369726</v>
+        <v>594183</v>
       </c>
       <c r="Y43" s="11">
-        <v>439030</v>
+        <v>607767</v>
       </c>
       <c r="Z43" s="11">
-        <v>594183</v>
+        <v>418778</v>
       </c>
       <c r="AA43" s="11">
-        <v>607767</v>
+        <v>521588</v>
       </c>
       <c r="AB43" s="11">
-        <v>418778</v>
+        <v>420759</v>
       </c>
       <c r="AC43" s="11">
-        <v>521588</v>
+        <v>507849</v>
       </c>
       <c r="AD43" s="11">
-        <v>420759</v>
+        <v>487644</v>
       </c>
       <c r="AE43" s="11">
-        <v>507849</v>
+        <v>491819</v>
       </c>
       <c r="AF43" s="11">
-        <v>487644</v>
+        <v>494117</v>
       </c>
       <c r="AG43" s="11">
-        <v>491819</v>
+        <v>623424</v>
       </c>
       <c r="AH43" s="11">
-        <v>494117</v>
+        <v>841197</v>
       </c>
       <c r="AI43" s="11">
-        <v>623424</v>
+        <v>839417</v>
       </c>
       <c r="AJ43" s="11">
-        <v>841197</v>
+        <v>611912</v>
       </c>
       <c r="AK43" s="11">
-        <v>839417</v>
+        <v>732879</v>
       </c>
       <c r="AL43" s="11">
-        <v>611912</v>
+        <v>639877</v>
       </c>
       <c r="AM43" s="11">
-        <v>732879</v>
+        <v>620503</v>
       </c>
       <c r="AN43" s="11">
-        <v>639877</v>
+        <v>628115</v>
       </c>
       <c r="AO43" s="11">
-        <v>620503</v>
+        <v>566964</v>
       </c>
       <c r="AP43" s="11">
-        <v>628115</v>
+        <v>712736</v>
       </c>
       <c r="AQ43" s="11">
-        <v>566964</v>
+        <v>639041</v>
       </c>
       <c r="AR43" s="11">
-        <v>712736</v>
+        <v>744541</v>
       </c>
       <c r="AS43" s="11">
-        <v>639041</v>
+        <v>965683</v>
       </c>
       <c r="AT43" s="11">
-        <v>744541</v>
+        <v>1442823</v>
       </c>
       <c r="AU43" s="11">
-        <v>965683</v>
+        <v>1200159</v>
       </c>
       <c r="AV43" s="11">
-        <v>1442823</v>
+        <v>1285313</v>
       </c>
       <c r="AW43" s="11">
-        <v>1200159</v>
+        <v>1291895</v>
       </c>
       <c r="AX43" s="11">
-        <v>1285313</v>
+        <v>1246502</v>
       </c>
       <c r="AY43" s="11">
-        <v>1291895</v>
+        <v>914363</v>
       </c>
       <c r="AZ43" s="11">
-        <v>1246502</v>
+        <v>914614</v>
       </c>
       <c r="BA43" s="11">
-        <v>914363</v>
+        <v>1694695</v>
       </c>
       <c r="BB43" s="11">
-        <v>914614</v>
+        <v>1393743</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5297,91 +5297,91 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>8179</v>
+        <v>6424</v>
       </c>
       <c r="F44" s="13">
-        <v>5477</v>
+        <v>8188</v>
       </c>
       <c r="G44" s="13">
-        <v>6424</v>
+        <v>10834</v>
       </c>
       <c r="H44" s="13">
-        <v>8188</v>
+        <v>1285</v>
       </c>
       <c r="I44" s="13">
-        <v>10834</v>
+        <v>24197</v>
       </c>
       <c r="J44" s="13">
-        <v>1285</v>
+        <v>5605</v>
       </c>
       <c r="K44" s="13">
-        <v>24197</v>
+        <v>14128</v>
       </c>
       <c r="L44" s="13">
-        <v>5605</v>
+        <v>14602</v>
       </c>
       <c r="M44" s="13">
-        <v>14128</v>
+        <v>10598</v>
       </c>
       <c r="N44" s="13">
-        <v>14602</v>
+        <v>12043</v>
       </c>
       <c r="O44" s="13">
-        <v>10598</v>
+        <v>9105</v>
       </c>
       <c r="P44" s="13">
-        <v>12043</v>
+        <v>21589</v>
       </c>
       <c r="Q44" s="13">
-        <v>9105</v>
+        <v>14839</v>
       </c>
       <c r="R44" s="13">
-        <v>21589</v>
+        <v>5556</v>
       </c>
       <c r="S44" s="13">
-        <v>14839</v>
+        <v>11966</v>
       </c>
       <c r="T44" s="13">
-        <v>5556</v>
+        <v>8888</v>
       </c>
       <c r="U44" s="13">
-        <v>11966</v>
+        <v>23327</v>
       </c>
       <c r="V44" s="13">
-        <v>8888</v>
+        <v>18354</v>
       </c>
       <c r="W44" s="13">
-        <v>23327</v>
+        <v>33000</v>
       </c>
       <c r="X44" s="13">
-        <v>18354</v>
+        <v>24698</v>
       </c>
       <c r="Y44" s="13">
-        <v>33000</v>
+        <v>22632</v>
       </c>
       <c r="Z44" s="13">
-        <v>24698</v>
+        <v>34146</v>
       </c>
       <c r="AA44" s="13">
-        <v>22632</v>
+        <v>27973</v>
       </c>
       <c r="AB44" s="13">
-        <v>34146</v>
+        <v>32017</v>
       </c>
       <c r="AC44" s="13">
-        <v>27973</v>
+        <v>29834</v>
       </c>
       <c r="AD44" s="13">
-        <v>32017</v>
+        <v>26238</v>
       </c>
       <c r="AE44" s="13">
-        <v>29834</v>
+        <v>39047</v>
       </c>
       <c r="AF44" s="13">
-        <v>26238</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="13">
-        <v>39047</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="13">
         <v>0</v>
@@ -5411,14 +5411,14 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="13">
-        <v>560917</v>
-      </c>
-      <c r="AS44" s="13">
         <v>47148</v>
       </c>
+      <c r="AR44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS44" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT44" s="13" t="s">
         <v>58</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>59</v>
       </c>
@@ -5456,157 +5456,157 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>60112</v>
+        <v>56393</v>
       </c>
       <c r="F45" s="11">
-        <v>58724</v>
+        <v>121770</v>
       </c>
       <c r="G45" s="11">
-        <v>56393</v>
+        <v>83772</v>
       </c>
       <c r="H45" s="11">
-        <v>121770</v>
+        <v>37176</v>
       </c>
       <c r="I45" s="11">
-        <v>83772</v>
+        <v>51597</v>
       </c>
       <c r="J45" s="11">
-        <v>37176</v>
+        <v>70146</v>
       </c>
       <c r="K45" s="11">
-        <v>51597</v>
+        <v>83985</v>
       </c>
       <c r="L45" s="11">
-        <v>70146</v>
+        <v>51589</v>
       </c>
       <c r="M45" s="11">
-        <v>83985</v>
+        <v>73478</v>
       </c>
       <c r="N45" s="11">
-        <v>51589</v>
+        <v>82483</v>
       </c>
       <c r="O45" s="11">
-        <v>73478</v>
+        <v>85384</v>
       </c>
       <c r="P45" s="11">
-        <v>82483</v>
+        <v>57397</v>
       </c>
       <c r="Q45" s="11">
-        <v>85384</v>
+        <v>111068</v>
       </c>
       <c r="R45" s="11">
-        <v>57397</v>
+        <v>115463</v>
       </c>
       <c r="S45" s="11">
-        <v>111068</v>
+        <v>54480</v>
       </c>
       <c r="T45" s="11">
-        <v>115463</v>
+        <v>52505</v>
       </c>
       <c r="U45" s="11">
-        <v>54480</v>
+        <v>65563</v>
       </c>
       <c r="V45" s="11">
-        <v>52505</v>
+        <v>97042</v>
       </c>
       <c r="W45" s="11">
-        <v>65563</v>
+        <v>145452</v>
       </c>
       <c r="X45" s="11">
-        <v>97042</v>
+        <v>138377</v>
       </c>
       <c r="Y45" s="11">
-        <v>145452</v>
+        <v>177321</v>
       </c>
       <c r="Z45" s="11">
-        <v>138377</v>
+        <v>98639</v>
       </c>
       <c r="AA45" s="11">
-        <v>177321</v>
+        <v>170127</v>
       </c>
       <c r="AB45" s="11">
-        <v>98639</v>
+        <v>102130</v>
       </c>
       <c r="AC45" s="11">
-        <v>170127</v>
+        <v>127383</v>
       </c>
       <c r="AD45" s="11">
-        <v>102130</v>
+        <v>131257</v>
       </c>
       <c r="AE45" s="11">
-        <v>127383</v>
+        <v>146407</v>
       </c>
       <c r="AF45" s="11">
-        <v>131257</v>
+        <v>139031</v>
       </c>
       <c r="AG45" s="11">
-        <v>146407</v>
+        <v>195810</v>
       </c>
       <c r="AH45" s="11">
-        <v>139031</v>
+        <v>220573</v>
       </c>
       <c r="AI45" s="11">
-        <v>195810</v>
+        <v>137294</v>
       </c>
       <c r="AJ45" s="11">
-        <v>220573</v>
+        <v>228423</v>
       </c>
       <c r="AK45" s="11">
-        <v>137294</v>
+        <v>251605</v>
       </c>
       <c r="AL45" s="11">
-        <v>228423</v>
+        <v>228593</v>
       </c>
       <c r="AM45" s="11">
-        <v>251605</v>
+        <v>187794</v>
       </c>
       <c r="AN45" s="11">
-        <v>228593</v>
+        <v>197243</v>
       </c>
       <c r="AO45" s="11">
-        <v>187794</v>
+        <v>169773</v>
       </c>
       <c r="AP45" s="11">
-        <v>197243</v>
+        <v>50395</v>
       </c>
       <c r="AQ45" s="11">
-        <v>169773</v>
+        <v>113190</v>
       </c>
       <c r="AR45" s="11">
-        <v>50395</v>
+        <v>164766</v>
       </c>
       <c r="AS45" s="11">
-        <v>113190</v>
+        <v>183635</v>
       </c>
       <c r="AT45" s="11">
-        <v>164766</v>
+        <v>217455</v>
       </c>
       <c r="AU45" s="11">
-        <v>183635</v>
+        <v>180287</v>
       </c>
       <c r="AV45" s="11">
-        <v>217455</v>
+        <v>188122</v>
       </c>
       <c r="AW45" s="11">
-        <v>180287</v>
+        <v>188906</v>
       </c>
       <c r="AX45" s="11">
-        <v>188122</v>
+        <v>285662</v>
       </c>
       <c r="AY45" s="11">
-        <v>188906</v>
+        <v>139121</v>
       </c>
       <c r="AZ45" s="11">
-        <v>285662</v>
+        <v>121988</v>
       </c>
       <c r="BA45" s="11">
-        <v>139121</v>
+        <v>245951</v>
       </c>
       <c r="BB45" s="11">
-        <v>121988</v>
+        <v>100048</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>60</v>
       </c>
@@ -5695,77 +5695,77 @@
       <c r="AE46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG46" s="13" t="s">
-        <v>58</v>
+      <c r="AF46" s="13">
+        <v>26245</v>
+      </c>
+      <c r="AG46" s="13">
+        <v>61856</v>
       </c>
       <c r="AH46" s="13">
-        <v>26245</v>
+        <v>67802</v>
       </c>
       <c r="AI46" s="13">
-        <v>61856</v>
+        <v>61484</v>
       </c>
       <c r="AJ46" s="13">
-        <v>67802</v>
+        <v>59403</v>
       </c>
       <c r="AK46" s="13">
-        <v>61484</v>
+        <v>64199</v>
       </c>
       <c r="AL46" s="13">
-        <v>59403</v>
+        <v>37627</v>
       </c>
       <c r="AM46" s="13">
-        <v>64199</v>
+        <v>56308</v>
       </c>
       <c r="AN46" s="13">
-        <v>37627</v>
+        <v>44349</v>
       </c>
       <c r="AO46" s="13">
-        <v>56308</v>
+        <v>33883</v>
       </c>
       <c r="AP46" s="13">
-        <v>44349</v>
-      </c>
-      <c r="AQ46" s="13">
-        <v>33883</v>
-      </c>
-      <c r="AR46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS46" s="13" t="s">
-        <v>58</v>
+        <v>47761</v>
+      </c>
+      <c r="AQ46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR46" s="13">
+        <v>55545</v>
+      </c>
+      <c r="AS46" s="13">
+        <v>55612</v>
       </c>
       <c r="AT46" s="13">
-        <v>55545</v>
+        <v>81400</v>
       </c>
       <c r="AU46" s="13">
-        <v>55612</v>
+        <v>62593</v>
       </c>
       <c r="AV46" s="13">
-        <v>81400</v>
+        <v>59882</v>
       </c>
       <c r="AW46" s="13">
-        <v>62593</v>
+        <v>66870</v>
       </c>
       <c r="AX46" s="13">
-        <v>59882</v>
+        <v>11365</v>
       </c>
       <c r="AY46" s="13">
-        <v>66870</v>
+        <v>124274</v>
       </c>
       <c r="AZ46" s="13">
-        <v>11365</v>
+        <v>93404</v>
       </c>
       <c r="BA46" s="13">
-        <v>124274</v>
+        <v>75929</v>
       </c>
       <c r="BB46" s="13">
-        <v>93404</v>
+        <v>144642</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>69</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="BA47" s="15"/>
       <c r="BB47" s="15"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>62</v>
       </c>
@@ -5884,11 +5884,11 @@
       <c r="V48" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W48" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X48" s="17" t="s">
-        <v>58</v>
+      <c r="W48" s="17">
+        <v>0</v>
+      </c>
+      <c r="X48" s="17">
+        <v>0</v>
       </c>
       <c r="Y48" s="17">
         <v>0</v>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>70</v>
       </c>
@@ -6038,7 +6038,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>55</v>
       </c>
@@ -6106,44 +6106,44 @@
       <c r="X50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z50" s="11" t="s">
-        <v>58</v>
+      <c r="Y50" s="11">
+        <v>-537</v>
+      </c>
+      <c r="Z50" s="11">
+        <v>0</v>
       </c>
       <c r="AA50" s="11">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="11">
         <v>0</v>
       </c>
       <c r="AC50" s="11">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AD50" s="11">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AE50" s="11">
-        <v>-48</v>
-      </c>
-      <c r="AF50" s="11">
-        <v>-32</v>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="11" t="s">
-        <v>58</v>
+        <v>-534</v>
+      </c>
+      <c r="AH50" s="11">
+        <v>0</v>
       </c>
       <c r="AI50" s="11">
-        <v>-534</v>
+        <v>-480</v>
       </c>
       <c r="AJ50" s="11">
         <v>0</v>
       </c>
       <c r="AK50" s="11">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="11">
         <v>0</v>
@@ -6158,34 +6158,34 @@
         <v>0</v>
       </c>
       <c r="AP50" s="11">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AQ50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR50" s="11">
-        <v>-11</v>
+        <v>-18919</v>
+      </c>
+      <c r="AR50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS50" s="11">
-        <v>-18919</v>
-      </c>
-      <c r="AT50" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AT50" s="11">
+        <v>0</v>
       </c>
       <c r="AU50" s="11">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AV50" s="11">
         <v>0</v>
       </c>
       <c r="AW50" s="11">
-        <v>-8</v>
+        <v>-232282</v>
       </c>
       <c r="AX50" s="11">
         <v>0</v>
       </c>
       <c r="AY50" s="11">
-        <v>-232282</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="11">
         <v>0</v>
@@ -6194,10 +6194,10 @@
         <v>0</v>
       </c>
       <c r="BB50" s="11">
-        <v>0</v>
+        <v>-29177</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>57</v>
       </c>
@@ -6295,14 +6295,14 @@
       <c r="AH51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ51" s="13" t="s">
-        <v>58</v>
+      <c r="AI51" s="13">
+        <v>-9</v>
+      </c>
+      <c r="AJ51" s="13">
+        <v>0</v>
       </c>
       <c r="AK51" s="13">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="13">
         <v>0</v>
@@ -6322,11 +6322,11 @@
       <c r="AQ51" s="13">
         <v>0</v>
       </c>
-      <c r="AR51" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS51" s="13">
-        <v>0</v>
+      <c r="AR51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT51" s="13" t="s">
         <v>58</v>
@@ -6356,7 +6356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>59</v>
       </c>
@@ -6460,14 +6460,14 @@
       <c r="AJ52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL52" s="11" t="s">
-        <v>58</v>
+      <c r="AK52" s="11">
+        <v>-228</v>
+      </c>
+      <c r="AL52" s="11">
+        <v>0</v>
       </c>
       <c r="AM52" s="11">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AN52" s="11">
         <v>0</v>
@@ -6479,31 +6479,31 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS52" s="11">
         <v>-8665</v>
       </c>
+      <c r="AR52" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS52" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV52" s="11" t="s">
-        <v>58</v>
+      <c r="AU52" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AV52" s="11">
+        <v>0</v>
       </c>
       <c r="AW52" s="11">
-        <v>-1</v>
+        <v>-46804</v>
       </c>
       <c r="AX52" s="11">
         <v>0</v>
       </c>
       <c r="AY52" s="11">
-        <v>-46804</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="11">
         <v>0</v>
@@ -6512,10 +6512,10 @@
         <v>0</v>
       </c>
       <c r="BB52" s="11">
-        <v>0</v>
+        <v>-11468</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>60</v>
       </c>
@@ -6649,14 +6649,14 @@
       <c r="AT53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV53" s="13" t="s">
-        <v>58</v>
+      <c r="AU53" s="13">
+        <v>-10250</v>
+      </c>
+      <c r="AV53" s="13">
+        <v>0</v>
       </c>
       <c r="AW53" s="13">
-        <v>-10250</v>
+        <v>0</v>
       </c>
       <c r="AX53" s="13">
         <v>0</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>66</v>
       </c>
@@ -6736,56 +6736,56 @@
       <c r="V54" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="17" t="s">
-        <v>58</v>
+      <c r="W54" s="17">
+        <v>0</v>
+      </c>
+      <c r="X54" s="17">
+        <v>0</v>
       </c>
       <c r="Y54" s="17">
-        <v>0</v>
+        <v>-537</v>
       </c>
       <c r="Z54" s="17">
         <v>0</v>
       </c>
       <c r="AA54" s="17">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="17">
         <v>0</v>
       </c>
       <c r="AC54" s="17">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AD54" s="17">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AE54" s="17">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="17">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="17">
-        <v>0</v>
+        <v>-534</v>
       </c>
       <c r="AH54" s="17">
         <v>0</v>
       </c>
       <c r="AI54" s="17">
-        <v>-534</v>
+        <v>-489</v>
       </c>
       <c r="AJ54" s="17">
         <v>0</v>
       </c>
       <c r="AK54" s="17">
-        <v>-489</v>
+        <v>-228</v>
       </c>
       <c r="AL54" s="17">
         <v>0</v>
       </c>
       <c r="AM54" s="17">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AN54" s="17">
         <v>0</v>
@@ -6794,34 +6794,34 @@
         <v>0</v>
       </c>
       <c r="AP54" s="17">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AQ54" s="17">
-        <v>0</v>
+        <v>-27584</v>
       </c>
       <c r="AR54" s="17">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AS54" s="17">
-        <v>-27584</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="17">
         <v>0</v>
       </c>
       <c r="AU54" s="17">
-        <v>0</v>
+        <v>-10259</v>
       </c>
       <c r="AV54" s="17">
         <v>0</v>
       </c>
       <c r="AW54" s="17">
-        <v>-10259</v>
+        <v>-279086</v>
       </c>
       <c r="AX54" s="17">
         <v>0</v>
       </c>
       <c r="AY54" s="17">
-        <v>-279086</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="17">
         <v>0</v>
@@ -6830,10 +6830,10 @@
         <v>0</v>
       </c>
       <c r="BB54" s="17">
-        <v>0</v>
+        <v>-40645</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>71</v>
       </c>
@@ -6890,7 +6890,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
@@ -6952,89 +6952,89 @@
       <c r="V56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="11" t="s">
-        <v>58</v>
+      <c r="W56" s="11">
+        <v>-643</v>
+      </c>
+      <c r="X56" s="11">
+        <v>-325</v>
       </c>
       <c r="Y56" s="11">
-        <v>-643</v>
+        <v>-3860</v>
       </c>
       <c r="Z56" s="11">
-        <v>-325</v>
+        <v>0</v>
       </c>
       <c r="AA56" s="11">
-        <v>-3860</v>
+        <v>0</v>
       </c>
       <c r="AB56" s="11">
         <v>0</v>
       </c>
       <c r="AC56" s="11">
-        <v>0</v>
+        <v>-455</v>
       </c>
       <c r="AD56" s="11">
-        <v>0</v>
+        <v>-472</v>
       </c>
       <c r="AE56" s="11">
-        <v>-455</v>
+        <v>-259</v>
       </c>
       <c r="AF56" s="11">
-        <v>-472</v>
+        <v>-6</v>
       </c>
       <c r="AG56" s="11">
-        <v>-259</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="11">
-        <v>-6</v>
+        <v>-47</v>
       </c>
       <c r="AI56" s="11">
-        <v>0</v>
+        <v>-58</v>
       </c>
       <c r="AJ56" s="11">
-        <v>-47</v>
+        <v>-7683</v>
       </c>
       <c r="AK56" s="11">
-        <v>-58</v>
+        <v>-8058</v>
       </c>
       <c r="AL56" s="11">
-        <v>-7683</v>
+        <v>-8049</v>
       </c>
       <c r="AM56" s="11">
-        <v>-8058</v>
+        <v>-8065</v>
       </c>
       <c r="AN56" s="11">
-        <v>-8049</v>
+        <v>-7978</v>
       </c>
       <c r="AO56" s="11">
-        <v>-8065</v>
+        <v>-31864</v>
       </c>
       <c r="AP56" s="11">
-        <v>-7978</v>
+        <v>-22230</v>
       </c>
       <c r="AQ56" s="11">
-        <v>-31864</v>
+        <v>-22531</v>
       </c>
       <c r="AR56" s="11">
-        <v>-22230</v>
+        <v>-56</v>
       </c>
       <c r="AS56" s="11">
-        <v>-22531</v>
+        <v>-1</v>
       </c>
       <c r="AT56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV56" s="11">
         <v>-56</v>
       </c>
-      <c r="AU56" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AV56" s="11">
-        <v>0</v>
-      </c>
       <c r="AW56" s="11">
         <v>0</v>
       </c>
       <c r="AX56" s="11">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="AY56" s="11">
         <v>0</v>
@@ -7049,164 +7049,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19">
-        <v>158030</v>
+        <v>240873</v>
       </c>
       <c r="F57" s="19">
-        <v>169082</v>
+        <v>314485</v>
       </c>
       <c r="G57" s="19">
-        <v>240873</v>
+        <v>277812</v>
       </c>
       <c r="H57" s="19">
-        <v>314485</v>
+        <v>121607</v>
       </c>
       <c r="I57" s="19">
-        <v>277812</v>
+        <v>294190</v>
       </c>
       <c r="J57" s="19">
-        <v>121607</v>
+        <v>284345</v>
       </c>
       <c r="K57" s="19">
-        <v>294190</v>
+        <v>410017</v>
       </c>
       <c r="L57" s="19">
-        <v>284345</v>
+        <v>281411</v>
       </c>
       <c r="M57" s="19">
-        <v>410017</v>
+        <v>278685</v>
       </c>
       <c r="N57" s="19">
-        <v>281411</v>
+        <v>323941</v>
       </c>
       <c r="O57" s="19">
-        <v>278685</v>
+        <v>249587</v>
       </c>
       <c r="P57" s="19">
-        <v>323941</v>
+        <v>394391</v>
       </c>
       <c r="Q57" s="19">
-        <v>249587</v>
+        <v>384070</v>
       </c>
       <c r="R57" s="19">
-        <v>394391</v>
+        <v>393950</v>
       </c>
       <c r="S57" s="19">
-        <v>384070</v>
+        <v>374940</v>
       </c>
       <c r="T57" s="19">
-        <v>393950</v>
+        <v>203554</v>
       </c>
       <c r="U57" s="19">
-        <v>374940</v>
+        <v>452355</v>
       </c>
       <c r="V57" s="19">
-        <v>203554</v>
+        <v>485122</v>
       </c>
       <c r="W57" s="19">
-        <v>452355</v>
+        <v>616839</v>
       </c>
       <c r="X57" s="19">
-        <v>485122</v>
+        <v>756933</v>
       </c>
       <c r="Y57" s="19">
-        <v>616839</v>
+        <v>803323</v>
       </c>
       <c r="Z57" s="19">
-        <v>756933</v>
+        <v>551563</v>
       </c>
       <c r="AA57" s="19">
-        <v>803323</v>
+        <v>719688</v>
       </c>
       <c r="AB57" s="19">
-        <v>551563</v>
+        <v>554906</v>
       </c>
       <c r="AC57" s="19">
-        <v>719688</v>
+        <v>664563</v>
       </c>
       <c r="AD57" s="19">
-        <v>554906</v>
+        <v>644635</v>
       </c>
       <c r="AE57" s="19">
-        <v>664563</v>
+        <v>677014</v>
       </c>
       <c r="AF57" s="19">
-        <v>644635</v>
+        <v>659387</v>
       </c>
       <c r="AG57" s="19">
-        <v>677014</v>
+        <v>880556</v>
       </c>
       <c r="AH57" s="19">
-        <v>659387</v>
+        <v>1129525</v>
       </c>
       <c r="AI57" s="19">
-        <v>880556</v>
+        <v>1037648</v>
       </c>
       <c r="AJ57" s="19">
-        <v>1129525</v>
+        <v>892055</v>
       </c>
       <c r="AK57" s="19">
-        <v>1037648</v>
+        <v>1040397</v>
       </c>
       <c r="AL57" s="19">
-        <v>892055</v>
+        <v>898048</v>
       </c>
       <c r="AM57" s="19">
-        <v>1040397</v>
+        <v>856540</v>
       </c>
       <c r="AN57" s="19">
-        <v>898048</v>
+        <v>861729</v>
       </c>
       <c r="AO57" s="19">
-        <v>856540</v>
+        <v>738756</v>
       </c>
       <c r="AP57" s="19">
-        <v>861729</v>
+        <v>788651</v>
       </c>
       <c r="AQ57" s="19">
-        <v>738756</v>
+        <v>749264</v>
       </c>
       <c r="AR57" s="19">
-        <v>1301807</v>
+        <v>964796</v>
       </c>
       <c r="AS57" s="19">
-        <v>749264</v>
+        <v>1204929</v>
       </c>
       <c r="AT57" s="19">
-        <v>964796</v>
+        <v>1741678</v>
       </c>
       <c r="AU57" s="19">
-        <v>1204929</v>
+        <v>1432780</v>
       </c>
       <c r="AV57" s="19">
-        <v>1741678</v>
+        <v>1533261</v>
       </c>
       <c r="AW57" s="19">
-        <v>1432780</v>
+        <v>1268585</v>
       </c>
       <c r="AX57" s="19">
-        <v>1533261</v>
+        <v>1543529</v>
       </c>
       <c r="AY57" s="19">
-        <v>1268585</v>
+        <v>1177758</v>
       </c>
       <c r="AZ57" s="19">
-        <v>1543529</v>
+        <v>1130006</v>
       </c>
       <c r="BA57" s="19">
-        <v>1177758</v>
+        <v>2016575</v>
       </c>
       <c r="BB57" s="19">
-        <v>1130006</v>
+        <v>1597788</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -7261,7 +7261,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7316,7 +7316,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -7371,7 +7371,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>73</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -7583,7 +7583,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>74</v>
       </c>
@@ -7640,7 +7640,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>55</v>
       </c>
@@ -7649,157 +7649,157 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>201814</v>
+        <v>202306</v>
       </c>
       <c r="F64" s="11">
-        <v>202339</v>
+        <v>202795</v>
       </c>
       <c r="G64" s="11">
-        <v>202306</v>
+        <v>200477</v>
       </c>
       <c r="H64" s="11">
-        <v>202795</v>
+        <v>216242</v>
       </c>
       <c r="I64" s="11">
-        <v>200477</v>
+        <v>241388</v>
       </c>
       <c r="J64" s="11">
-        <v>216242</v>
+        <v>247472</v>
       </c>
       <c r="K64" s="11">
-        <v>241388</v>
+        <v>268167</v>
       </c>
       <c r="L64" s="11">
-        <v>247472</v>
+        <v>271265</v>
       </c>
       <c r="M64" s="11">
-        <v>268167</v>
+        <v>267164</v>
       </c>
       <c r="N64" s="11">
-        <v>271265</v>
+        <v>267761</v>
       </c>
       <c r="O64" s="11">
-        <v>267164</v>
+        <v>277161</v>
       </c>
       <c r="P64" s="11">
-        <v>267761</v>
+        <v>275617</v>
       </c>
       <c r="Q64" s="11">
-        <v>277161</v>
+        <v>279100</v>
       </c>
       <c r="R64" s="11">
-        <v>275617</v>
+        <v>281438</v>
       </c>
       <c r="S64" s="11">
-        <v>279100</v>
+        <v>267416</v>
       </c>
       <c r="T64" s="11">
-        <v>281438</v>
+        <v>271969</v>
       </c>
       <c r="U64" s="11">
-        <v>267416</v>
+        <v>301869</v>
       </c>
       <c r="V64" s="11">
-        <v>271969</v>
+        <v>328951</v>
       </c>
       <c r="W64" s="11">
-        <v>301869</v>
+        <v>378193</v>
       </c>
       <c r="X64" s="11">
-        <v>328951</v>
+        <v>434309</v>
       </c>
       <c r="Y64" s="11">
-        <v>378193</v>
+        <v>439597</v>
       </c>
       <c r="Z64" s="11">
-        <v>434309</v>
+        <v>486239</v>
       </c>
       <c r="AA64" s="11">
-        <v>439597</v>
+        <v>497773</v>
       </c>
       <c r="AB64" s="11">
-        <v>486239</v>
+        <v>481886</v>
       </c>
       <c r="AC64" s="11">
-        <v>497773</v>
+        <v>505399</v>
       </c>
       <c r="AD64" s="11">
-        <v>481886</v>
+        <v>488905</v>
       </c>
       <c r="AE64" s="11">
-        <v>505399</v>
+        <v>499485</v>
       </c>
       <c r="AF64" s="11">
-        <v>488905</v>
+        <v>532171</v>
       </c>
       <c r="AG64" s="11">
-        <v>499485</v>
+        <v>520401</v>
       </c>
       <c r="AH64" s="11">
-        <v>532171</v>
+        <v>543709</v>
       </c>
       <c r="AI64" s="11">
-        <v>520401</v>
+        <v>573423</v>
       </c>
       <c r="AJ64" s="11">
-        <v>543709</v>
+        <v>609384</v>
       </c>
       <c r="AK64" s="11">
-        <v>573423</v>
+        <v>631952</v>
       </c>
       <c r="AL64" s="11">
-        <v>609384</v>
+        <v>629855</v>
       </c>
       <c r="AM64" s="11">
-        <v>631952</v>
+        <v>675583</v>
       </c>
       <c r="AN64" s="11">
-        <v>629855</v>
+        <v>727495</v>
       </c>
       <c r="AO64" s="11">
-        <v>675583</v>
+        <v>755698</v>
       </c>
       <c r="AP64" s="11">
-        <v>727495</v>
+        <v>731074</v>
       </c>
       <c r="AQ64" s="11">
-        <v>755698</v>
+        <v>639915</v>
       </c>
       <c r="AR64" s="11">
-        <v>731074</v>
+        <v>700566</v>
       </c>
       <c r="AS64" s="11">
-        <v>639915</v>
+        <v>906529</v>
       </c>
       <c r="AT64" s="11">
-        <v>700566</v>
+        <v>863517</v>
       </c>
       <c r="AU64" s="11">
-        <v>906529</v>
+        <v>903290</v>
       </c>
       <c r="AV64" s="11">
-        <v>863517</v>
+        <v>894850</v>
       </c>
       <c r="AW64" s="11">
-        <v>903290</v>
+        <v>927104</v>
       </c>
       <c r="AX64" s="11">
-        <v>894850</v>
+        <v>885284</v>
       </c>
       <c r="AY64" s="11">
-        <v>927104</v>
+        <v>988528</v>
       </c>
       <c r="AZ64" s="11">
-        <v>885284</v>
+        <v>1067728</v>
       </c>
       <c r="BA64" s="11">
-        <v>988528</v>
+        <v>976711</v>
       </c>
       <c r="BB64" s="11">
-        <v>1067728</v>
+        <v>1045735</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>57</v>
       </c>
@@ -7808,92 +7808,92 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>157319</v>
+        <v>163502</v>
       </c>
       <c r="F65" s="13">
-        <v>164836</v>
+        <v>165411</v>
       </c>
       <c r="G65" s="13">
-        <v>163502</v>
+        <v>314613</v>
       </c>
       <c r="H65" s="13">
-        <v>165411</v>
+        <v>204781</v>
       </c>
       <c r="I65" s="13">
-        <v>314613</v>
+        <v>159213</v>
       </c>
       <c r="J65" s="13">
-        <v>204781</v>
+        <v>259840</v>
       </c>
       <c r="K65" s="13">
-        <v>159213</v>
+        <v>220210</v>
       </c>
       <c r="L65" s="13">
-        <v>259840</v>
+        <v>224646</v>
       </c>
       <c r="M65" s="13">
-        <v>220210</v>
+        <v>214769</v>
       </c>
       <c r="N65" s="13">
-        <v>224646</v>
+        <v>229356</v>
       </c>
       <c r="O65" s="13">
-        <v>214769</v>
+        <v>222954</v>
       </c>
       <c r="P65" s="13">
-        <v>229356</v>
+        <v>233506</v>
       </c>
       <c r="Q65" s="13">
-        <v>222954</v>
+        <v>238339</v>
       </c>
       <c r="R65" s="13">
-        <v>233506</v>
+        <v>216718</v>
       </c>
       <c r="S65" s="13">
-        <v>238339</v>
+        <v>213591</v>
       </c>
       <c r="T65" s="13">
-        <v>216718</v>
+        <v>215535</v>
       </c>
       <c r="U65" s="13">
-        <v>213591</v>
+        <v>242542</v>
       </c>
       <c r="V65" s="13">
-        <v>215535</v>
+        <v>247662</v>
       </c>
       <c r="W65" s="13">
-        <v>242542</v>
+        <v>270763</v>
       </c>
       <c r="X65" s="13">
-        <v>247662</v>
+        <v>288491</v>
       </c>
       <c r="Y65" s="13">
-        <v>270763</v>
+        <v>287113</v>
       </c>
       <c r="Z65" s="13">
-        <v>288491</v>
+        <v>319836</v>
       </c>
       <c r="AA65" s="13">
-        <v>287113</v>
+        <v>327204</v>
       </c>
       <c r="AB65" s="13">
-        <v>319836</v>
+        <v>327118</v>
       </c>
       <c r="AC65" s="13">
-        <v>327204</v>
+        <v>319032</v>
       </c>
       <c r="AD65" s="13">
-        <v>327118</v>
+        <v>310413</v>
       </c>
       <c r="AE65" s="13">
-        <v>319032</v>
-      </c>
-      <c r="AF65" s="13">
-        <v>310413</v>
-      </c>
-      <c r="AG65" s="13">
         <v>346816</v>
       </c>
+      <c r="AF65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG65" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH65" s="13" t="s">
         <v>58</v>
       </c>
@@ -7921,15 +7921,15 @@
       <c r="AP65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR65" s="13">
-        <v>561452</v>
-      </c>
-      <c r="AS65" s="13">
+      <c r="AQ65" s="13">
         <v>548041</v>
       </c>
+      <c r="AR65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS65" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT65" s="13" t="s">
         <v>58</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>59</v>
       </c>
@@ -7967,157 +7967,157 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>261608</v>
+        <v>270812</v>
       </c>
       <c r="F66" s="11">
-        <v>271771</v>
+        <v>286192</v>
       </c>
       <c r="G66" s="11">
-        <v>270812</v>
+        <v>280936</v>
       </c>
       <c r="H66" s="11">
-        <v>286192</v>
+        <v>296235</v>
       </c>
       <c r="I66" s="11">
-        <v>280936</v>
+        <v>339365</v>
       </c>
       <c r="J66" s="11">
-        <v>296235</v>
+        <v>394544</v>
       </c>
       <c r="K66" s="11">
-        <v>339365</v>
+        <v>387076</v>
       </c>
       <c r="L66" s="11">
-        <v>394544</v>
+        <v>402125</v>
       </c>
       <c r="M66" s="11">
-        <v>387076</v>
+        <v>383986</v>
       </c>
       <c r="N66" s="11">
-        <v>402125</v>
+        <v>376423</v>
       </c>
       <c r="O66" s="11">
-        <v>383986</v>
+        <v>388035</v>
       </c>
       <c r="P66" s="11">
-        <v>376423</v>
+        <v>373975</v>
       </c>
       <c r="Q66" s="11">
-        <v>388035</v>
+        <v>378039</v>
       </c>
       <c r="R66" s="11">
-        <v>373975</v>
+        <v>377893</v>
       </c>
       <c r="S66" s="11">
-        <v>378039</v>
+        <v>334229</v>
       </c>
       <c r="T66" s="11">
-        <v>377893</v>
+        <v>382910</v>
       </c>
       <c r="U66" s="11">
-        <v>334229</v>
+        <v>448254</v>
       </c>
       <c r="V66" s="11">
-        <v>382910</v>
+        <v>463655</v>
       </c>
       <c r="W66" s="11">
-        <v>448254</v>
+        <v>493467</v>
       </c>
       <c r="X66" s="11">
-        <v>463655</v>
+        <v>578475</v>
       </c>
       <c r="Y66" s="11">
-        <v>493467</v>
+        <v>540338</v>
       </c>
       <c r="Z66" s="11">
-        <v>578475</v>
+        <v>672725</v>
       </c>
       <c r="AA66" s="11">
-        <v>540338</v>
+        <v>633604</v>
       </c>
       <c r="AB66" s="11">
-        <v>672725</v>
+        <v>613755</v>
       </c>
       <c r="AC66" s="11">
-        <v>633604</v>
+        <v>662043</v>
       </c>
       <c r="AD66" s="11">
-        <v>613755</v>
+        <v>616242</v>
       </c>
       <c r="AE66" s="11">
-        <v>662043</v>
+        <v>616041</v>
       </c>
       <c r="AF66" s="11">
-        <v>616242</v>
+        <v>663734</v>
       </c>
       <c r="AG66" s="11">
-        <v>616041</v>
+        <v>594488</v>
       </c>
       <c r="AH66" s="11">
-        <v>663734</v>
+        <v>698000</v>
       </c>
       <c r="AI66" s="11">
-        <v>594488</v>
+        <v>860206</v>
       </c>
       <c r="AJ66" s="11">
-        <v>698000</v>
+        <v>816021</v>
       </c>
       <c r="AK66" s="11">
-        <v>860206</v>
+        <v>776470</v>
       </c>
       <c r="AL66" s="11">
-        <v>816021</v>
+        <v>757588</v>
       </c>
       <c r="AM66" s="11">
-        <v>776470</v>
+        <v>850551</v>
       </c>
       <c r="AN66" s="11">
-        <v>757588</v>
+        <v>826561</v>
       </c>
       <c r="AO66" s="11">
-        <v>850551</v>
+        <v>884557</v>
       </c>
       <c r="AP66" s="11">
-        <v>826561</v>
+        <v>856141</v>
       </c>
       <c r="AQ66" s="11">
-        <v>884557</v>
+        <v>625003</v>
       </c>
       <c r="AR66" s="11">
-        <v>856141</v>
+        <v>869790</v>
       </c>
       <c r="AS66" s="11">
-        <v>625003</v>
+        <v>929586</v>
       </c>
       <c r="AT66" s="11">
-        <v>869790</v>
+        <v>919071</v>
       </c>
       <c r="AU66" s="11">
-        <v>929586</v>
+        <v>954329</v>
       </c>
       <c r="AV66" s="11">
-        <v>919071</v>
+        <v>903924</v>
       </c>
       <c r="AW66" s="11">
-        <v>954329</v>
+        <v>884371</v>
       </c>
       <c r="AX66" s="11">
-        <v>903924</v>
+        <v>954172</v>
       </c>
       <c r="AY66" s="11">
-        <v>884371</v>
+        <v>1083556</v>
       </c>
       <c r="AZ66" s="11">
-        <v>954172</v>
+        <v>1108952</v>
       </c>
       <c r="BA66" s="11">
-        <v>1083556</v>
+        <v>1064857</v>
       </c>
       <c r="BB66" s="11">
-        <v>1108952</v>
+        <v>1036369</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>60</v>
       </c>
@@ -8206,74 +8206,74 @@
       <c r="AE67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG67" s="13" t="s">
-        <v>58</v>
+      <c r="AF67" s="13">
+        <v>385440</v>
+      </c>
+      <c r="AG67" s="13">
+        <v>484419</v>
       </c>
       <c r="AH67" s="13">
-        <v>385440</v>
+        <v>483082</v>
       </c>
       <c r="AI67" s="13">
-        <v>484419</v>
+        <v>496419</v>
       </c>
       <c r="AJ67" s="13">
-        <v>483082</v>
+        <v>517813</v>
       </c>
       <c r="AK67" s="13">
-        <v>496419</v>
+        <v>540050</v>
       </c>
       <c r="AL67" s="13">
-        <v>517813</v>
+        <v>567466</v>
       </c>
       <c r="AM67" s="13">
-        <v>540050</v>
+        <v>557958</v>
       </c>
       <c r="AN67" s="13">
-        <v>567466</v>
+        <v>544093</v>
       </c>
       <c r="AO67" s="13">
-        <v>557958</v>
+        <v>567478</v>
       </c>
       <c r="AP67" s="13">
-        <v>544093</v>
-      </c>
-      <c r="AQ67" s="13">
-        <v>567478</v>
-      </c>
-      <c r="AR67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS67" s="13" t="s">
-        <v>58</v>
+        <v>561452</v>
+      </c>
+      <c r="AQ67" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR67" s="13">
+        <v>555978</v>
+      </c>
+      <c r="AS67" s="13">
+        <v>623572</v>
       </c>
       <c r="AT67" s="13">
-        <v>555978</v>
+        <v>623225</v>
       </c>
       <c r="AU67" s="13">
-        <v>623572</v>
+        <v>624406</v>
       </c>
       <c r="AV67" s="13">
-        <v>623225</v>
+        <v>641046</v>
       </c>
       <c r="AW67" s="13">
-        <v>624406</v>
+        <v>647000</v>
       </c>
       <c r="AX67" s="13">
-        <v>641046</v>
+        <v>710224</v>
       </c>
       <c r="AY67" s="13">
-        <v>647000</v>
+        <v>707965</v>
       </c>
       <c r="AZ67" s="13">
-        <v>710224</v>
+        <v>855332</v>
       </c>
       <c r="BA67" s="13">
-        <v>707965</v>
+        <v>804035</v>
       </c>
       <c r="BB67" s="13">
-        <v>855332</v>
+        <v>772759</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pasa/product/monthly.xlsx
+++ b/database/industries/lastic/pasa/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="76">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3213,154 +3213,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>1052809</v>
+        <v>859101</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>859101</v>
+        <v>385138</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>385138</v>
+        <v>901618</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>901618</v>
+        <v>650167</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>650167</v>
+        <v>1045509</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>1045509</v>
+        <v>879435</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>879435</v>
+        <v>753893</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>753893</v>
+        <v>962542</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>962542</v>
+        <v>607503</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>607503</v>
+        <v>1207512</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>1207512</v>
+        <v>1184991</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>1184991</v>
+        <v>1170212</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>1170212</v>
+        <v>575527</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>575527</v>
+        <v>33077</v>
       </c>
       <c r="S11" s="12" t="n">
-        <v>33077</v>
+        <v>1228618</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>1228618</v>
+        <v>1010922</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>1010922</v>
+        <v>1325483</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>1325483</v>
+        <v>1156344</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>1156344</v>
+        <v>197112</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>197112</v>
+        <v>774553</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>774553</v>
+        <v>1175860</v>
       </c>
       <c r="Z11" s="12" t="n">
-        <v>1175860</v>
+        <v>1276508</v>
       </c>
       <c r="AA11" s="12" t="n">
-        <v>1276508</v>
+        <v>1260775</v>
       </c>
       <c r="AB11" s="12" t="n">
-        <v>1260775</v>
+        <v>1087802</v>
       </c>
       <c r="AC11" s="12" t="n">
-        <v>1087802</v>
+        <v>651932</v>
       </c>
       <c r="AD11" s="12" t="n">
-        <v>651932</v>
+        <v>537758</v>
       </c>
       <c r="AE11" s="12" t="n">
-        <v>537758</v>
+        <v>1057005</v>
       </c>
       <c r="AF11" s="12" t="n">
-        <v>1057005</v>
+        <v>1240544</v>
       </c>
       <c r="AG11" s="12" t="n">
-        <v>1240544</v>
+        <v>1357633</v>
       </c>
       <c r="AH11" s="12" t="n">
-        <v>1357633</v>
+        <v>866889</v>
       </c>
       <c r="AI11" s="12" t="n">
-        <v>866889</v>
+        <v>1414212</v>
       </c>
       <c r="AJ11" s="12" t="n">
-        <v>1414212</v>
+        <v>1277905</v>
       </c>
       <c r="AK11" s="12" t="n">
-        <v>1277905</v>
+        <v>1379084</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>1379084</v>
+        <v>1362327</v>
       </c>
       <c r="AM11" s="12" t="n">
-        <v>1362327</v>
+        <v>1255588</v>
       </c>
       <c r="AN11" s="12" t="n">
-        <v>1255588</v>
+        <v>1326245</v>
       </c>
       <c r="AO11" s="12" t="n">
-        <v>1326245</v>
+        <v>813561</v>
       </c>
       <c r="AP11" s="12" t="n">
-        <v>813561</v>
+        <v>666056</v>
       </c>
       <c r="AQ11" s="12" t="n">
-        <v>666056</v>
+        <v>1284935</v>
       </c>
       <c r="AR11" s="12" t="n">
-        <v>1284935</v>
+        <v>1414467</v>
       </c>
       <c r="AS11" s="12" t="n">
-        <v>1414467</v>
+        <v>1262842</v>
       </c>
       <c r="AT11" s="12" t="n">
-        <v>1262842</v>
+        <v>1215231</v>
       </c>
       <c r="AU11" s="12" t="n">
-        <v>1215231</v>
+        <v>1130358</v>
       </c>
       <c r="AV11" s="12" t="n">
-        <v>1130358</v>
+        <v>949821</v>
       </c>
       <c r="AW11" s="12" t="n">
-        <v>949821</v>
+        <v>1462906</v>
       </c>
       <c r="AX11" s="12" t="n">
-        <v>1462906</v>
+        <v>1579004</v>
       </c>
       <c r="AY11" s="12" t="n">
-        <v>1579004</v>
+        <v>1146358</v>
       </c>
       <c r="AZ11" s="12" t="n">
-        <v>1146358</v>
+        <v>1377457</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>1377457</v>
+        <v>954592</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>954592</v>
+        <v>709065</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,82 +3372,82 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="n">
-        <v>53987</v>
+        <v>31972</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>31972</v>
+        <v>17287</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>17287</v>
+        <v>43996</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>43996</v>
+        <v>68688</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>68688</v>
+        <v>85152</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>85152</v>
+        <v>76075</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>76075</v>
+        <v>26625</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>26625</v>
+        <v>23158</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>23158</v>
+        <v>27666</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>27666</v>
+        <v>77369</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>77369</v>
+        <v>150052</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>150052</v>
+        <v>171298</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>171298</v>
+        <v>84171</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>84171</v>
+        <v>3848</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>3848</v>
+        <v>110265</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>110265</v>
+        <v>80266</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>80266</v>
+        <v>124515</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>124515</v>
+        <v>110120</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>110120</v>
+        <v>103430</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>103430</v>
+        <v>66209</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>66209</v>
+        <v>71944</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>71944</v>
+        <v>112511</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>112511</v>
+        <v>105943</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>105943</v>
+        <v>94317</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>94317</v>
+        <v>70052</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>70052</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="14" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="AO12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="14" t="n">
         <v>64456</v>
+      </c>
+      <c r="AP12" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AQ12" s="15" t="s">
         <v>58</v>
@@ -3531,154 +3531,154 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="n">
-        <v>272708</v>
+        <v>200829</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>200829</v>
+        <v>110406</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>110406</v>
+        <v>216771</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>216771</v>
+        <v>157816</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>157816</v>
+        <v>254754</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>254754</v>
+        <v>231616</v>
       </c>
       <c r="K13" s="12" t="n">
-        <v>231616</v>
+        <v>222176</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>222176</v>
+        <v>278061</v>
       </c>
       <c r="M13" s="12" t="n">
-        <v>278061</v>
+        <v>188038</v>
       </c>
       <c r="N13" s="12" t="n">
-        <v>188038</v>
+        <v>264573</v>
       </c>
       <c r="O13" s="12" t="n">
-        <v>264573</v>
+        <v>250011</v>
       </c>
       <c r="P13" s="12" t="n">
-        <v>250011</v>
+        <v>258946</v>
       </c>
       <c r="Q13" s="12" t="n">
-        <v>258946</v>
+        <v>114303</v>
       </c>
       <c r="R13" s="12" t="n">
-        <v>114303</v>
+        <v>6301</v>
       </c>
       <c r="S13" s="12" t="n">
-        <v>6301</v>
+        <v>301657</v>
       </c>
       <c r="T13" s="12" t="n">
-        <v>301657</v>
+        <v>238531</v>
       </c>
       <c r="U13" s="12" t="n">
-        <v>238531</v>
+        <v>332468</v>
       </c>
       <c r="V13" s="12" t="n">
-        <v>332468</v>
+        <v>314218</v>
       </c>
       <c r="W13" s="12" t="n">
-        <v>314218</v>
+        <v>1285139</v>
       </c>
       <c r="X13" s="12" t="n">
-        <v>1285139</v>
+        <v>218610</v>
       </c>
       <c r="Y13" s="12" t="n">
-        <v>218610</v>
+        <v>315710</v>
       </c>
       <c r="Z13" s="12" t="n">
-        <v>315710</v>
+        <v>310027</v>
       </c>
       <c r="AA13" s="12" t="n">
-        <v>310027</v>
+        <v>310581</v>
       </c>
       <c r="AB13" s="12" t="n">
-        <v>310581</v>
+        <v>234342</v>
       </c>
       <c r="AC13" s="12" t="n">
-        <v>234342</v>
+        <v>131430</v>
       </c>
       <c r="AD13" s="12" t="n">
-        <v>131430</v>
+        <v>111657</v>
       </c>
       <c r="AE13" s="12" t="n">
-        <v>111657</v>
+        <v>181932</v>
       </c>
       <c r="AF13" s="12" t="n">
-        <v>181932</v>
+        <v>156101</v>
       </c>
       <c r="AG13" s="12" t="n">
-        <v>156101</v>
+        <v>170724</v>
       </c>
       <c r="AH13" s="12" t="n">
-        <v>170724</v>
+        <v>110235</v>
       </c>
       <c r="AI13" s="12" t="n">
-        <v>110235</v>
+        <v>286846</v>
       </c>
       <c r="AJ13" s="12" t="n">
-        <v>286846</v>
+        <v>240282</v>
       </c>
       <c r="AK13" s="12" t="n">
-        <v>240282</v>
+        <v>254640</v>
       </c>
       <c r="AL13" s="12" t="n">
-        <v>254640</v>
+        <v>272919</v>
       </c>
       <c r="AM13" s="12" t="n">
-        <v>272919</v>
+        <v>223708</v>
       </c>
       <c r="AN13" s="12" t="n">
-        <v>223708</v>
+        <v>226709</v>
       </c>
       <c r="AO13" s="12" t="n">
-        <v>226709</v>
+        <v>194299</v>
       </c>
       <c r="AP13" s="12" t="n">
-        <v>194299</v>
+        <v>100164</v>
       </c>
       <c r="AQ13" s="12" t="n">
-        <v>100164</v>
+        <v>183692</v>
       </c>
       <c r="AR13" s="12" t="n">
-        <v>183692</v>
+        <v>196344</v>
       </c>
       <c r="AS13" s="12" t="n">
-        <v>196344</v>
+        <v>165035</v>
       </c>
       <c r="AT13" s="12" t="n">
-        <v>165035</v>
+        <v>162716</v>
       </c>
       <c r="AU13" s="12" t="n">
-        <v>162716</v>
+        <v>206418</v>
       </c>
       <c r="AV13" s="12" t="n">
-        <v>206418</v>
+        <v>116371</v>
       </c>
       <c r="AW13" s="12" t="n">
-        <v>116371</v>
+        <v>184422</v>
       </c>
       <c r="AX13" s="12" t="n">
-        <v>184422</v>
+        <v>198484</v>
       </c>
       <c r="AY13" s="12" t="n">
-        <v>198484</v>
+        <v>166239</v>
       </c>
       <c r="AZ13" s="12" t="n">
-        <v>166239</v>
+        <v>243196</v>
       </c>
       <c r="BA13" s="12" t="n">
-        <v>243196</v>
+        <v>181865</v>
       </c>
       <c r="BB13" s="12" t="n">
-        <v>181865</v>
+        <v>103496</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3764,80 +3764,80 @@
       <c r="AC14" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD14" s="15" t="s">
-        <v>58</v>
+      <c r="AD14" s="15" t="n">
+        <v>56441</v>
       </c>
       <c r="AE14" s="15" t="n">
-        <v>56441</v>
+        <v>122686</v>
       </c>
       <c r="AF14" s="15" t="n">
-        <v>122686</v>
+        <v>216298</v>
       </c>
       <c r="AG14" s="15" t="n">
-        <v>216298</v>
+        <v>192322</v>
       </c>
       <c r="AH14" s="15" t="n">
-        <v>192322</v>
+        <v>117622</v>
       </c>
       <c r="AI14" s="15" t="n">
-        <v>117622</v>
+        <v>24402</v>
       </c>
       <c r="AJ14" s="15" t="n">
-        <v>24402</v>
+        <v>76558</v>
       </c>
       <c r="AK14" s="15" t="n">
-        <v>76558</v>
+        <v>88699</v>
       </c>
       <c r="AL14" s="15" t="n">
-        <v>88699</v>
+        <v>105933</v>
       </c>
       <c r="AM14" s="15" t="n">
-        <v>105933</v>
+        <v>85939</v>
       </c>
       <c r="AN14" s="15" t="n">
-        <v>85939</v>
-      </c>
-      <c r="AO14" s="15" t="n">
         <v>89606</v>
       </c>
-      <c r="AP14" s="15" t="s">
-        <v>58</v>
+      <c r="AO14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP14" s="15" t="n">
+        <v>61089</v>
       </c>
       <c r="AQ14" s="15" t="n">
-        <v>61089</v>
+        <v>142674</v>
       </c>
       <c r="AR14" s="15" t="n">
-        <v>142674</v>
+        <v>132872</v>
       </c>
       <c r="AS14" s="15" t="n">
-        <v>132872</v>
+        <v>101431</v>
       </c>
       <c r="AT14" s="15" t="n">
-        <v>101431</v>
+        <v>114885</v>
       </c>
       <c r="AU14" s="15" t="n">
-        <v>114885</v>
+        <v>23535</v>
       </c>
       <c r="AV14" s="15" t="n">
-        <v>23535</v>
+        <v>26527</v>
       </c>
       <c r="AW14" s="15" t="n">
-        <v>26527</v>
+        <v>46778</v>
       </c>
       <c r="AX14" s="15" t="n">
-        <v>46778</v>
+        <v>77256</v>
       </c>
       <c r="AY14" s="15" t="n">
-        <v>77256</v>
+        <v>86062</v>
       </c>
       <c r="AZ14" s="15" t="n">
-        <v>86062</v>
+        <v>222875</v>
       </c>
       <c r="BA14" s="15" t="n">
-        <v>222875</v>
+        <v>173408</v>
       </c>
       <c r="BB14" s="15" t="n">
-        <v>173408</v>
+        <v>105272</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,8 +3951,8 @@
       <c r="T16" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="19" t="s">
-        <v>58</v>
+      <c r="U16" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="V16" s="19" t="n">
         <v>0</v>
@@ -4061,154 +4061,154 @@
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="n">
-        <v>1379504</v>
+        <v>1091902</v>
       </c>
       <c r="F17" s="21" t="n">
-        <v>1091902</v>
+        <v>512831</v>
       </c>
       <c r="G17" s="21" t="n">
-        <v>512831</v>
+        <v>1162385</v>
       </c>
       <c r="H17" s="21" t="n">
-        <v>1162385</v>
+        <v>876671</v>
       </c>
       <c r="I17" s="21" t="n">
-        <v>876671</v>
+        <v>1385415</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>1385415</v>
+        <v>1187126</v>
       </c>
       <c r="K17" s="21" t="n">
-        <v>1187126</v>
+        <v>1002694</v>
       </c>
       <c r="L17" s="21" t="n">
-        <v>1002694</v>
+        <v>1263761</v>
       </c>
       <c r="M17" s="21" t="n">
-        <v>1263761</v>
+        <v>823207</v>
       </c>
       <c r="N17" s="21" t="n">
-        <v>823207</v>
+        <v>1549454</v>
       </c>
       <c r="O17" s="21" t="n">
-        <v>1549454</v>
+        <v>1585054</v>
       </c>
       <c r="P17" s="21" t="n">
-        <v>1585054</v>
+        <v>1600456</v>
       </c>
       <c r="Q17" s="21" t="n">
-        <v>1600456</v>
+        <v>774001</v>
       </c>
       <c r="R17" s="21" t="n">
-        <v>774001</v>
+        <v>43226</v>
       </c>
       <c r="S17" s="21" t="n">
-        <v>43226</v>
+        <v>1640540</v>
       </c>
       <c r="T17" s="21" t="n">
-        <v>1640540</v>
+        <v>1329719</v>
       </c>
       <c r="U17" s="21" t="n">
-        <v>1329719</v>
+        <v>1782466</v>
       </c>
       <c r="V17" s="21" t="n">
-        <v>1782466</v>
+        <v>1580682</v>
       </c>
       <c r="W17" s="21" t="n">
-        <v>1580682</v>
+        <v>1585681</v>
       </c>
       <c r="X17" s="21" t="n">
-        <v>1585681</v>
+        <v>1059372</v>
       </c>
       <c r="Y17" s="21" t="n">
-        <v>1059372</v>
+        <v>1563514</v>
       </c>
       <c r="Z17" s="21" t="n">
-        <v>1563514</v>
+        <v>1699046</v>
       </c>
       <c r="AA17" s="21" t="n">
-        <v>1699046</v>
+        <v>1677299</v>
       </c>
       <c r="AB17" s="21" t="n">
-        <v>1677299</v>
+        <v>1416461</v>
       </c>
       <c r="AC17" s="21" t="n">
-        <v>1416461</v>
+        <v>853414</v>
       </c>
       <c r="AD17" s="21" t="n">
-        <v>853414</v>
+        <v>705856</v>
       </c>
       <c r="AE17" s="21" t="n">
-        <v>705856</v>
+        <v>1361623</v>
       </c>
       <c r="AF17" s="21" t="n">
-        <v>1361623</v>
+        <v>1612943</v>
       </c>
       <c r="AG17" s="21" t="n">
-        <v>1612943</v>
+        <v>1720679</v>
       </c>
       <c r="AH17" s="21" t="n">
-        <v>1720679</v>
+        <v>1094746</v>
       </c>
       <c r="AI17" s="21" t="n">
-        <v>1094746</v>
+        <v>1725460</v>
       </c>
       <c r="AJ17" s="21" t="n">
-        <v>1725460</v>
+        <v>1594745</v>
       </c>
       <c r="AK17" s="21" t="n">
-        <v>1594745</v>
+        <v>1722423</v>
       </c>
       <c r="AL17" s="21" t="n">
-        <v>1722423</v>
+        <v>1741179</v>
       </c>
       <c r="AM17" s="21" t="n">
-        <v>1741179</v>
+        <v>1565235</v>
       </c>
       <c r="AN17" s="21" t="n">
-        <v>1565235</v>
+        <v>1642560</v>
       </c>
       <c r="AO17" s="21" t="n">
-        <v>1642560</v>
+        <v>1072316</v>
       </c>
       <c r="AP17" s="21" t="n">
-        <v>1072316</v>
+        <v>827309</v>
       </c>
       <c r="AQ17" s="21" t="n">
-        <v>827309</v>
+        <v>1611301</v>
       </c>
       <c r="AR17" s="21" t="n">
-        <v>1611301</v>
+        <v>1743683</v>
       </c>
       <c r="AS17" s="21" t="n">
-        <v>1743683</v>
+        <v>1529308</v>
       </c>
       <c r="AT17" s="21" t="n">
-        <v>1529308</v>
+        <v>1492832</v>
       </c>
       <c r="AU17" s="21" t="n">
-        <v>1492832</v>
+        <v>1360311</v>
       </c>
       <c r="AV17" s="21" t="n">
-        <v>1360311</v>
+        <v>1092719</v>
       </c>
       <c r="AW17" s="21" t="n">
-        <v>1092719</v>
+        <v>1694106</v>
       </c>
       <c r="AX17" s="21" t="n">
-        <v>1694106</v>
+        <v>1854744</v>
       </c>
       <c r="AY17" s="21" t="n">
-        <v>1854744</v>
+        <v>1398659</v>
       </c>
       <c r="AZ17" s="21" t="n">
-        <v>1398659</v>
+        <v>1843528</v>
       </c>
       <c r="BA17" s="21" t="n">
-        <v>1843528</v>
+        <v>1309865</v>
       </c>
       <c r="BB17" s="21" t="n">
-        <v>1309865</v>
+        <v>917833</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,154 +4654,154 @@
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12" t="n">
-        <v>909921</v>
+        <v>913849</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>913849</v>
+        <v>384505</v>
       </c>
       <c r="G24" s="12" t="n">
-        <v>384505</v>
+        <v>904752</v>
       </c>
       <c r="H24" s="12" t="n">
-        <v>904752</v>
+        <v>842899</v>
       </c>
       <c r="I24" s="12" t="n">
-        <v>842899</v>
+        <v>1163094</v>
       </c>
       <c r="J24" s="12" t="n">
-        <v>1163094</v>
+        <v>793394</v>
       </c>
       <c r="K24" s="12" t="n">
-        <v>793394</v>
+        <v>728426</v>
       </c>
       <c r="L24" s="12" t="n">
-        <v>728426</v>
+        <v>856791</v>
       </c>
       <c r="M24" s="12" t="n">
-        <v>856791</v>
+        <v>559596</v>
       </c>
       <c r="N24" s="12" t="n">
-        <v>559596</v>
+        <v>1144361</v>
       </c>
       <c r="O24" s="12" t="n">
-        <v>1144361</v>
+        <v>924984</v>
       </c>
       <c r="P24" s="12" t="n">
-        <v>924984</v>
+        <v>969774</v>
       </c>
       <c r="Q24" s="12" t="n">
-        <v>969774</v>
+        <v>1153613</v>
       </c>
       <c r="R24" s="12" t="n">
-        <v>1153613</v>
+        <v>522710</v>
       </c>
       <c r="S24" s="12" t="n">
-        <v>522710</v>
+        <v>1204049</v>
       </c>
       <c r="T24" s="12" t="n">
-        <v>1204049</v>
+        <v>1123955</v>
       </c>
       <c r="U24" s="12" t="n">
-        <v>1123955</v>
+        <v>1160863</v>
       </c>
       <c r="V24" s="12" t="n">
-        <v>1160863</v>
+        <v>1368111</v>
       </c>
       <c r="W24" s="12" t="n">
-        <v>1368111</v>
+        <v>1382556</v>
       </c>
       <c r="X24" s="12" t="n">
-        <v>1382556</v>
+        <v>861260</v>
       </c>
       <c r="Y24" s="12" t="n">
-        <v>861260</v>
+        <v>1047843</v>
       </c>
       <c r="Z24" s="12" t="n">
-        <v>1047843</v>
+        <v>873150</v>
       </c>
       <c r="AA24" s="12" t="n">
-        <v>873150</v>
+        <v>1004847</v>
       </c>
       <c r="AB24" s="12" t="n">
-        <v>1004847</v>
+        <v>997421</v>
       </c>
       <c r="AC24" s="12" t="n">
-        <v>997421</v>
+        <v>984653</v>
       </c>
       <c r="AD24" s="12" t="n">
-        <v>984653</v>
+        <v>928493</v>
       </c>
       <c r="AE24" s="12" t="n">
-        <v>928493</v>
+        <v>1197969</v>
       </c>
       <c r="AF24" s="12" t="n">
-        <v>1197969</v>
+        <v>1547146</v>
       </c>
       <c r="AG24" s="12" t="n">
-        <v>1547146</v>
+        <v>1463871</v>
       </c>
       <c r="AH24" s="12" t="n">
-        <v>1463871</v>
+        <v>1004148</v>
       </c>
       <c r="AI24" s="12" t="n">
-        <v>1004148</v>
+        <v>1159706</v>
       </c>
       <c r="AJ24" s="12" t="n">
-        <v>1159706</v>
+        <v>1015911</v>
       </c>
       <c r="AK24" s="12" t="n">
-        <v>1015911</v>
+        <v>918470</v>
       </c>
       <c r="AL24" s="12" t="n">
-        <v>918470</v>
+        <v>863394</v>
       </c>
       <c r="AM24" s="12" t="n">
-        <v>863394</v>
+        <v>750252</v>
       </c>
       <c r="AN24" s="12" t="n">
-        <v>750252</v>
+        <v>974917</v>
       </c>
       <c r="AO24" s="12" t="n">
-        <v>974917</v>
+        <v>998634</v>
       </c>
       <c r="AP24" s="12" t="n">
-        <v>998634</v>
+        <v>1062771</v>
       </c>
       <c r="AQ24" s="12" t="n">
-        <v>1062771</v>
+        <v>1065253</v>
       </c>
       <c r="AR24" s="12" t="n">
-        <v>1065253</v>
+        <v>1670869</v>
       </c>
       <c r="AS24" s="12" t="n">
-        <v>1670869</v>
+        <v>1328653</v>
       </c>
       <c r="AT24" s="12" t="n">
-        <v>1328653</v>
+        <v>1436345</v>
       </c>
       <c r="AU24" s="12" t="n">
-        <v>1436345</v>
+        <v>1393474</v>
       </c>
       <c r="AV24" s="12" t="n">
-        <v>1393474</v>
+        <v>1408025</v>
       </c>
       <c r="AW24" s="12" t="n">
-        <v>1408025</v>
+        <v>924974</v>
       </c>
       <c r="AX24" s="12" t="n">
-        <v>924974</v>
+        <v>856598</v>
       </c>
       <c r="AY24" s="12" t="n">
-        <v>856598</v>
+        <v>1735103</v>
       </c>
       <c r="AZ24" s="12" t="n">
-        <v>1735103</v>
+        <v>1332788</v>
       </c>
       <c r="BA24" s="12" t="n">
-        <v>1332788</v>
+        <v>1458747</v>
       </c>
       <c r="BB24" s="12" t="n">
-        <v>1458747</v>
+        <v>693949</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4813,82 +4813,82 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="n">
-        <v>49501</v>
+        <v>34436</v>
       </c>
       <c r="F25" s="15" t="n">
-        <v>34436</v>
+        <v>6275</v>
       </c>
       <c r="G25" s="15" t="n">
-        <v>6275</v>
+        <v>151979</v>
       </c>
       <c r="H25" s="15" t="n">
-        <v>151979</v>
+        <v>21571</v>
       </c>
       <c r="I25" s="15" t="n">
-        <v>21571</v>
+        <v>64157</v>
       </c>
       <c r="J25" s="15" t="n">
-        <v>64157</v>
+        <v>65000</v>
       </c>
       <c r="K25" s="15" t="n">
-        <v>65000</v>
+        <v>49346</v>
       </c>
       <c r="L25" s="15" t="n">
-        <v>49346</v>
+        <v>52508</v>
       </c>
       <c r="M25" s="15" t="n">
-        <v>52508</v>
+        <v>40838</v>
       </c>
       <c r="N25" s="15" t="n">
-        <v>40838</v>
+        <v>92456</v>
       </c>
       <c r="O25" s="15" t="n">
-        <v>92456</v>
+        <v>62260</v>
       </c>
       <c r="P25" s="15" t="n">
-        <v>62260</v>
+        <v>25637</v>
       </c>
       <c r="Q25" s="15" t="n">
-        <v>25637</v>
+        <v>56023</v>
       </c>
       <c r="R25" s="15" t="n">
-        <v>56023</v>
+        <v>41237</v>
       </c>
       <c r="S25" s="15" t="n">
-        <v>41237</v>
+        <v>96177</v>
       </c>
       <c r="T25" s="15" t="n">
-        <v>96177</v>
+        <v>74109</v>
       </c>
       <c r="U25" s="15" t="n">
-        <v>74109</v>
+        <v>121878</v>
       </c>
       <c r="V25" s="15" t="n">
-        <v>121878</v>
+        <v>85611</v>
       </c>
       <c r="W25" s="15" t="n">
-        <v>85611</v>
+        <v>78826</v>
       </c>
       <c r="X25" s="15" t="n">
-        <v>78826</v>
+        <v>106761</v>
       </c>
       <c r="Y25" s="15" t="n">
-        <v>106761</v>
+        <v>85491</v>
       </c>
       <c r="Z25" s="15" t="n">
-        <v>85491</v>
+        <v>97876</v>
       </c>
       <c r="AA25" s="15" t="n">
-        <v>97876</v>
+        <v>93514</v>
       </c>
       <c r="AB25" s="15" t="n">
-        <v>93514</v>
+        <v>84526</v>
       </c>
       <c r="AC25" s="15" t="n">
-        <v>84526</v>
+        <v>112587</v>
       </c>
       <c r="AD25" s="15" t="n">
-        <v>112587</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="15" t="n">
         <v>0</v>
@@ -4921,10 +4921,10 @@
         <v>0</v>
       </c>
       <c r="AO25" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="15" t="n">
         <v>86030</v>
+      </c>
+      <c r="AP25" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AQ25" s="15" t="s">
         <v>58</v>
@@ -4972,154 +4972,154 @@
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12" t="n">
-        <v>425484</v>
+        <v>298189</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>298189</v>
+        <v>125495</v>
       </c>
       <c r="G26" s="12" t="n">
-        <v>125495</v>
+        <v>152040</v>
       </c>
       <c r="H26" s="12" t="n">
-        <v>152040</v>
+        <v>177790</v>
       </c>
       <c r="I26" s="12" t="n">
-        <v>177790</v>
+        <v>216973</v>
       </c>
       <c r="J26" s="12" t="n">
-        <v>216973</v>
+        <v>128291</v>
       </c>
       <c r="K26" s="12" t="n">
-        <v>128291</v>
+        <v>191356</v>
       </c>
       <c r="L26" s="12" t="n">
-        <v>191356</v>
+        <v>219123</v>
       </c>
       <c r="M26" s="12" t="n">
-        <v>219123</v>
+        <v>220042</v>
       </c>
       <c r="N26" s="12" t="n">
-        <v>220042</v>
+        <v>153478</v>
       </c>
       <c r="O26" s="12" t="n">
-        <v>153478</v>
+        <v>293800</v>
       </c>
       <c r="P26" s="12" t="n">
-        <v>293800</v>
+        <v>305544</v>
       </c>
       <c r="Q26" s="12" t="n">
-        <v>305544</v>
+        <v>163002</v>
       </c>
       <c r="R26" s="12" t="n">
-        <v>163002</v>
+        <v>137121</v>
       </c>
       <c r="S26" s="12" t="n">
-        <v>137121</v>
+        <v>146263</v>
       </c>
       <c r="T26" s="12" t="n">
-        <v>146263</v>
+        <v>209298</v>
       </c>
       <c r="U26" s="12" t="n">
-        <v>209298</v>
+        <v>294755</v>
       </c>
       <c r="V26" s="12" t="n">
-        <v>294755</v>
+        <v>239210</v>
       </c>
       <c r="W26" s="12" t="n">
-        <v>239210</v>
+        <v>328167</v>
       </c>
       <c r="X26" s="12" t="n">
-        <v>328167</v>
+        <v>146626</v>
       </c>
       <c r="Y26" s="12" t="n">
-        <v>146626</v>
+        <v>268507</v>
       </c>
       <c r="Z26" s="12" t="n">
-        <v>268507</v>
+        <v>166402</v>
       </c>
       <c r="AA26" s="12" t="n">
-        <v>166402</v>
+        <v>192409</v>
       </c>
       <c r="AB26" s="12" t="n">
-        <v>192409</v>
+        <v>212996</v>
       </c>
       <c r="AC26" s="12" t="n">
-        <v>212996</v>
+        <v>237658</v>
       </c>
       <c r="AD26" s="12" t="n">
-        <v>237658</v>
+        <v>209468</v>
       </c>
       <c r="AE26" s="12" t="n">
-        <v>209468</v>
+        <v>329376</v>
       </c>
       <c r="AF26" s="12" t="n">
-        <v>329376</v>
+        <v>316007</v>
       </c>
       <c r="AG26" s="12" t="n">
-        <v>316007</v>
+        <v>159606</v>
       </c>
       <c r="AH26" s="12" t="n">
-        <v>159606</v>
+        <v>279923</v>
       </c>
       <c r="AI26" s="12" t="n">
-        <v>279923</v>
+        <v>324037</v>
       </c>
       <c r="AJ26" s="12" t="n">
-        <v>324037</v>
+        <v>301738</v>
       </c>
       <c r="AK26" s="12" t="n">
-        <v>301738</v>
+        <v>220791</v>
       </c>
       <c r="AL26" s="12" t="n">
-        <v>220791</v>
+        <v>238631</v>
       </c>
       <c r="AM26" s="12" t="n">
-        <v>238631</v>
+        <v>191930</v>
       </c>
       <c r="AN26" s="12" t="n">
-        <v>191930</v>
+        <v>58863</v>
       </c>
       <c r="AO26" s="12" t="n">
-        <v>58863</v>
+        <v>181103</v>
       </c>
       <c r="AP26" s="12" t="n">
-        <v>181103</v>
+        <v>189432</v>
       </c>
       <c r="AQ26" s="12" t="n">
-        <v>189432</v>
+        <v>197545</v>
       </c>
       <c r="AR26" s="12" t="n">
-        <v>197545</v>
+        <v>236603</v>
       </c>
       <c r="AS26" s="12" t="n">
-        <v>236603</v>
+        <v>188915</v>
       </c>
       <c r="AT26" s="12" t="n">
-        <v>188915</v>
+        <v>208117</v>
       </c>
       <c r="AU26" s="12" t="n">
-        <v>208117</v>
+        <v>213605</v>
       </c>
       <c r="AV26" s="12" t="n">
-        <v>213605</v>
+        <v>299382</v>
       </c>
       <c r="AW26" s="12" t="n">
-        <v>299382</v>
+        <v>128393</v>
       </c>
       <c r="AX26" s="12" t="n">
-        <v>128393</v>
+        <v>110003</v>
       </c>
       <c r="AY26" s="12" t="n">
-        <v>110003</v>
+        <v>230971</v>
       </c>
       <c r="AZ26" s="12" t="n">
-        <v>230971</v>
+        <v>96537</v>
       </c>
       <c r="BA26" s="12" t="n">
-        <v>96537</v>
+        <v>313681</v>
       </c>
       <c r="BB26" s="12" t="n">
-        <v>313681</v>
+        <v>127199</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,80 +5205,80 @@
       <c r="AC27" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD27" s="15" t="s">
-        <v>58</v>
+      <c r="AD27" s="15" t="n">
+        <v>68091</v>
       </c>
       <c r="AE27" s="15" t="n">
-        <v>68091</v>
+        <v>127691</v>
       </c>
       <c r="AF27" s="15" t="n">
-        <v>127691</v>
+        <v>140353</v>
       </c>
       <c r="AG27" s="15" t="n">
-        <v>140353</v>
+        <v>123855</v>
       </c>
       <c r="AH27" s="15" t="n">
-        <v>123855</v>
+        <v>114719</v>
       </c>
       <c r="AI27" s="15" t="n">
-        <v>114719</v>
+        <v>118876</v>
       </c>
       <c r="AJ27" s="15" t="n">
-        <v>118876</v>
+        <v>66307</v>
       </c>
       <c r="AK27" s="15" t="n">
-        <v>66307</v>
+        <v>100918</v>
       </c>
       <c r="AL27" s="15" t="n">
-        <v>100918</v>
+        <v>81510</v>
       </c>
       <c r="AM27" s="15" t="n">
-        <v>81510</v>
+        <v>59708</v>
       </c>
       <c r="AN27" s="15" t="n">
-        <v>59708</v>
-      </c>
-      <c r="AO27" s="15" t="n">
         <v>85067</v>
       </c>
-      <c r="AP27" s="15" t="s">
-        <v>58</v>
+      <c r="AO27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP27" s="15" t="n">
+        <v>99905</v>
       </c>
       <c r="AQ27" s="15" t="n">
-        <v>99905</v>
+        <v>89183</v>
       </c>
       <c r="AR27" s="15" t="n">
-        <v>89183</v>
+        <v>130611</v>
       </c>
       <c r="AS27" s="15" t="n">
-        <v>130611</v>
+        <v>100244</v>
       </c>
       <c r="AT27" s="15" t="n">
-        <v>100244</v>
+        <v>93413</v>
       </c>
       <c r="AU27" s="15" t="n">
-        <v>93413</v>
+        <v>103354</v>
       </c>
       <c r="AV27" s="15" t="n">
-        <v>103354</v>
+        <v>16002</v>
       </c>
       <c r="AW27" s="15" t="n">
-        <v>16002</v>
+        <v>175537</v>
       </c>
       <c r="AX27" s="15" t="n">
-        <v>175537</v>
+        <v>109202</v>
       </c>
       <c r="AY27" s="15" t="n">
-        <v>109202</v>
+        <v>94435</v>
       </c>
       <c r="AZ27" s="15" t="n">
-        <v>94435</v>
+        <v>187176</v>
       </c>
       <c r="BA27" s="15" t="n">
-        <v>187176</v>
+        <v>88536</v>
       </c>
       <c r="BB27" s="15" t="n">
-        <v>88536</v>
+        <v>110994</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,8 +5392,8 @@
       <c r="T29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U29" s="19" t="s">
-        <v>58</v>
+      <c r="U29" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="V29" s="19" t="n">
         <v>0</v>
@@ -5614,11 +5614,11 @@
       <c r="V31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="22" t="s">
-        <v>58</v>
+      <c r="W31" s="22" t="n">
+        <v>-2359</v>
       </c>
       <c r="X31" s="22" t="n">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="22" t="n">
         <v>0</v>
@@ -5627,29 +5627,29 @@
         <v>0</v>
       </c>
       <c r="AA31" s="22" t="n">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AB31" s="22" t="n">
-        <v>-94</v>
+        <v>-73</v>
       </c>
       <c r="AC31" s="22" t="n">
-        <v>-73</v>
-      </c>
-      <c r="AD31" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF31" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE31" s="22" t="n">
         <v>-804</v>
       </c>
-      <c r="AG31" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH31" s="22" t="n">
+      <c r="AF31" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG31" s="22" t="n">
         <v>-673</v>
       </c>
+      <c r="AH31" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="AI31" s="22" t="s">
         <v>58</v>
       </c>
@@ -5665,50 +5665,50 @@
       <c r="AM31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AN31" s="22" t="s">
-        <v>58</v>
+      <c r="AN31" s="22" t="n">
+        <v>-12</v>
       </c>
       <c r="AO31" s="22" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AP31" s="22" t="n">
         <v>-27520</v>
       </c>
+      <c r="AP31" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ31" s="22" t="s">
         <v>58</v>
       </c>
       <c r="AR31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AS31" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT31" s="22" t="n">
+      <c r="AS31" s="22" t="n">
         <v>-8</v>
       </c>
-      <c r="AU31" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV31" s="22" t="n">
+      <c r="AT31" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU31" s="22" t="n">
         <v>-257927</v>
       </c>
-      <c r="AW31" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX31" s="22" t="n">
-        <v>0</v>
+      <c r="AV31" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW31" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="AY31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AZ31" s="22" t="s">
-        <v>58</v>
+      <c r="AZ31" s="22" t="n">
+        <v>-35944</v>
       </c>
       <c r="BA31" s="22" t="n">
-        <v>-35944</v>
-      </c>
-      <c r="BB31" s="22" t="n">
         <v>-11266</v>
+      </c>
+      <c r="BB31" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5803,12 +5803,12 @@
       <c r="AF32" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AG32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH32" s="15" t="n">
+      <c r="AG32" s="15" t="n">
         <v>-22</v>
       </c>
+      <c r="AH32" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AI32" s="15" t="s">
         <v>58</v>
       </c>
@@ -5824,14 +5824,14 @@
       <c r="AM32" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AN32" s="15" t="s">
-        <v>58</v>
+      <c r="AN32" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AO32" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AP32" s="15" t="n">
-        <v>0</v>
+      <c r="AP32" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AQ32" s="15" t="s">
         <v>58</v>
@@ -5968,12 +5968,12 @@
       <c r="AH33" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AI33" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ33" s="22" t="n">
+      <c r="AI33" s="22" t="n">
         <v>-376</v>
       </c>
+      <c r="AJ33" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="AK33" s="22" t="s">
         <v>58</v>
       </c>
@@ -5983,47 +5983,47 @@
       <c r="AM33" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AN33" s="22" t="s">
-        <v>58</v>
+      <c r="AN33" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="AO33" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP33" s="22" t="n">
         <v>-10000</v>
       </c>
+      <c r="AP33" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ33" s="22" t="s">
         <v>58</v>
       </c>
       <c r="AR33" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AS33" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT33" s="22" t="n">
+      <c r="AS33" s="22" t="n">
         <v>-1</v>
       </c>
-      <c r="AU33" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV33" s="22" t="n">
+      <c r="AT33" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU33" s="22" t="n">
         <v>-53336</v>
       </c>
-      <c r="AW33" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX33" s="22" t="n">
-        <v>0</v>
+      <c r="AV33" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="AY33" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AZ33" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA33" s="22" t="n">
+      <c r="AZ33" s="22" t="n">
         <v>-12355</v>
+      </c>
+      <c r="BA33" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="BB33" s="22" t="s">
         <v>58</v>
@@ -6157,23 +6157,23 @@
       <c r="AR34" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AS34" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT34" s="15" t="n">
+      <c r="AS34" s="15" t="n">
         <v>-15547</v>
       </c>
-      <c r="AU34" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW34" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX34" s="15" t="n">
-        <v>0</v>
+      <c r="AT34" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU34" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW34" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AY34" s="15" t="s">
         <v>58</v>
@@ -6242,17 +6242,17 @@
       <c r="T35" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U35" s="19" t="s">
-        <v>58</v>
+      <c r="U35" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="V35" s="19" t="n">
         <v>0</v>
       </c>
       <c r="W35" s="19" t="n">
-        <v>0</v>
+        <v>-2359</v>
       </c>
       <c r="X35" s="19" t="n">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="19" t="n">
         <v>0</v>
@@ -6261,34 +6261,34 @@
         <v>0</v>
       </c>
       <c r="AA35" s="19" t="n">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AB35" s="19" t="n">
-        <v>-94</v>
+        <v>-73</v>
       </c>
       <c r="AC35" s="19" t="n">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="19" t="n">
         <v>0</v>
       </c>
       <c r="AE35" s="19" t="n">
-        <v>0</v>
+        <v>-804</v>
       </c>
       <c r="AF35" s="19" t="n">
-        <v>-804</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="19" t="n">
-        <v>0</v>
+        <v>-695</v>
       </c>
       <c r="AH35" s="19" t="n">
-        <v>-695</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="19" t="n">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="AJ35" s="19" t="n">
-        <v>-376</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="19" t="n">
         <v>0</v>
@@ -6300,13 +6300,13 @@
         <v>0</v>
       </c>
       <c r="AN35" s="19" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AO35" s="19" t="n">
-        <v>-12</v>
+        <v>-37520</v>
       </c>
       <c r="AP35" s="19" t="n">
-        <v>-37520</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="19" t="n">
         <v>0</v>
@@ -6315,16 +6315,16 @@
         <v>0</v>
       </c>
       <c r="AS35" s="19" t="n">
-        <v>0</v>
+        <v>-15556</v>
       </c>
       <c r="AT35" s="19" t="n">
-        <v>-15556</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="19" t="n">
-        <v>0</v>
+        <v>-311263</v>
       </c>
       <c r="AV35" s="19" t="n">
-        <v>-311263</v>
+        <v>0</v>
       </c>
       <c r="AW35" s="19" t="n">
         <v>0</v>
@@ -6336,13 +6336,13 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="19" t="n">
-        <v>0</v>
+        <v>-48299</v>
       </c>
       <c r="BA35" s="19" t="n">
-        <v>-48299</v>
+        <v>-11266</v>
       </c>
       <c r="BB35" s="19" t="n">
-        <v>-11266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6352,154 +6352,154 @@
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="n">
-        <v>1384906</v>
+        <v>1246474</v>
       </c>
       <c r="F36" s="21" t="n">
-        <v>1246474</v>
+        <v>516275</v>
       </c>
       <c r="G36" s="21" t="n">
-        <v>516275</v>
+        <v>1208771</v>
       </c>
       <c r="H36" s="21" t="n">
-        <v>1208771</v>
+        <v>1042260</v>
       </c>
       <c r="I36" s="21" t="n">
-        <v>1042260</v>
+        <v>1444224</v>
       </c>
       <c r="J36" s="21" t="n">
-        <v>1444224</v>
+        <v>986685</v>
       </c>
       <c r="K36" s="21" t="n">
-        <v>986685</v>
+        <v>969128</v>
       </c>
       <c r="L36" s="21" t="n">
-        <v>969128</v>
+        <v>1128422</v>
       </c>
       <c r="M36" s="21" t="n">
-        <v>1128422</v>
+        <v>820476</v>
       </c>
       <c r="N36" s="21" t="n">
-        <v>820476</v>
+        <v>1390295</v>
       </c>
       <c r="O36" s="21" t="n">
-        <v>1390295</v>
+        <v>1281044</v>
       </c>
       <c r="P36" s="21" t="n">
-        <v>1281044</v>
+        <v>1300955</v>
       </c>
       <c r="Q36" s="21" t="n">
-        <v>1300955</v>
+        <v>1372638</v>
       </c>
       <c r="R36" s="21" t="n">
-        <v>1372638</v>
+        <v>701068</v>
       </c>
       <c r="S36" s="21" t="n">
-        <v>701068</v>
+        <v>1446489</v>
       </c>
       <c r="T36" s="21" t="n">
-        <v>1446489</v>
+        <v>1407362</v>
       </c>
       <c r="U36" s="21" t="n">
-        <v>1407362</v>
+        <v>1577496</v>
       </c>
       <c r="V36" s="21" t="n">
-        <v>1577496</v>
+        <v>1692932</v>
       </c>
       <c r="W36" s="21" t="n">
-        <v>1692932</v>
+        <v>1787190</v>
       </c>
       <c r="X36" s="21" t="n">
-        <v>1787190</v>
+        <v>1114647</v>
       </c>
       <c r="Y36" s="21" t="n">
-        <v>1114647</v>
+        <v>1401841</v>
       </c>
       <c r="Z36" s="21" t="n">
-        <v>1401841</v>
+        <v>1137428</v>
       </c>
       <c r="AA36" s="21" t="n">
-        <v>1137428</v>
+        <v>1290676</v>
       </c>
       <c r="AB36" s="21" t="n">
-        <v>1290676</v>
+        <v>1294870</v>
       </c>
       <c r="AC36" s="21" t="n">
-        <v>1294870</v>
+        <v>1334898</v>
       </c>
       <c r="AD36" s="21" t="n">
-        <v>1334898</v>
+        <v>1206052</v>
       </c>
       <c r="AE36" s="21" t="n">
-        <v>1206052</v>
+        <v>1654232</v>
       </c>
       <c r="AF36" s="21" t="n">
-        <v>1654232</v>
+        <v>2003506</v>
       </c>
       <c r="AG36" s="21" t="n">
-        <v>2003506</v>
+        <v>1746637</v>
       </c>
       <c r="AH36" s="21" t="n">
-        <v>1746637</v>
+        <v>1398790</v>
       </c>
       <c r="AI36" s="21" t="n">
-        <v>1398790</v>
+        <v>1602243</v>
       </c>
       <c r="AJ36" s="21" t="n">
-        <v>1602243</v>
+        <v>1383956</v>
       </c>
       <c r="AK36" s="21" t="n">
-        <v>1383956</v>
+        <v>1240179</v>
       </c>
       <c r="AL36" s="21" t="n">
-        <v>1240179</v>
+        <v>1183535</v>
       </c>
       <c r="AM36" s="21" t="n">
-        <v>1183535</v>
+        <v>1001890</v>
       </c>
       <c r="AN36" s="21" t="n">
-        <v>1001890</v>
+        <v>1118835</v>
       </c>
       <c r="AO36" s="21" t="n">
-        <v>1118835</v>
+        <v>1228247</v>
       </c>
       <c r="AP36" s="21" t="n">
-        <v>1228247</v>
+        <v>1352108</v>
       </c>
       <c r="AQ36" s="21" t="n">
-        <v>1352108</v>
+        <v>1351981</v>
       </c>
       <c r="AR36" s="21" t="n">
-        <v>1351981</v>
+        <v>2038083</v>
       </c>
       <c r="AS36" s="21" t="n">
-        <v>2038083</v>
+        <v>1602256</v>
       </c>
       <c r="AT36" s="21" t="n">
-        <v>1602256</v>
+        <v>1737875</v>
       </c>
       <c r="AU36" s="21" t="n">
-        <v>1737875</v>
+        <v>1399170</v>
       </c>
       <c r="AV36" s="21" t="n">
-        <v>1399170</v>
+        <v>1723409</v>
       </c>
       <c r="AW36" s="21" t="n">
-        <v>1723409</v>
+        <v>1228904</v>
       </c>
       <c r="AX36" s="21" t="n">
-        <v>1228904</v>
+        <v>1075803</v>
       </c>
       <c r="AY36" s="21" t="n">
-        <v>1075803</v>
+        <v>2060509</v>
       </c>
       <c r="AZ36" s="21" t="n">
-        <v>2060509</v>
+        <v>1568202</v>
       </c>
       <c r="BA36" s="21" t="n">
-        <v>1568202</v>
+        <v>1849698</v>
       </c>
       <c r="BB36" s="21" t="n">
-        <v>1849698</v>
+        <v>932142</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6945,154 +6945,154 @@
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22" t="n">
-        <v>184527</v>
+        <v>183206</v>
       </c>
       <c r="F43" s="22" t="n">
-        <v>183206</v>
+        <v>83146</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>83146</v>
+        <v>218396</v>
       </c>
       <c r="H43" s="22" t="n">
-        <v>218396</v>
+        <v>208594</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>208594</v>
+        <v>311904</v>
       </c>
       <c r="J43" s="22" t="n">
-        <v>311904</v>
+        <v>215220</v>
       </c>
       <c r="K43" s="22" t="n">
-        <v>215220</v>
+        <v>194609</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>194609</v>
+        <v>229415</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>229415</v>
+        <v>155098</v>
       </c>
       <c r="N43" s="22" t="n">
-        <v>155098</v>
+        <v>315405</v>
       </c>
       <c r="O43" s="22" t="n">
-        <v>315405</v>
+        <v>258163</v>
       </c>
       <c r="P43" s="22" t="n">
-        <v>258163</v>
+        <v>272931</v>
       </c>
       <c r="Q43" s="22" t="n">
-        <v>272931</v>
+        <v>308494</v>
       </c>
       <c r="R43" s="22" t="n">
-        <v>308494</v>
+        <v>142161</v>
       </c>
       <c r="S43" s="22" t="n">
-        <v>142161</v>
+        <v>363465</v>
       </c>
       <c r="T43" s="22" t="n">
-        <v>363465</v>
+        <v>369726</v>
       </c>
       <c r="U43" s="22" t="n">
-        <v>369726</v>
+        <v>439030</v>
       </c>
       <c r="V43" s="22" t="n">
-        <v>439030</v>
+        <v>594183</v>
       </c>
       <c r="W43" s="22" t="n">
-        <v>594183</v>
+        <v>607767</v>
       </c>
       <c r="X43" s="22" t="n">
-        <v>607767</v>
+        <v>418778</v>
       </c>
       <c r="Y43" s="22" t="n">
-        <v>418778</v>
+        <v>521588</v>
       </c>
       <c r="Z43" s="22" t="n">
-        <v>521588</v>
+        <v>420759</v>
       </c>
       <c r="AA43" s="22" t="n">
-        <v>420759</v>
+        <v>507849</v>
       </c>
       <c r="AB43" s="22" t="n">
-        <v>507849</v>
+        <v>487644</v>
       </c>
       <c r="AC43" s="22" t="n">
-        <v>487644</v>
+        <v>491819</v>
       </c>
       <c r="AD43" s="22" t="n">
-        <v>491819</v>
+        <v>494117</v>
       </c>
       <c r="AE43" s="22" t="n">
-        <v>494117</v>
+        <v>623424</v>
       </c>
       <c r="AF43" s="22" t="n">
-        <v>623424</v>
+        <v>841197</v>
       </c>
       <c r="AG43" s="22" t="n">
-        <v>841197</v>
+        <v>839417</v>
       </c>
       <c r="AH43" s="22" t="n">
-        <v>839417</v>
+        <v>611912</v>
       </c>
       <c r="AI43" s="22" t="n">
-        <v>611912</v>
+        <v>732879</v>
       </c>
       <c r="AJ43" s="22" t="n">
-        <v>732879</v>
+        <v>639877</v>
       </c>
       <c r="AK43" s="22" t="n">
-        <v>639877</v>
+        <v>620503</v>
       </c>
       <c r="AL43" s="22" t="n">
-        <v>620503</v>
+        <v>628115</v>
       </c>
       <c r="AM43" s="22" t="n">
-        <v>628115</v>
+        <v>566964</v>
       </c>
       <c r="AN43" s="22" t="n">
-        <v>566964</v>
+        <v>712736</v>
       </c>
       <c r="AO43" s="22" t="n">
-        <v>712736</v>
+        <v>639041</v>
       </c>
       <c r="AP43" s="22" t="n">
-        <v>639041</v>
+        <v>744541</v>
       </c>
       <c r="AQ43" s="22" t="n">
-        <v>744541</v>
+        <v>965683</v>
       </c>
       <c r="AR43" s="22" t="n">
-        <v>965683</v>
+        <v>1442823</v>
       </c>
       <c r="AS43" s="22" t="n">
-        <v>1442823</v>
+        <v>1200159</v>
       </c>
       <c r="AT43" s="22" t="n">
-        <v>1200159</v>
+        <v>1285313</v>
       </c>
       <c r="AU43" s="22" t="n">
-        <v>1285313</v>
+        <v>1291895</v>
       </c>
       <c r="AV43" s="22" t="n">
-        <v>1291895</v>
+        <v>1246502</v>
       </c>
       <c r="AW43" s="22" t="n">
-        <v>1246502</v>
+        <v>914363</v>
       </c>
       <c r="AX43" s="22" t="n">
-        <v>914363</v>
+        <v>914614</v>
       </c>
       <c r="AY43" s="22" t="n">
-        <v>914614</v>
+        <v>1694695</v>
       </c>
       <c r="AZ43" s="22" t="n">
-        <v>1694695</v>
+        <v>1393743</v>
       </c>
       <c r="BA43" s="22" t="n">
-        <v>1393743</v>
+        <v>1577271</v>
       </c>
       <c r="BB43" s="22" t="n">
-        <v>1577271</v>
+        <v>804646</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,82 +7104,82 @@
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15" t="n">
-        <v>8188</v>
+        <v>10834</v>
       </c>
       <c r="F44" s="15" t="n">
-        <v>10834</v>
+        <v>1285</v>
       </c>
       <c r="G44" s="15" t="n">
-        <v>1285</v>
+        <v>24197</v>
       </c>
       <c r="H44" s="15" t="n">
-        <v>24197</v>
+        <v>5605</v>
       </c>
       <c r="I44" s="15" t="n">
-        <v>5605</v>
+        <v>14128</v>
       </c>
       <c r="J44" s="15" t="n">
-        <v>14128</v>
+        <v>14602</v>
       </c>
       <c r="K44" s="15" t="n">
-        <v>14602</v>
+        <v>10598</v>
       </c>
       <c r="L44" s="15" t="n">
-        <v>10598</v>
+        <v>12043</v>
       </c>
       <c r="M44" s="15" t="n">
-        <v>12043</v>
+        <v>9105</v>
       </c>
       <c r="N44" s="15" t="n">
-        <v>9105</v>
+        <v>21589</v>
       </c>
       <c r="O44" s="15" t="n">
-        <v>21589</v>
+        <v>14839</v>
       </c>
       <c r="P44" s="15" t="n">
-        <v>14839</v>
+        <v>5556</v>
       </c>
       <c r="Q44" s="15" t="n">
-        <v>5556</v>
+        <v>11966</v>
       </c>
       <c r="R44" s="15" t="n">
-        <v>11966</v>
+        <v>8888</v>
       </c>
       <c r="S44" s="15" t="n">
-        <v>8888</v>
+        <v>23327</v>
       </c>
       <c r="T44" s="15" t="n">
-        <v>23327</v>
+        <v>18354</v>
       </c>
       <c r="U44" s="15" t="n">
-        <v>18354</v>
+        <v>33000</v>
       </c>
       <c r="V44" s="15" t="n">
-        <v>33000</v>
+        <v>24698</v>
       </c>
       <c r="W44" s="15" t="n">
-        <v>24698</v>
+        <v>22632</v>
       </c>
       <c r="X44" s="15" t="n">
-        <v>22632</v>
+        <v>34146</v>
       </c>
       <c r="Y44" s="15" t="n">
-        <v>34146</v>
+        <v>27973</v>
       </c>
       <c r="Z44" s="15" t="n">
-        <v>27973</v>
+        <v>32017</v>
       </c>
       <c r="AA44" s="15" t="n">
-        <v>32017</v>
+        <v>29834</v>
       </c>
       <c r="AB44" s="15" t="n">
-        <v>29834</v>
+        <v>26238</v>
       </c>
       <c r="AC44" s="15" t="n">
-        <v>26238</v>
+        <v>39047</v>
       </c>
       <c r="AD44" s="15" t="n">
-        <v>39047</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="15" t="n">
         <v>0</v>
@@ -7212,10 +7212,10 @@
         <v>0</v>
       </c>
       <c r="AO44" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP44" s="15" t="n">
         <v>47148</v>
+      </c>
+      <c r="AP44" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AQ44" s="15" t="s">
         <v>58</v>
@@ -7263,154 +7263,154 @@
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22" t="n">
-        <v>121770</v>
+        <v>83772</v>
       </c>
       <c r="F45" s="22" t="n">
-        <v>83772</v>
+        <v>37176</v>
       </c>
       <c r="G45" s="22" t="n">
-        <v>37176</v>
+        <v>51597</v>
       </c>
       <c r="H45" s="22" t="n">
-        <v>51597</v>
+        <v>70146</v>
       </c>
       <c r="I45" s="22" t="n">
-        <v>70146</v>
+        <v>83985</v>
       </c>
       <c r="J45" s="22" t="n">
-        <v>83985</v>
+        <v>51589</v>
       </c>
       <c r="K45" s="22" t="n">
-        <v>51589</v>
+        <v>73478</v>
       </c>
       <c r="L45" s="22" t="n">
-        <v>73478</v>
+        <v>82483</v>
       </c>
       <c r="M45" s="22" t="n">
-        <v>82483</v>
+        <v>85384</v>
       </c>
       <c r="N45" s="22" t="n">
-        <v>85384</v>
+        <v>57397</v>
       </c>
       <c r="O45" s="22" t="n">
-        <v>57397</v>
+        <v>111068</v>
       </c>
       <c r="P45" s="22" t="n">
-        <v>111068</v>
+        <v>115463</v>
       </c>
       <c r="Q45" s="22" t="n">
-        <v>115463</v>
+        <v>54480</v>
       </c>
       <c r="R45" s="22" t="n">
-        <v>54480</v>
+        <v>52505</v>
       </c>
       <c r="S45" s="22" t="n">
-        <v>52505</v>
+        <v>65563</v>
       </c>
       <c r="T45" s="22" t="n">
-        <v>65563</v>
+        <v>97042</v>
       </c>
       <c r="U45" s="22" t="n">
-        <v>97042</v>
+        <v>145452</v>
       </c>
       <c r="V45" s="22" t="n">
-        <v>145452</v>
+        <v>138377</v>
       </c>
       <c r="W45" s="22" t="n">
-        <v>138377</v>
+        <v>177321</v>
       </c>
       <c r="X45" s="22" t="n">
-        <v>177321</v>
+        <v>98639</v>
       </c>
       <c r="Y45" s="22" t="n">
-        <v>98639</v>
+        <v>170127</v>
       </c>
       <c r="Z45" s="22" t="n">
-        <v>170127</v>
+        <v>102130</v>
       </c>
       <c r="AA45" s="22" t="n">
-        <v>102130</v>
+        <v>127383</v>
       </c>
       <c r="AB45" s="22" t="n">
-        <v>127383</v>
+        <v>131257</v>
       </c>
       <c r="AC45" s="22" t="n">
-        <v>131257</v>
+        <v>146407</v>
       </c>
       <c r="AD45" s="22" t="n">
-        <v>146407</v>
+        <v>139031</v>
       </c>
       <c r="AE45" s="22" t="n">
-        <v>139031</v>
+        <v>195810</v>
       </c>
       <c r="AF45" s="22" t="n">
-        <v>195810</v>
+        <v>220573</v>
       </c>
       <c r="AG45" s="22" t="n">
-        <v>220573</v>
+        <v>137294</v>
       </c>
       <c r="AH45" s="22" t="n">
-        <v>137294</v>
+        <v>228423</v>
       </c>
       <c r="AI45" s="22" t="n">
-        <v>228423</v>
+        <v>251605</v>
       </c>
       <c r="AJ45" s="22" t="n">
-        <v>251605</v>
+        <v>228593</v>
       </c>
       <c r="AK45" s="22" t="n">
-        <v>228593</v>
+        <v>187794</v>
       </c>
       <c r="AL45" s="22" t="n">
-        <v>187794</v>
+        <v>197243</v>
       </c>
       <c r="AM45" s="22" t="n">
-        <v>197243</v>
+        <v>169773</v>
       </c>
       <c r="AN45" s="22" t="n">
-        <v>169773</v>
+        <v>50395</v>
       </c>
       <c r="AO45" s="22" t="n">
-        <v>50395</v>
+        <v>113190</v>
       </c>
       <c r="AP45" s="22" t="n">
-        <v>113190</v>
+        <v>164766</v>
       </c>
       <c r="AQ45" s="22" t="n">
-        <v>164766</v>
+        <v>183635</v>
       </c>
       <c r="AR45" s="22" t="n">
-        <v>183635</v>
+        <v>217455</v>
       </c>
       <c r="AS45" s="22" t="n">
-        <v>217455</v>
+        <v>180287</v>
       </c>
       <c r="AT45" s="22" t="n">
-        <v>180287</v>
+        <v>188122</v>
       </c>
       <c r="AU45" s="22" t="n">
-        <v>188122</v>
+        <v>188906</v>
       </c>
       <c r="AV45" s="22" t="n">
-        <v>188906</v>
+        <v>285662</v>
       </c>
       <c r="AW45" s="22" t="n">
-        <v>285662</v>
+        <v>139121</v>
       </c>
       <c r="AX45" s="22" t="n">
-        <v>139121</v>
+        <v>121988</v>
       </c>
       <c r="AY45" s="22" t="n">
-        <v>121988</v>
+        <v>245951</v>
       </c>
       <c r="AZ45" s="22" t="n">
-        <v>245951</v>
+        <v>100048</v>
       </c>
       <c r="BA45" s="22" t="n">
-        <v>100048</v>
+        <v>344672</v>
       </c>
       <c r="BB45" s="22" t="n">
-        <v>344672</v>
+        <v>151721</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7496,80 +7496,80 @@
       <c r="AC46" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD46" s="15" t="s">
-        <v>58</v>
+      <c r="AD46" s="15" t="n">
+        <v>26245</v>
       </c>
       <c r="AE46" s="15" t="n">
-        <v>26245</v>
+        <v>61856</v>
       </c>
       <c r="AF46" s="15" t="n">
-        <v>61856</v>
+        <v>67802</v>
       </c>
       <c r="AG46" s="15" t="n">
-        <v>67802</v>
+        <v>61484</v>
       </c>
       <c r="AH46" s="15" t="n">
-        <v>61484</v>
+        <v>59403</v>
       </c>
       <c r="AI46" s="15" t="n">
-        <v>59403</v>
+        <v>64199</v>
       </c>
       <c r="AJ46" s="15" t="n">
-        <v>64199</v>
+        <v>37627</v>
       </c>
       <c r="AK46" s="15" t="n">
-        <v>37627</v>
+        <v>56308</v>
       </c>
       <c r="AL46" s="15" t="n">
-        <v>56308</v>
+        <v>44349</v>
       </c>
       <c r="AM46" s="15" t="n">
-        <v>44349</v>
+        <v>33883</v>
       </c>
       <c r="AN46" s="15" t="n">
-        <v>33883</v>
-      </c>
-      <c r="AO46" s="15" t="n">
         <v>47761</v>
       </c>
-      <c r="AP46" s="15" t="s">
-        <v>58</v>
+      <c r="AO46" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP46" s="15" t="n">
+        <v>55545</v>
       </c>
       <c r="AQ46" s="15" t="n">
-        <v>55545</v>
+        <v>55612</v>
       </c>
       <c r="AR46" s="15" t="n">
-        <v>55612</v>
+        <v>81400</v>
       </c>
       <c r="AS46" s="15" t="n">
-        <v>81400</v>
+        <v>62593</v>
       </c>
       <c r="AT46" s="15" t="n">
-        <v>62593</v>
+        <v>59882</v>
       </c>
       <c r="AU46" s="15" t="n">
-        <v>59882</v>
+        <v>66870</v>
       </c>
       <c r="AV46" s="15" t="n">
-        <v>66870</v>
+        <v>11365</v>
       </c>
       <c r="AW46" s="15" t="n">
-        <v>11365</v>
+        <v>124274</v>
       </c>
       <c r="AX46" s="15" t="n">
-        <v>124274</v>
+        <v>93404</v>
       </c>
       <c r="AY46" s="15" t="n">
-        <v>93404</v>
+        <v>75929</v>
       </c>
       <c r="AZ46" s="15" t="n">
-        <v>75929</v>
+        <v>144642</v>
       </c>
       <c r="BA46" s="15" t="n">
-        <v>144642</v>
+        <v>72806</v>
       </c>
       <c r="BB46" s="15" t="n">
-        <v>72806</v>
+        <v>98971</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7685,8 +7685,8 @@
       <c r="T48" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="19" t="s">
-        <v>58</v>
+      <c r="U48" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V48" s="23" t="n">
         <v>0</v>
@@ -7907,11 +7907,11 @@
       <c r="V50" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="W50" s="22" t="s">
-        <v>58</v>
+      <c r="W50" s="22" t="n">
+        <v>-537</v>
       </c>
       <c r="X50" s="22" t="n">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="22" t="n">
         <v>0</v>
@@ -7920,28 +7920,28 @@
         <v>0</v>
       </c>
       <c r="AA50" s="22" t="n">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AB50" s="22" t="n">
-        <v>-48</v>
+        <v>-32</v>
       </c>
       <c r="AC50" s="22" t="n">
-        <v>-32</v>
-      </c>
-      <c r="AD50" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="22" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE50" s="22" t="n">
+        <v>-534</v>
       </c>
       <c r="AF50" s="22" t="n">
-        <v>-534</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="22" t="n">
-        <v>0</v>
+        <v>-480</v>
       </c>
       <c r="AH50" s="22" t="n">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="22" t="n">
         <v>0</v>
@@ -7959,31 +7959,31 @@
         <v>0</v>
       </c>
       <c r="AN50" s="22" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AO50" s="22" t="n">
-        <v>-11</v>
-      </c>
-      <c r="AP50" s="22" t="n">
         <v>-18919</v>
       </c>
-      <c r="AQ50" s="22" t="s">
-        <v>58</v>
+      <c r="AP50" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ50" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="AR50" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AS50" s="22" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AT50" s="22" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AU50" s="22" t="n">
-        <v>0</v>
+        <v>-232282</v>
       </c>
       <c r="AV50" s="22" t="n">
-        <v>-232282</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="22" t="n">
         <v>0</v>
@@ -7995,13 +7995,13 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="22" t="n">
-        <v>0</v>
+        <v>-29177</v>
       </c>
       <c r="BA50" s="22" t="n">
-        <v>-29177</v>
-      </c>
-      <c r="BB50" s="22" t="n">
         <v>-11045</v>
+      </c>
+      <c r="BB50" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8096,11 +8096,11 @@
       <c r="AF51" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AG51" s="15" t="s">
-        <v>58</v>
+      <c r="AG51" s="15" t="n">
+        <v>-9</v>
       </c>
       <c r="AH51" s="15" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="15" t="n">
         <v>0</v>
@@ -8123,8 +8123,8 @@
       <c r="AO51" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AP51" s="15" t="n">
-        <v>0</v>
+      <c r="AP51" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AQ51" s="15" t="s">
         <v>58</v>
@@ -8261,11 +8261,11 @@
       <c r="AH52" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AI52" s="22" t="s">
-        <v>58</v>
+      <c r="AI52" s="22" t="n">
+        <v>-228</v>
       </c>
       <c r="AJ52" s="22" t="n">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="22" t="n">
         <v>0</v>
@@ -8280,28 +8280,28 @@
         <v>0</v>
       </c>
       <c r="AO52" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP52" s="22" t="n">
         <v>-8665</v>
       </c>
+      <c r="AP52" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ52" s="22" t="s">
         <v>58</v>
       </c>
       <c r="AR52" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AS52" s="22" t="s">
-        <v>58</v>
+      <c r="AS52" s="22" t="n">
+        <v>-1</v>
       </c>
       <c r="AT52" s="22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AU52" s="22" t="n">
-        <v>0</v>
+        <v>-46804</v>
       </c>
       <c r="AV52" s="22" t="n">
-        <v>-46804</v>
+        <v>0</v>
       </c>
       <c r="AW52" s="22" t="n">
         <v>0</v>
@@ -8313,13 +8313,13 @@
         <v>0</v>
       </c>
       <c r="AZ52" s="22" t="n">
-        <v>0</v>
+        <v>-11468</v>
       </c>
       <c r="BA52" s="22" t="n">
-        <v>-11468</v>
-      </c>
-      <c r="BB52" s="22" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB52" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8450,11 +8450,11 @@
       <c r="AR53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AS53" s="15" t="s">
-        <v>58</v>
+      <c r="AS53" s="15" t="n">
+        <v>-10250</v>
       </c>
       <c r="AT53" s="15" t="n">
-        <v>-10250</v>
+        <v>0</v>
       </c>
       <c r="AU53" s="15" t="n">
         <v>0</v>
@@ -8477,8 +8477,8 @@
       <c r="BA53" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="BB53" s="15" t="n">
-        <v>0</v>
+      <c r="BB53" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8537,17 +8537,17 @@
       <c r="T54" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U54" s="19" t="s">
-        <v>58</v>
+      <c r="U54" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V54" s="23" t="n">
         <v>0</v>
       </c>
       <c r="W54" s="23" t="n">
-        <v>0</v>
+        <v>-537</v>
       </c>
       <c r="X54" s="23" t="n">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="23" t="n">
         <v>0</v>
@@ -8556,34 +8556,34 @@
         <v>0</v>
       </c>
       <c r="AA54" s="23" t="n">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AB54" s="23" t="n">
-        <v>-48</v>
+        <v>-32</v>
       </c>
       <c r="AC54" s="23" t="n">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AD54" s="23" t="n">
         <v>0</v>
       </c>
       <c r="AE54" s="23" t="n">
-        <v>0</v>
+        <v>-534</v>
       </c>
       <c r="AF54" s="23" t="n">
-        <v>-534</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="23" t="n">
-        <v>0</v>
+        <v>-489</v>
       </c>
       <c r="AH54" s="23" t="n">
-        <v>-489</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="23" t="n">
-        <v>0</v>
+        <v>-228</v>
       </c>
       <c r="AJ54" s="23" t="n">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AK54" s="23" t="n">
         <v>0</v>
@@ -8595,13 +8595,13 @@
         <v>0</v>
       </c>
       <c r="AN54" s="23" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AO54" s="23" t="n">
-        <v>-11</v>
+        <v>-27584</v>
       </c>
       <c r="AP54" s="23" t="n">
-        <v>-27584</v>
+        <v>0</v>
       </c>
       <c r="AQ54" s="23" t="n">
         <v>0</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="AS54" s="23" t="n">
-        <v>0</v>
+        <v>-10259</v>
       </c>
       <c r="AT54" s="23" t="n">
-        <v>-10259</v>
+        <v>0</v>
       </c>
       <c r="AU54" s="23" t="n">
-        <v>0</v>
+        <v>-279086</v>
       </c>
       <c r="AV54" s="23" t="n">
-        <v>-279086</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="23" t="n">
         <v>0</v>
@@ -8631,13 +8631,13 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="23" t="n">
-        <v>0</v>
+        <v>-40645</v>
       </c>
       <c r="BA54" s="23" t="n">
-        <v>-40645</v>
+        <v>-11045</v>
       </c>
       <c r="BB54" s="23" t="n">
-        <v>-11045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8753,17 +8753,17 @@
       <c r="T56" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U56" s="22" t="s">
-        <v>58</v>
+      <c r="U56" s="22" t="n">
+        <v>-643</v>
       </c>
       <c r="V56" s="22" t="n">
-        <v>-643</v>
+        <v>-325</v>
       </c>
       <c r="W56" s="22" t="n">
-        <v>-325</v>
+        <v>-3860</v>
       </c>
       <c r="X56" s="22" t="n">
-        <v>-3860</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="22" t="n">
         <v>0</v>
@@ -8772,67 +8772,67 @@
         <v>0</v>
       </c>
       <c r="AA56" s="22" t="n">
-        <v>0</v>
+        <v>-455</v>
       </c>
       <c r="AB56" s="22" t="n">
-        <v>-455</v>
+        <v>-472</v>
       </c>
       <c r="AC56" s="22" t="n">
-        <v>-472</v>
+        <v>-259</v>
       </c>
       <c r="AD56" s="22" t="n">
-        <v>-259</v>
+        <v>-6</v>
       </c>
       <c r="AE56" s="22" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="22" t="n">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="AG56" s="22" t="n">
-        <v>-47</v>
+        <v>-58</v>
       </c>
       <c r="AH56" s="22" t="n">
-        <v>-58</v>
+        <v>-7683</v>
       </c>
       <c r="AI56" s="22" t="n">
-        <v>-7683</v>
+        <v>-8058</v>
       </c>
       <c r="AJ56" s="22" t="n">
-        <v>-8058</v>
+        <v>-8049</v>
       </c>
       <c r="AK56" s="22" t="n">
-        <v>-8049</v>
+        <v>-8065</v>
       </c>
       <c r="AL56" s="22" t="n">
-        <v>-8065</v>
+        <v>-7978</v>
       </c>
       <c r="AM56" s="22" t="n">
-        <v>-7978</v>
+        <v>-31864</v>
       </c>
       <c r="AN56" s="22" t="n">
-        <v>-31864</v>
+        <v>-22230</v>
       </c>
       <c r="AO56" s="22" t="n">
-        <v>-22230</v>
+        <v>-22531</v>
       </c>
       <c r="AP56" s="22" t="n">
-        <v>-22531</v>
+        <v>-56</v>
       </c>
       <c r="AQ56" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR56" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="22" t="n">
         <v>-56</v>
       </c>
-      <c r="AR56" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS56" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT56" s="22" t="n">
-        <v>0</v>
-      </c>
       <c r="AU56" s="22" t="n">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="AV56" s="22" t="n">
         <v>0</v>
@@ -8863,154 +8863,154 @@
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
       <c r="E57" s="21" t="n">
-        <v>314485</v>
+        <v>277812</v>
       </c>
       <c r="F57" s="21" t="n">
-        <v>277812</v>
+        <v>121607</v>
       </c>
       <c r="G57" s="21" t="n">
-        <v>121607</v>
+        <v>294190</v>
       </c>
       <c r="H57" s="21" t="n">
-        <v>294190</v>
+        <v>284345</v>
       </c>
       <c r="I57" s="21" t="n">
-        <v>284345</v>
+        <v>410017</v>
       </c>
       <c r="J57" s="21" t="n">
-        <v>410017</v>
+        <v>281411</v>
       </c>
       <c r="K57" s="21" t="n">
-        <v>281411</v>
+        <v>278685</v>
       </c>
       <c r="L57" s="21" t="n">
-        <v>278685</v>
+        <v>323941</v>
       </c>
       <c r="M57" s="21" t="n">
-        <v>323941</v>
+        <v>249587</v>
       </c>
       <c r="N57" s="21" t="n">
-        <v>249587</v>
+        <v>394391</v>
       </c>
       <c r="O57" s="21" t="n">
-        <v>394391</v>
+        <v>384070</v>
       </c>
       <c r="P57" s="21" t="n">
-        <v>384070</v>
+        <v>393950</v>
       </c>
       <c r="Q57" s="21" t="n">
-        <v>393950</v>
+        <v>374940</v>
       </c>
       <c r="R57" s="21" t="n">
-        <v>374940</v>
+        <v>203554</v>
       </c>
       <c r="S57" s="21" t="n">
-        <v>203554</v>
+        <v>452355</v>
       </c>
       <c r="T57" s="21" t="n">
-        <v>452355</v>
+        <v>485122</v>
       </c>
       <c r="U57" s="21" t="n">
-        <v>485122</v>
+        <v>616839</v>
       </c>
       <c r="V57" s="21" t="n">
-        <v>616839</v>
+        <v>756933</v>
       </c>
       <c r="W57" s="21" t="n">
-        <v>756933</v>
+        <v>803323</v>
       </c>
       <c r="X57" s="21" t="n">
-        <v>803323</v>
+        <v>551563</v>
       </c>
       <c r="Y57" s="21" t="n">
-        <v>551563</v>
+        <v>719688</v>
       </c>
       <c r="Z57" s="21" t="n">
-        <v>719688</v>
+        <v>554906</v>
       </c>
       <c r="AA57" s="21" t="n">
-        <v>554906</v>
+        <v>664563</v>
       </c>
       <c r="AB57" s="21" t="n">
-        <v>664563</v>
+        <v>644635</v>
       </c>
       <c r="AC57" s="21" t="n">
-        <v>644635</v>
+        <v>677014</v>
       </c>
       <c r="AD57" s="21" t="n">
-        <v>677014</v>
+        <v>659387</v>
       </c>
       <c r="AE57" s="21" t="n">
-        <v>659387</v>
+        <v>880556</v>
       </c>
       <c r="AF57" s="21" t="n">
-        <v>880556</v>
+        <v>1129525</v>
       </c>
       <c r="AG57" s="21" t="n">
-        <v>1129525</v>
+        <v>1037648</v>
       </c>
       <c r="AH57" s="21" t="n">
-        <v>1037648</v>
+        <v>892055</v>
       </c>
       <c r="AI57" s="21" t="n">
-        <v>892055</v>
+        <v>1040397</v>
       </c>
       <c r="AJ57" s="21" t="n">
-        <v>1040397</v>
+        <v>898048</v>
       </c>
       <c r="AK57" s="21" t="n">
-        <v>898048</v>
+        <v>856540</v>
       </c>
       <c r="AL57" s="21" t="n">
-        <v>856540</v>
+        <v>861729</v>
       </c>
       <c r="AM57" s="21" t="n">
-        <v>861729</v>
+        <v>738756</v>
       </c>
       <c r="AN57" s="21" t="n">
-        <v>738756</v>
+        <v>788651</v>
       </c>
       <c r="AO57" s="21" t="n">
-        <v>788651</v>
+        <v>749264</v>
       </c>
       <c r="AP57" s="21" t="n">
-        <v>749264</v>
+        <v>964796</v>
       </c>
       <c r="AQ57" s="21" t="n">
-        <v>964796</v>
+        <v>1204929</v>
       </c>
       <c r="AR57" s="21" t="n">
-        <v>1204929</v>
+        <v>1741678</v>
       </c>
       <c r="AS57" s="21" t="n">
-        <v>1741678</v>
+        <v>1432780</v>
       </c>
       <c r="AT57" s="21" t="n">
-        <v>1432780</v>
+        <v>1533261</v>
       </c>
       <c r="AU57" s="21" t="n">
-        <v>1533261</v>
+        <v>1268585</v>
       </c>
       <c r="AV57" s="21" t="n">
-        <v>1268585</v>
+        <v>1543529</v>
       </c>
       <c r="AW57" s="21" t="n">
-        <v>1543529</v>
+        <v>1177758</v>
       </c>
       <c r="AX57" s="21" t="n">
-        <v>1177758</v>
+        <v>1130006</v>
       </c>
       <c r="AY57" s="21" t="n">
-        <v>1130006</v>
+        <v>2016575</v>
       </c>
       <c r="AZ57" s="21" t="n">
-        <v>2016575</v>
+        <v>1597788</v>
       </c>
       <c r="BA57" s="21" t="n">
-        <v>1597788</v>
+        <v>1983704</v>
       </c>
       <c r="BB57" s="21" t="n">
-        <v>1983704</v>
+        <v>1055338</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9456,154 +9456,154 @@
       </c>
       <c r="D64" s="22"/>
       <c r="E64" s="22" t="n">
-        <v>202795</v>
+        <v>200477</v>
       </c>
       <c r="F64" s="22" t="n">
-        <v>200477</v>
+        <v>216242</v>
       </c>
       <c r="G64" s="22" t="n">
-        <v>216242</v>
+        <v>241388</v>
       </c>
       <c r="H64" s="22" t="n">
-        <v>241388</v>
+        <v>247472</v>
       </c>
       <c r="I64" s="22" t="n">
-        <v>247472</v>
+        <v>268167</v>
       </c>
       <c r="J64" s="22" t="n">
-        <v>268167</v>
+        <v>271265</v>
       </c>
       <c r="K64" s="22" t="n">
-        <v>271265</v>
+        <v>267164</v>
       </c>
       <c r="L64" s="22" t="n">
-        <v>267164</v>
+        <v>267761</v>
       </c>
       <c r="M64" s="22" t="n">
-        <v>267761</v>
+        <v>277161</v>
       </c>
       <c r="N64" s="22" t="n">
-        <v>277161</v>
+        <v>275617</v>
       </c>
       <c r="O64" s="22" t="n">
-        <v>275617</v>
+        <v>279100</v>
       </c>
       <c r="P64" s="22" t="n">
-        <v>279100</v>
+        <v>281438</v>
       </c>
       <c r="Q64" s="22" t="n">
-        <v>281438</v>
+        <v>267416</v>
       </c>
       <c r="R64" s="22" t="n">
-        <v>267416</v>
+        <v>271969</v>
       </c>
       <c r="S64" s="22" t="n">
-        <v>271969</v>
+        <v>301869</v>
       </c>
       <c r="T64" s="22" t="n">
-        <v>301869</v>
+        <v>328951</v>
       </c>
       <c r="U64" s="22" t="n">
-        <v>328951</v>
+        <v>378193</v>
       </c>
       <c r="V64" s="22" t="n">
-        <v>378193</v>
+        <v>434309</v>
       </c>
       <c r="W64" s="22" t="n">
-        <v>434309</v>
+        <v>439597</v>
       </c>
       <c r="X64" s="22" t="n">
-        <v>439597</v>
+        <v>486239</v>
       </c>
       <c r="Y64" s="22" t="n">
-        <v>486239</v>
+        <v>497773</v>
       </c>
       <c r="Z64" s="22" t="n">
-        <v>497773</v>
+        <v>481886</v>
       </c>
       <c r="AA64" s="22" t="n">
-        <v>481886</v>
+        <v>505399</v>
       </c>
       <c r="AB64" s="22" t="n">
-        <v>505399</v>
+        <v>488905</v>
       </c>
       <c r="AC64" s="22" t="n">
-        <v>488905</v>
+        <v>499485</v>
       </c>
       <c r="AD64" s="22" t="n">
-        <v>499485</v>
+        <v>532171</v>
       </c>
       <c r="AE64" s="22" t="n">
-        <v>532171</v>
+        <v>520401</v>
       </c>
       <c r="AF64" s="22" t="n">
-        <v>520401</v>
+        <v>543709</v>
       </c>
       <c r="AG64" s="22" t="n">
-        <v>543709</v>
+        <v>573423</v>
       </c>
       <c r="AH64" s="22" t="n">
-        <v>573423</v>
+        <v>609384</v>
       </c>
       <c r="AI64" s="22" t="n">
-        <v>609384</v>
+        <v>631952</v>
       </c>
       <c r="AJ64" s="22" t="n">
-        <v>631952</v>
+        <v>629855</v>
       </c>
       <c r="AK64" s="22" t="n">
-        <v>629855</v>
+        <v>675583</v>
       </c>
       <c r="AL64" s="22" t="n">
-        <v>675583</v>
+        <v>727495</v>
       </c>
       <c r="AM64" s="22" t="n">
-        <v>727495</v>
+        <v>755698</v>
       </c>
       <c r="AN64" s="22" t="n">
-        <v>755698</v>
+        <v>731074</v>
       </c>
       <c r="AO64" s="22" t="n">
-        <v>731074</v>
+        <v>639915</v>
       </c>
       <c r="AP64" s="22" t="n">
-        <v>639915</v>
+        <v>700566</v>
       </c>
       <c r="AQ64" s="22" t="n">
-        <v>700566</v>
+        <v>906529</v>
       </c>
       <c r="AR64" s="22" t="n">
-        <v>906529</v>
+        <v>863517</v>
       </c>
       <c r="AS64" s="22" t="n">
-        <v>863517</v>
+        <v>903290</v>
       </c>
       <c r="AT64" s="22" t="n">
-        <v>903290</v>
+        <v>894850</v>
       </c>
       <c r="AU64" s="22" t="n">
-        <v>894850</v>
+        <v>927104</v>
       </c>
       <c r="AV64" s="22" t="n">
-        <v>927104</v>
+        <v>885284</v>
       </c>
       <c r="AW64" s="22" t="n">
-        <v>885284</v>
+        <v>988528</v>
       </c>
       <c r="AX64" s="22" t="n">
-        <v>988528</v>
+        <v>1067728</v>
       </c>
       <c r="AY64" s="22" t="n">
-        <v>1067728</v>
+        <v>976711</v>
       </c>
       <c r="AZ64" s="22" t="n">
-        <v>976711</v>
+        <v>1045735</v>
       </c>
       <c r="BA64" s="22" t="n">
-        <v>1045735</v>
+        <v>1081251</v>
       </c>
       <c r="BB64" s="22" t="n">
-        <v>1081251</v>
+        <v>1159517</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9615,83 +9615,83 @@
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="15" t="n">
-        <v>165411</v>
+        <v>314613</v>
       </c>
       <c r="F65" s="15" t="n">
-        <v>314613</v>
+        <v>204781</v>
       </c>
       <c r="G65" s="15" t="n">
-        <v>204781</v>
+        <v>159213</v>
       </c>
       <c r="H65" s="15" t="n">
-        <v>159213</v>
+        <v>259840</v>
       </c>
       <c r="I65" s="15" t="n">
-        <v>259840</v>
+        <v>220210</v>
       </c>
       <c r="J65" s="15" t="n">
-        <v>220210</v>
+        <v>224646</v>
       </c>
       <c r="K65" s="15" t="n">
-        <v>224646</v>
+        <v>214769</v>
       </c>
       <c r="L65" s="15" t="n">
-        <v>214769</v>
+        <v>229356</v>
       </c>
       <c r="M65" s="15" t="n">
-        <v>229356</v>
+        <v>222954</v>
       </c>
       <c r="N65" s="15" t="n">
-        <v>222954</v>
+        <v>233506</v>
       </c>
       <c r="O65" s="15" t="n">
-        <v>233506</v>
+        <v>238339</v>
       </c>
       <c r="P65" s="15" t="n">
-        <v>238339</v>
+        <v>216718</v>
       </c>
       <c r="Q65" s="15" t="n">
-        <v>216718</v>
+        <v>213591</v>
       </c>
       <c r="R65" s="15" t="n">
-        <v>213591</v>
+        <v>215535</v>
       </c>
       <c r="S65" s="15" t="n">
-        <v>215535</v>
+        <v>242542</v>
       </c>
       <c r="T65" s="15" t="n">
-        <v>242542</v>
+        <v>247662</v>
       </c>
       <c r="U65" s="15" t="n">
-        <v>247662</v>
+        <v>270763</v>
       </c>
       <c r="V65" s="15" t="n">
-        <v>270763</v>
+        <v>288491</v>
       </c>
       <c r="W65" s="15" t="n">
-        <v>288491</v>
+        <v>287113</v>
       </c>
       <c r="X65" s="15" t="n">
-        <v>287113</v>
+        <v>319836</v>
       </c>
       <c r="Y65" s="15" t="n">
-        <v>319836</v>
+        <v>327204</v>
       </c>
       <c r="Z65" s="15" t="n">
-        <v>327204</v>
+        <v>327118</v>
       </c>
       <c r="AA65" s="15" t="n">
-        <v>327118</v>
+        <v>319032</v>
       </c>
       <c r="AB65" s="15" t="n">
-        <v>319032</v>
+        <v>310413</v>
       </c>
       <c r="AC65" s="15" t="n">
-        <v>310413</v>
-      </c>
-      <c r="AD65" s="15" t="n">
         <v>346816</v>
       </c>
+      <c r="AD65" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AE65" s="15" t="s">
         <v>58</v>
       </c>
@@ -9722,11 +9722,11 @@
       <c r="AN65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AO65" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP65" s="15" t="n">
+      <c r="AO65" s="15" t="n">
         <v>548041</v>
+      </c>
+      <c r="AP65" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AQ65" s="15" t="s">
         <v>58</v>
@@ -9774,154 +9774,154 @@
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="22" t="n">
-        <v>286192</v>
+        <v>280936</v>
       </c>
       <c r="F66" s="22" t="n">
-        <v>280936</v>
+        <v>296235</v>
       </c>
       <c r="G66" s="22" t="n">
-        <v>296235</v>
+        <v>339365</v>
       </c>
       <c r="H66" s="22" t="n">
-        <v>339365</v>
+        <v>394544</v>
       </c>
       <c r="I66" s="22" t="n">
-        <v>394544</v>
+        <v>387076</v>
       </c>
       <c r="J66" s="22" t="n">
-        <v>387076</v>
+        <v>402125</v>
       </c>
       <c r="K66" s="22" t="n">
-        <v>402125</v>
+        <v>383986</v>
       </c>
       <c r="L66" s="22" t="n">
-        <v>383986</v>
+        <v>376423</v>
       </c>
       <c r="M66" s="22" t="n">
-        <v>376423</v>
+        <v>388035</v>
       </c>
       <c r="N66" s="22" t="n">
-        <v>388035</v>
+        <v>373975</v>
       </c>
       <c r="O66" s="22" t="n">
-        <v>373975</v>
+        <v>378039</v>
       </c>
       <c r="P66" s="22" t="n">
-        <v>378039</v>
+        <v>377893</v>
       </c>
       <c r="Q66" s="22" t="n">
-        <v>377893</v>
+        <v>334229</v>
       </c>
       <c r="R66" s="22" t="n">
-        <v>334229</v>
+        <v>382910</v>
       </c>
       <c r="S66" s="22" t="n">
-        <v>382910</v>
+        <v>448254</v>
       </c>
       <c r="T66" s="22" t="n">
-        <v>448254</v>
+        <v>463655</v>
       </c>
       <c r="U66" s="22" t="n">
-        <v>463655</v>
+        <v>493467</v>
       </c>
       <c r="V66" s="22" t="n">
-        <v>493467</v>
+        <v>578475</v>
       </c>
       <c r="W66" s="22" t="n">
-        <v>578475</v>
+        <v>540338</v>
       </c>
       <c r="X66" s="22" t="n">
-        <v>540338</v>
+        <v>672725</v>
       </c>
       <c r="Y66" s="22" t="n">
-        <v>672725</v>
+        <v>633604</v>
       </c>
       <c r="Z66" s="22" t="n">
-        <v>633604</v>
+        <v>613755</v>
       </c>
       <c r="AA66" s="22" t="n">
-        <v>613755</v>
+        <v>662043</v>
       </c>
       <c r="AB66" s="22" t="n">
-        <v>662043</v>
+        <v>616242</v>
       </c>
       <c r="AC66" s="22" t="n">
-        <v>616242</v>
+        <v>616041</v>
       </c>
       <c r="AD66" s="22" t="n">
-        <v>616041</v>
+        <v>663734</v>
       </c>
       <c r="AE66" s="22" t="n">
-        <v>663734</v>
+        <v>594488</v>
       </c>
       <c r="AF66" s="22" t="n">
-        <v>594488</v>
+        <v>698000</v>
       </c>
       <c r="AG66" s="22" t="n">
-        <v>698000</v>
+        <v>860206</v>
       </c>
       <c r="AH66" s="22" t="n">
-        <v>860206</v>
+        <v>816021</v>
       </c>
       <c r="AI66" s="22" t="n">
-        <v>816021</v>
+        <v>776470</v>
       </c>
       <c r="AJ66" s="22" t="n">
-        <v>776470</v>
+        <v>757588</v>
       </c>
       <c r="AK66" s="22" t="n">
-        <v>757588</v>
+        <v>850551</v>
       </c>
       <c r="AL66" s="22" t="n">
-        <v>850551</v>
+        <v>826561</v>
       </c>
       <c r="AM66" s="22" t="n">
-        <v>826561</v>
+        <v>884557</v>
       </c>
       <c r="AN66" s="22" t="n">
-        <v>884557</v>
+        <v>856141</v>
       </c>
       <c r="AO66" s="22" t="n">
-        <v>856141</v>
+        <v>625003</v>
       </c>
       <c r="AP66" s="22" t="n">
-        <v>625003</v>
+        <v>869790</v>
       </c>
       <c r="AQ66" s="22" t="n">
-        <v>869790</v>
+        <v>929586</v>
       </c>
       <c r="AR66" s="22" t="n">
-        <v>929586</v>
+        <v>919071</v>
       </c>
       <c r="AS66" s="22" t="n">
-        <v>919071</v>
+        <v>954329</v>
       </c>
       <c r="AT66" s="22" t="n">
-        <v>954329</v>
+        <v>903924</v>
       </c>
       <c r="AU66" s="22" t="n">
-        <v>903924</v>
+        <v>884371</v>
       </c>
       <c r="AV66" s="22" t="n">
-        <v>884371</v>
+        <v>954172</v>
       </c>
       <c r="AW66" s="22" t="n">
-        <v>954172</v>
+        <v>1083556</v>
       </c>
       <c r="AX66" s="22" t="n">
-        <v>1083556</v>
+        <v>1108952</v>
       </c>
       <c r="AY66" s="22" t="n">
-        <v>1108952</v>
+        <v>1064857</v>
       </c>
       <c r="AZ66" s="22" t="n">
-        <v>1064857</v>
+        <v>1036369</v>
       </c>
       <c r="BA66" s="22" t="n">
-        <v>1036369</v>
+        <v>1098798</v>
       </c>
       <c r="BB66" s="22" t="n">
-        <v>1098798</v>
+        <v>1192785</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10007,80 +10007,80 @@
       <c r="AC67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD67" s="15" t="s">
-        <v>58</v>
+      <c r="AD67" s="15" t="n">
+        <v>385440</v>
       </c>
       <c r="AE67" s="15" t="n">
-        <v>385440</v>
+        <v>484419</v>
       </c>
       <c r="AF67" s="15" t="n">
-        <v>484419</v>
+        <v>483082</v>
       </c>
       <c r="AG67" s="15" t="n">
-        <v>483082</v>
+        <v>496419</v>
       </c>
       <c r="AH67" s="15" t="n">
-        <v>496419</v>
+        <v>517813</v>
       </c>
       <c r="AI67" s="15" t="n">
-        <v>517813</v>
+        <v>540050</v>
       </c>
       <c r="AJ67" s="15" t="n">
-        <v>540050</v>
+        <v>567466</v>
       </c>
       <c r="AK67" s="15" t="n">
-        <v>567466</v>
+        <v>557958</v>
       </c>
       <c r="AL67" s="15" t="n">
-        <v>557958</v>
+        <v>544093</v>
       </c>
       <c r="AM67" s="15" t="n">
-        <v>544093</v>
+        <v>567478</v>
       </c>
       <c r="AN67" s="15" t="n">
-        <v>567478</v>
-      </c>
-      <c r="AO67" s="15" t="n">
         <v>561452</v>
       </c>
-      <c r="AP67" s="15" t="s">
-        <v>58</v>
+      <c r="AO67" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP67" s="15" t="n">
+        <v>555978</v>
       </c>
       <c r="AQ67" s="15" t="n">
-        <v>555978</v>
+        <v>623572</v>
       </c>
       <c r="AR67" s="15" t="n">
-        <v>623572</v>
+        <v>623225</v>
       </c>
       <c r="AS67" s="15" t="n">
-        <v>623225</v>
+        <v>624406</v>
       </c>
       <c r="AT67" s="15" t="n">
-        <v>624406</v>
+        <v>641046</v>
       </c>
       <c r="AU67" s="15" t="n">
-        <v>641046</v>
+        <v>647000</v>
       </c>
       <c r="AV67" s="15" t="n">
-        <v>647000</v>
+        <v>710224</v>
       </c>
       <c r="AW67" s="15" t="n">
-        <v>710224</v>
+        <v>707965</v>
       </c>
       <c r="AX67" s="15" t="n">
-        <v>707965</v>
+        <v>855332</v>
       </c>
       <c r="AY67" s="15" t="n">
-        <v>855332</v>
+        <v>804035</v>
       </c>
       <c r="AZ67" s="15" t="n">
-        <v>804035</v>
+        <v>772759</v>
       </c>
       <c r="BA67" s="15" t="n">
-        <v>772759</v>
+        <v>822332</v>
       </c>
       <c r="BB67" s="15" t="n">
-        <v>822332</v>
+        <v>891679</v>
       </c>
     </row>
   </sheetData>
